--- a/data/ManyBabiesDataExport.xlsx
+++ b/data/ManyBabiesDataExport.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="96">
   <si>
     <t>Total Fixation Duration (Include Zeros)_ADS1_ADS1_Sum</t>
   </si>
@@ -198,6 +198,9 @@
   </si>
   <si>
     <t>MB12_S38_46667</t>
+  </si>
+  <si>
+    <t>MB12_S39_49005</t>
   </si>
   <si>
     <t>MB6_S01_46278</t>
@@ -632,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BU78"/>
+  <dimension ref="A1:BU79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection sqref="A1:BU79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9261,7 +9264,7 @@
         <v>56</v>
       </c>
       <c r="B40">
-        <v>14.91</v>
+        <v>3.73</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -9273,7 +9276,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>6.23</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -9285,7 +9288,7 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>5.01</v>
+        <v>10.98</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -9297,7 +9300,7 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>4.21</v>
+        <v>7.91</v>
       </c>
       <c r="O40">
         <v>0</v>
@@ -9309,7 +9312,7 @@
         <v>0</v>
       </c>
       <c r="R40">
-        <v>5.61</v>
+        <v>3.76</v>
       </c>
       <c r="S40">
         <v>0</v>
@@ -9321,7 +9324,7 @@
         <v>0</v>
       </c>
       <c r="V40">
-        <v>2.83</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="W40">
         <v>0</v>
@@ -9333,7 +9336,7 @@
         <v>0</v>
       </c>
       <c r="Z40">
-        <v>3.01</v>
+        <v>2.68</v>
       </c>
       <c r="AA40">
         <v>0</v>
@@ -9345,7 +9348,7 @@
         <v>0</v>
       </c>
       <c r="AD40">
-        <v>6.97</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="AE40">
         <v>0</v>
@@ -9357,7 +9360,7 @@
         <v>0</v>
       </c>
       <c r="AH40">
-        <v>13.84</v>
+        <v>16.11</v>
       </c>
       <c r="AI40">
         <v>0</v>
@@ -9369,7 +9372,7 @@
         <v>0</v>
       </c>
       <c r="AL40">
-        <v>8.0299999999999994</v>
+        <v>13.61</v>
       </c>
       <c r="AM40">
         <v>0</v>
@@ -9381,7 +9384,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>6.05</v>
+        <v>8.01</v>
       </c>
       <c r="AQ40">
         <v>0</v>
@@ -9393,7 +9396,7 @@
         <v>0</v>
       </c>
       <c r="AT40">
-        <v>3.38</v>
+        <v>0.22</v>
       </c>
       <c r="AU40">
         <v>0</v>
@@ -9405,7 +9408,7 @@
         <v>0</v>
       </c>
       <c r="AX40">
-        <v>13.92</v>
+        <v>3.89</v>
       </c>
       <c r="AY40">
         <v>0</v>
@@ -9417,7 +9420,7 @@
         <v>0</v>
       </c>
       <c r="BB40">
-        <v>8.39</v>
+        <v>2.63</v>
       </c>
       <c r="BC40">
         <v>0</v>
@@ -9429,7 +9432,7 @@
         <v>0</v>
       </c>
       <c r="BF40">
-        <v>10.68</v>
+        <v>4.95</v>
       </c>
       <c r="BG40">
         <v>0</v>
@@ -9441,7 +9444,7 @@
         <v>0</v>
       </c>
       <c r="BJ40">
-        <v>6.69</v>
+        <v>0.02</v>
       </c>
       <c r="BK40">
         <v>0</v>
@@ -9453,7 +9456,7 @@
         <v>0</v>
       </c>
       <c r="BN40">
-        <v>16.66</v>
+        <v>11.41</v>
       </c>
       <c r="BO40">
         <v>0</v>
@@ -9465,7 +9468,7 @@
         <v>0</v>
       </c>
       <c r="BR40">
-        <v>9.01</v>
+        <v>3.85</v>
       </c>
       <c r="BS40">
         <v>0</v>
@@ -9482,7 +9485,7 @@
         <v>57</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>14.91</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -9494,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>6.23</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -9506,7 +9509,7 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>5.01</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -9518,7 +9521,7 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>0</v>
+        <v>4.21</v>
       </c>
       <c r="O41">
         <v>0</v>
@@ -9530,7 +9533,7 @@
         <v>0</v>
       </c>
       <c r="R41">
-        <v>0</v>
+        <v>5.61</v>
       </c>
       <c r="S41">
         <v>0</v>
@@ -9542,7 +9545,7 @@
         <v>0</v>
       </c>
       <c r="V41">
-        <v>0</v>
+        <v>2.83</v>
       </c>
       <c r="W41">
         <v>0</v>
@@ -9554,7 +9557,7 @@
         <v>0</v>
       </c>
       <c r="Z41">
-        <v>0</v>
+        <v>3.01</v>
       </c>
       <c r="AA41">
         <v>0</v>
@@ -9566,7 +9569,7 @@
         <v>0</v>
       </c>
       <c r="AD41">
-        <v>0</v>
+        <v>6.97</v>
       </c>
       <c r="AE41">
         <v>0</v>
@@ -9578,7 +9581,7 @@
         <v>0</v>
       </c>
       <c r="AH41">
-        <v>0</v>
+        <v>13.84</v>
       </c>
       <c r="AI41">
         <v>0</v>
@@ -9590,7 +9593,7 @@
         <v>0</v>
       </c>
       <c r="AL41">
-        <v>0</v>
+        <v>8.0299999999999994</v>
       </c>
       <c r="AM41">
         <v>0</v>
@@ -9602,7 +9605,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>0</v>
+        <v>6.05</v>
       </c>
       <c r="AQ41">
         <v>0</v>
@@ -9614,7 +9617,7 @@
         <v>0</v>
       </c>
       <c r="AT41">
-        <v>0</v>
+        <v>3.38</v>
       </c>
       <c r="AU41">
         <v>0</v>
@@ -9626,7 +9629,7 @@
         <v>0</v>
       </c>
       <c r="AX41">
-        <v>0</v>
+        <v>13.92</v>
       </c>
       <c r="AY41">
         <v>0</v>
@@ -9638,7 +9641,7 @@
         <v>0</v>
       </c>
       <c r="BB41">
-        <v>0</v>
+        <v>8.39</v>
       </c>
       <c r="BC41">
         <v>0</v>
@@ -9650,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="BF41">
-        <v>0</v>
+        <v>10.68</v>
       </c>
       <c r="BG41">
         <v>0</v>
@@ -9662,7 +9665,7 @@
         <v>0</v>
       </c>
       <c r="BJ41">
-        <v>0</v>
+        <v>6.69</v>
       </c>
       <c r="BK41">
         <v>0</v>
@@ -9674,7 +9677,7 @@
         <v>0</v>
       </c>
       <c r="BN41">
-        <v>0</v>
+        <v>16.66</v>
       </c>
       <c r="BO41">
         <v>0</v>
@@ -9686,7 +9689,7 @@
         <v>0</v>
       </c>
       <c r="BR41">
-        <v>0</v>
+        <v>9.01</v>
       </c>
       <c r="BS41">
         <v>0</v>
@@ -9712,7 +9715,7 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>2.2599999999999998</v>
+        <v>0</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -9724,7 +9727,7 @@
         <v>0</v>
       </c>
       <c r="I42">
-        <v>12.24</v>
+        <v>0</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -9736,7 +9739,7 @@
         <v>0</v>
       </c>
       <c r="M42">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -9748,7 +9751,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>2.0299999999999998</v>
+        <v>0</v>
       </c>
       <c r="R42">
         <v>0</v>
@@ -9760,7 +9763,7 @@
         <v>0</v>
       </c>
       <c r="U42">
-        <v>2.93</v>
+        <v>0</v>
       </c>
       <c r="V42">
         <v>0</v>
@@ -9772,7 +9775,7 @@
         <v>0</v>
       </c>
       <c r="Y42">
-        <v>3.05</v>
+        <v>0</v>
       </c>
       <c r="Z42">
         <v>0</v>
@@ -9784,7 +9787,7 @@
         <v>0</v>
       </c>
       <c r="AC42">
-        <v>5.19</v>
+        <v>0</v>
       </c>
       <c r="AD42">
         <v>0</v>
@@ -9796,7 +9799,7 @@
         <v>0</v>
       </c>
       <c r="AG42">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AH42">
         <v>0</v>
@@ -9808,7 +9811,7 @@
         <v>0</v>
       </c>
       <c r="AK42">
-        <v>4.82</v>
+        <v>0</v>
       </c>
       <c r="AL42">
         <v>0</v>
@@ -9820,7 +9823,7 @@
         <v>0</v>
       </c>
       <c r="AO42">
-        <v>9.9</v>
+        <v>0</v>
       </c>
       <c r="AP42">
         <v>0</v>
@@ -9832,7 +9835,7 @@
         <v>0</v>
       </c>
       <c r="AS42">
-        <v>2.86</v>
+        <v>0</v>
       </c>
       <c r="AT42">
         <v>0</v>
@@ -9844,7 +9847,7 @@
         <v>0</v>
       </c>
       <c r="AW42">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="AX42">
         <v>0</v>
@@ -9856,7 +9859,7 @@
         <v>0</v>
       </c>
       <c r="BA42">
-        <v>4.8600000000000003</v>
+        <v>0</v>
       </c>
       <c r="BB42">
         <v>0</v>
@@ -9868,7 +9871,7 @@
         <v>0</v>
       </c>
       <c r="BE42">
-        <v>2.64</v>
+        <v>0</v>
       </c>
       <c r="BF42">
         <v>0</v>
@@ -9880,7 +9883,7 @@
         <v>0</v>
       </c>
       <c r="BI42">
-        <v>1.1299999999999999</v>
+        <v>0</v>
       </c>
       <c r="BJ42">
         <v>0</v>
@@ -9892,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="BM42">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="BN42">
         <v>0</v>
@@ -9904,7 +9907,7 @@
         <v>0</v>
       </c>
       <c r="BQ42">
-        <v>11.04</v>
+        <v>0</v>
       </c>
       <c r="BR42">
         <v>0</v>
@@ -9916,7 +9919,7 @@
         <v>0</v>
       </c>
       <c r="BU42">
-        <v>17.29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:73" x14ac:dyDescent="0.2">
@@ -9927,217 +9930,217 @@
         <v>0</v>
       </c>
       <c r="C43">
-        <v>9.31</v>
+        <v>0</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
       <c r="G43">
-        <v>14.57</v>
+        <v>0</v>
       </c>
       <c r="H43">
         <v>0</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>12.24</v>
       </c>
       <c r="J43">
         <v>0</v>
       </c>
       <c r="K43">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="L43">
         <v>0</v>
       </c>
       <c r="M43">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="N43">
         <v>0</v>
       </c>
       <c r="O43">
-        <v>8.76</v>
+        <v>0</v>
       </c>
       <c r="P43">
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>0</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="R43">
         <v>0</v>
       </c>
       <c r="S43">
-        <v>2.62</v>
+        <v>0</v>
       </c>
       <c r="T43">
         <v>0</v>
       </c>
       <c r="U43">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="V43">
         <v>0</v>
       </c>
       <c r="W43">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="X43">
         <v>0</v>
       </c>
       <c r="Y43">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="Z43">
         <v>0</v>
       </c>
       <c r="AA43">
-        <v>5.78</v>
+        <v>0</v>
       </c>
       <c r="AB43">
         <v>0</v>
       </c>
       <c r="AC43">
-        <v>0</v>
+        <v>5.19</v>
       </c>
       <c r="AD43">
         <v>0</v>
       </c>
       <c r="AE43">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="AF43">
         <v>0</v>
       </c>
       <c r="AG43">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AH43">
         <v>0</v>
       </c>
       <c r="AI43">
-        <v>11.57</v>
+        <v>0</v>
       </c>
       <c r="AJ43">
         <v>0</v>
       </c>
       <c r="AK43">
-        <v>0</v>
+        <v>4.82</v>
       </c>
       <c r="AL43">
         <v>0</v>
       </c>
       <c r="AM43">
-        <v>9.08</v>
+        <v>0</v>
       </c>
       <c r="AN43">
         <v>0</v>
       </c>
       <c r="AO43">
-        <v>0</v>
+        <v>9.9</v>
       </c>
       <c r="AP43">
         <v>0</v>
       </c>
       <c r="AQ43">
-        <v>11.21</v>
+        <v>0</v>
       </c>
       <c r="AR43">
         <v>0</v>
       </c>
       <c r="AS43">
-        <v>0</v>
+        <v>2.86</v>
       </c>
       <c r="AT43">
         <v>0</v>
       </c>
       <c r="AU43">
-        <v>3.28</v>
+        <v>0</v>
       </c>
       <c r="AV43">
         <v>0</v>
       </c>
       <c r="AW43">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="AX43">
         <v>0</v>
       </c>
       <c r="AY43">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="AZ43">
         <v>0</v>
       </c>
       <c r="BA43">
-        <v>0</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="BB43">
         <v>0</v>
       </c>
       <c r="BC43">
-        <v>2.78</v>
+        <v>0</v>
       </c>
       <c r="BD43">
         <v>0</v>
       </c>
       <c r="BE43">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="BF43">
         <v>0</v>
       </c>
       <c r="BG43">
-        <v>7.42</v>
+        <v>0</v>
       </c>
       <c r="BH43">
         <v>0</v>
       </c>
       <c r="BI43">
-        <v>0</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="BJ43">
         <v>0</v>
       </c>
       <c r="BK43">
-        <v>10.38</v>
+        <v>0</v>
       </c>
       <c r="BL43">
         <v>0</v>
       </c>
       <c r="BM43">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="BN43">
         <v>0</v>
       </c>
       <c r="BO43">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="BP43">
         <v>0</v>
       </c>
       <c r="BQ43">
-        <v>0</v>
+        <v>11.04</v>
       </c>
       <c r="BR43">
         <v>0</v>
       </c>
       <c r="BS43">
-        <v>15.35</v>
+        <v>0</v>
       </c>
       <c r="BT43">
         <v>0</v>
       </c>
       <c r="BU43">
-        <v>0</v>
+        <v>17.29</v>
       </c>
     </row>
     <row r="44" spans="1:73" x14ac:dyDescent="0.2">
@@ -10148,10 +10151,10 @@
         <v>0</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>9.31</v>
       </c>
       <c r="D44">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -10160,10 +10163,10 @@
         <v>0</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>14.57</v>
       </c>
       <c r="H44">
-        <v>0.59</v>
+        <v>0</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -10172,10 +10175,10 @@
         <v>0</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="L44">
-        <v>2.48</v>
+        <v>0</v>
       </c>
       <c r="M44">
         <v>0</v>
@@ -10184,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="O44">
-        <v>0</v>
+        <v>8.76</v>
       </c>
       <c r="P44">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q44">
         <v>0</v>
@@ -10196,10 +10199,10 @@
         <v>0</v>
       </c>
       <c r="S44">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="T44">
-        <v>10.119999999999999</v>
+        <v>0</v>
       </c>
       <c r="U44">
         <v>0</v>
@@ -10208,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="W44">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="X44">
-        <v>3.63</v>
+        <v>0</v>
       </c>
       <c r="Y44">
         <v>0</v>
@@ -10220,10 +10223,10 @@
         <v>0</v>
       </c>
       <c r="AA44">
-        <v>0</v>
+        <v>5.78</v>
       </c>
       <c r="AB44">
-        <v>2.36</v>
+        <v>0</v>
       </c>
       <c r="AC44">
         <v>0</v>
@@ -10232,118 +10235,118 @@
         <v>0</v>
       </c>
       <c r="AE44">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AF44">
+        <v>0</v>
+      </c>
+      <c r="AG44">
+        <v>0</v>
+      </c>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>11.57</v>
+      </c>
+      <c r="AJ44">
+        <v>0</v>
+      </c>
+      <c r="AK44">
+        <v>0</v>
+      </c>
+      <c r="AL44">
+        <v>0</v>
+      </c>
+      <c r="AM44">
+        <v>9.08</v>
+      </c>
+      <c r="AN44">
+        <v>0</v>
+      </c>
+      <c r="AO44">
+        <v>0</v>
+      </c>
+      <c r="AP44">
+        <v>0</v>
+      </c>
+      <c r="AQ44">
+        <v>11.21</v>
+      </c>
+      <c r="AR44">
+        <v>0</v>
+      </c>
+      <c r="AS44">
+        <v>0</v>
+      </c>
+      <c r="AT44">
+        <v>0</v>
+      </c>
+      <c r="AU44">
+        <v>3.28</v>
+      </c>
+      <c r="AV44">
+        <v>0</v>
+      </c>
+      <c r="AW44">
+        <v>0</v>
+      </c>
+      <c r="AX44">
+        <v>0</v>
+      </c>
+      <c r="AY44">
+        <v>2.65</v>
+      </c>
+      <c r="AZ44">
+        <v>0</v>
+      </c>
+      <c r="BA44">
+        <v>0</v>
+      </c>
+      <c r="BB44">
+        <v>0</v>
+      </c>
+      <c r="BC44">
+        <v>2.78</v>
+      </c>
+      <c r="BD44">
+        <v>0</v>
+      </c>
+      <c r="BE44">
+        <v>0</v>
+      </c>
+      <c r="BF44">
+        <v>0</v>
+      </c>
+      <c r="BG44">
+        <v>7.42</v>
+      </c>
+      <c r="BH44">
+        <v>0</v>
+      </c>
+      <c r="BI44">
+        <v>0</v>
+      </c>
+      <c r="BJ44">
+        <v>0</v>
+      </c>
+      <c r="BK44">
+        <v>10.38</v>
+      </c>
+      <c r="BL44">
+        <v>0</v>
+      </c>
+      <c r="BM44">
+        <v>0</v>
+      </c>
+      <c r="BN44">
+        <v>0</v>
+      </c>
+      <c r="BO44">
         <v>1.37</v>
       </c>
-      <c r="AG44">
-        <v>0</v>
-      </c>
-      <c r="AH44">
-        <v>0</v>
-      </c>
-      <c r="AI44">
-        <v>0</v>
-      </c>
-      <c r="AJ44">
-        <v>3.65</v>
-      </c>
-      <c r="AK44">
-        <v>0</v>
-      </c>
-      <c r="AL44">
-        <v>0</v>
-      </c>
-      <c r="AM44">
-        <v>0</v>
-      </c>
-      <c r="AN44">
-        <v>5.61</v>
-      </c>
-      <c r="AO44">
-        <v>0</v>
-      </c>
-      <c r="AP44">
-        <v>0</v>
-      </c>
-      <c r="AQ44">
-        <v>0</v>
-      </c>
-      <c r="AR44">
-        <v>3.96</v>
-      </c>
-      <c r="AS44">
-        <v>0</v>
-      </c>
-      <c r="AT44">
-        <v>0</v>
-      </c>
-      <c r="AU44">
-        <v>0</v>
-      </c>
-      <c r="AV44">
-        <v>6.87</v>
-      </c>
-      <c r="AW44">
-        <v>0</v>
-      </c>
-      <c r="AX44">
-        <v>0</v>
-      </c>
-      <c r="AY44">
-        <v>0</v>
-      </c>
-      <c r="AZ44">
-        <v>15.13</v>
-      </c>
-      <c r="BA44">
-        <v>0</v>
-      </c>
-      <c r="BB44">
-        <v>0</v>
-      </c>
-      <c r="BC44">
-        <v>0</v>
-      </c>
-      <c r="BD44">
-        <v>7.03</v>
-      </c>
-      <c r="BE44">
-        <v>0</v>
-      </c>
-      <c r="BF44">
-        <v>0</v>
-      </c>
-      <c r="BG44">
-        <v>0</v>
-      </c>
-      <c r="BH44">
-        <v>0</v>
-      </c>
-      <c r="BI44">
-        <v>0</v>
-      </c>
-      <c r="BJ44">
-        <v>0</v>
-      </c>
-      <c r="BK44">
-        <v>0</v>
-      </c>
-      <c r="BL44">
-        <v>3.89</v>
-      </c>
-      <c r="BM44">
-        <v>0</v>
-      </c>
-      <c r="BN44">
-        <v>0</v>
-      </c>
-      <c r="BO44">
-        <v>0</v>
-      </c>
       <c r="BP44">
-        <v>4.38</v>
+        <v>0</v>
       </c>
       <c r="BQ44">
         <v>0</v>
@@ -10352,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="BS44">
-        <v>0</v>
+        <v>15.35</v>
       </c>
       <c r="BT44">
         <v>0</v>
@@ -10366,175 +10369,175 @@
         <v>61</v>
       </c>
       <c r="B45">
-        <v>7.13</v>
+        <v>0</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>0.59</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="J45">
-        <v>3.01</v>
+        <v>0</v>
       </c>
       <c r="K45">
         <v>0</v>
       </c>
       <c r="L45">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="M45">
         <v>0</v>
       </c>
       <c r="N45">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="O45">
         <v>0</v>
       </c>
       <c r="P45">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q45">
         <v>0</v>
       </c>
       <c r="R45">
-        <v>1.97</v>
+        <v>0</v>
       </c>
       <c r="S45">
         <v>0</v>
       </c>
       <c r="T45">
-        <v>0</v>
+        <v>10.119999999999999</v>
       </c>
       <c r="U45">
         <v>0</v>
       </c>
       <c r="V45">
-        <v>1.69</v>
+        <v>0</v>
       </c>
       <c r="W45">
         <v>0</v>
       </c>
       <c r="X45">
-        <v>0</v>
+        <v>3.63</v>
       </c>
       <c r="Y45">
         <v>0</v>
       </c>
       <c r="Z45">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="AA45">
         <v>0</v>
       </c>
       <c r="AB45">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="AC45">
         <v>0</v>
       </c>
       <c r="AD45">
-        <v>2.87</v>
+        <v>0</v>
       </c>
       <c r="AE45">
         <v>0</v>
       </c>
       <c r="AF45">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AG45">
         <v>0</v>
       </c>
       <c r="AH45">
-        <v>9.69</v>
+        <v>0</v>
       </c>
       <c r="AI45">
         <v>0</v>
       </c>
       <c r="AJ45">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="AK45">
         <v>0</v>
       </c>
       <c r="AL45">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AM45">
         <v>0</v>
       </c>
       <c r="AN45">
-        <v>0</v>
+        <v>5.61</v>
       </c>
       <c r="AO45">
         <v>0</v>
       </c>
       <c r="AP45">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="AQ45">
         <v>0</v>
       </c>
       <c r="AR45">
-        <v>0</v>
+        <v>3.96</v>
       </c>
       <c r="AS45">
         <v>0</v>
       </c>
       <c r="AT45">
-        <v>2.63</v>
+        <v>0</v>
       </c>
       <c r="AU45">
         <v>0</v>
       </c>
       <c r="AV45">
-        <v>0</v>
+        <v>6.87</v>
       </c>
       <c r="AW45">
         <v>0</v>
       </c>
       <c r="AX45">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="AY45">
         <v>0</v>
       </c>
       <c r="AZ45">
-        <v>0</v>
+        <v>15.13</v>
       </c>
       <c r="BA45">
         <v>0</v>
       </c>
       <c r="BB45">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="BC45">
         <v>0</v>
       </c>
       <c r="BD45">
-        <v>0</v>
+        <v>7.03</v>
       </c>
       <c r="BE45">
         <v>0</v>
       </c>
       <c r="BF45">
-        <v>2.5499999999999998</v>
+        <v>0</v>
       </c>
       <c r="BG45">
         <v>0</v>
@@ -10546,31 +10549,31 @@
         <v>0</v>
       </c>
       <c r="BJ45">
-        <v>1.1100000000000001</v>
+        <v>0</v>
       </c>
       <c r="BK45">
         <v>0</v>
       </c>
       <c r="BL45">
-        <v>0</v>
+        <v>3.89</v>
       </c>
       <c r="BM45">
         <v>0</v>
       </c>
       <c r="BN45">
-        <v>7.52</v>
+        <v>0</v>
       </c>
       <c r="BO45">
         <v>0</v>
       </c>
       <c r="BP45">
-        <v>0</v>
+        <v>4.38</v>
       </c>
       <c r="BQ45">
         <v>0</v>
       </c>
       <c r="BR45">
-        <v>3.67</v>
+        <v>0</v>
       </c>
       <c r="BS45">
         <v>0</v>
@@ -10587,10 +10590,10 @@
         <v>62</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>7.13</v>
       </c>
       <c r="C46">
-        <v>10.29</v>
+        <v>0</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -10599,10 +10602,10 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="G46">
-        <v>7.39</v>
+        <v>0</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -10611,10 +10614,10 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>3.01</v>
       </c>
       <c r="K46">
-        <v>5.95</v>
+        <v>0</v>
       </c>
       <c r="L46">
         <v>0</v>
@@ -10623,10 +10626,10 @@
         <v>0</v>
       </c>
       <c r="N46">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="O46">
-        <v>4.1900000000000004</v>
+        <v>0</v>
       </c>
       <c r="P46">
         <v>0</v>
@@ -10635,10 +10638,10 @@
         <v>0</v>
       </c>
       <c r="R46">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="S46">
-        <v>4.4400000000000004</v>
+        <v>0</v>
       </c>
       <c r="T46">
         <v>0</v>
@@ -10647,10 +10650,10 @@
         <v>0</v>
       </c>
       <c r="V46">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="W46">
-        <v>2.4900000000000002</v>
+        <v>0</v>
       </c>
       <c r="X46">
         <v>0</v>
@@ -10659,10 +10662,10 @@
         <v>0</v>
       </c>
       <c r="Z46">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="AA46">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="AB46">
         <v>0</v>
@@ -10671,10 +10674,10 @@
         <v>0</v>
       </c>
       <c r="AD46">
-        <v>0</v>
+        <v>2.87</v>
       </c>
       <c r="AE46">
-        <v>5.88</v>
+        <v>0</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -10683,10 +10686,10 @@
         <v>0</v>
       </c>
       <c r="AH46">
-        <v>0</v>
+        <v>9.69</v>
       </c>
       <c r="AI46">
-        <v>11.13</v>
+        <v>0</v>
       </c>
       <c r="AJ46">
         <v>0</v>
@@ -10695,10 +10698,10 @@
         <v>0</v>
       </c>
       <c r="AL46">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AM46">
-        <v>8.7899999999999991</v>
+        <v>0</v>
       </c>
       <c r="AN46">
         <v>0</v>
@@ -10707,10 +10710,10 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AQ46">
-        <v>9.9700000000000006</v>
+        <v>0</v>
       </c>
       <c r="AR46">
         <v>0</v>
@@ -10719,10 +10722,10 @@
         <v>0</v>
       </c>
       <c r="AT46">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="AU46">
-        <v>3.34</v>
+        <v>0</v>
       </c>
       <c r="AV46">
         <v>0</v>
@@ -10731,10 +10734,10 @@
         <v>0</v>
       </c>
       <c r="AX46">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="AY46">
-        <v>2.3199999999999998</v>
+        <v>0</v>
       </c>
       <c r="AZ46">
         <v>0</v>
@@ -10743,10 +10746,10 @@
         <v>0</v>
       </c>
       <c r="BB46">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="BC46">
-        <v>2.68</v>
+        <v>0</v>
       </c>
       <c r="BD46">
         <v>0</v>
@@ -10755,10 +10758,10 @@
         <v>0</v>
       </c>
       <c r="BF46">
-        <v>0</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="BG46">
-        <v>4.0999999999999996</v>
+        <v>0</v>
       </c>
       <c r="BH46">
         <v>0</v>
@@ -10767,10 +10770,10 @@
         <v>0</v>
       </c>
       <c r="BJ46">
-        <v>0</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="BK46">
-        <v>3.77</v>
+        <v>0</v>
       </c>
       <c r="BL46">
         <v>0</v>
@@ -10779,10 +10782,10 @@
         <v>0</v>
       </c>
       <c r="BN46">
-        <v>0</v>
+        <v>7.52</v>
       </c>
       <c r="BO46">
-        <v>12.44</v>
+        <v>0</v>
       </c>
       <c r="BP46">
         <v>0</v>
@@ -10791,10 +10794,10 @@
         <v>0</v>
       </c>
       <c r="BR46">
-        <v>0</v>
+        <v>3.67</v>
       </c>
       <c r="BS46">
-        <v>15.06</v>
+        <v>0</v>
       </c>
       <c r="BT46">
         <v>0</v>
@@ -10811,10 +10814,10 @@
         <v>0</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>10.29</v>
       </c>
       <c r="D47">
-        <v>4.7300000000000004</v>
+        <v>0</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -10823,82 +10826,82 @@
         <v>0</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>7.39</v>
       </c>
       <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>5.95</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>1.22</v>
+      </c>
+      <c r="AB47">
+        <v>0</v>
+      </c>
+      <c r="AC47">
+        <v>0</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
         <v>5.88</v>
       </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <v>1.75</v>
-      </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
-      <c r="N47">
-        <v>0</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47">
-        <v>1.24</v>
-      </c>
-      <c r="Q47">
-        <v>0</v>
-      </c>
-      <c r="R47">
-        <v>0</v>
-      </c>
-      <c r="S47">
-        <v>0</v>
-      </c>
-      <c r="T47">
-        <v>2.67</v>
-      </c>
-      <c r="U47">
-        <v>0</v>
-      </c>
-      <c r="V47">
-        <v>0</v>
-      </c>
-      <c r="W47">
-        <v>0</v>
-      </c>
-      <c r="X47">
-        <v>11.4</v>
-      </c>
-      <c r="Y47">
-        <v>0</v>
-      </c>
-      <c r="Z47">
-        <v>0</v>
-      </c>
-      <c r="AA47">
-        <v>0</v>
-      </c>
-      <c r="AB47">
-        <v>1.56</v>
-      </c>
-      <c r="AC47">
-        <v>0</v>
-      </c>
-      <c r="AD47">
-        <v>0</v>
-      </c>
-      <c r="AE47">
-        <v>0</v>
-      </c>
       <c r="AF47">
-        <v>6.49</v>
+        <v>0</v>
       </c>
       <c r="AG47">
         <v>0</v>
@@ -10907,10 +10910,10 @@
         <v>0</v>
       </c>
       <c r="AI47">
-        <v>0</v>
+        <v>11.13</v>
       </c>
       <c r="AJ47">
-        <v>2.5299999999999998</v>
+        <v>0</v>
       </c>
       <c r="AK47">
         <v>0</v>
@@ -10919,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="AM47">
-        <v>0</v>
+        <v>8.7899999999999991</v>
       </c>
       <c r="AN47">
-        <v>2.2000000000000002</v>
+        <v>0</v>
       </c>
       <c r="AO47">
         <v>0</v>
@@ -10931,10 +10934,10 @@
         <v>0</v>
       </c>
       <c r="AQ47">
-        <v>0</v>
+        <v>9.9700000000000006</v>
       </c>
       <c r="AR47">
-        <v>1.82</v>
+        <v>0</v>
       </c>
       <c r="AS47">
         <v>0</v>
@@ -10943,10 +10946,10 @@
         <v>0</v>
       </c>
       <c r="AU47">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="AV47">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="AW47">
         <v>0</v>
@@ -10955,10 +10958,10 @@
         <v>0</v>
       </c>
       <c r="AY47">
-        <v>0</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="AZ47">
-        <v>7.35</v>
+        <v>0</v>
       </c>
       <c r="BA47">
         <v>0</v>
@@ -10967,10 +10970,10 @@
         <v>0</v>
       </c>
       <c r="BC47">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="BD47">
-        <v>3.49</v>
+        <v>0</v>
       </c>
       <c r="BE47">
         <v>0</v>
@@ -10979,10 +10982,10 @@
         <v>0</v>
       </c>
       <c r="BG47">
-        <v>0</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="BH47">
-        <v>2.2000000000000002</v>
+        <v>0</v>
       </c>
       <c r="BI47">
         <v>0</v>
@@ -10991,10 +10994,10 @@
         <v>0</v>
       </c>
       <c r="BK47">
-        <v>0</v>
+        <v>3.77</v>
       </c>
       <c r="BL47">
-        <v>5.24</v>
+        <v>0</v>
       </c>
       <c r="BM47">
         <v>0</v>
@@ -11003,10 +11006,10 @@
         <v>0</v>
       </c>
       <c r="BO47">
-        <v>0</v>
+        <v>12.44</v>
       </c>
       <c r="BP47">
-        <v>10.83</v>
+        <v>0</v>
       </c>
       <c r="BQ47">
         <v>0</v>
@@ -11015,10 +11018,10 @@
         <v>0</v>
       </c>
       <c r="BS47">
-        <v>0</v>
+        <v>15.06</v>
       </c>
       <c r="BT47">
-        <v>17.62</v>
+        <v>0</v>
       </c>
       <c r="BU47">
         <v>0</v>
@@ -11035,10 +11038,10 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="E48">
-        <v>13.43</v>
+        <v>0</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -11047,10 +11050,10 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>5.88</v>
       </c>
       <c r="I48">
-        <v>1.1599999999999999</v>
+        <v>0</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -11059,10 +11062,10 @@
         <v>0</v>
       </c>
       <c r="L48">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="M48">
-        <v>3.43</v>
+        <v>0</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -11071,10 +11074,10 @@
         <v>0</v>
       </c>
       <c r="P48">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="Q48">
-        <v>4.99</v>
+        <v>0</v>
       </c>
       <c r="R48">
         <v>0</v>
@@ -11083,10 +11086,10 @@
         <v>0</v>
       </c>
       <c r="T48">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="U48">
-        <v>15.41</v>
+        <v>0</v>
       </c>
       <c r="V48">
         <v>0</v>
@@ -11095,10 +11098,10 @@
         <v>0</v>
       </c>
       <c r="X48">
-        <v>0</v>
+        <v>11.4</v>
       </c>
       <c r="Y48">
-        <v>2.76</v>
+        <v>0</v>
       </c>
       <c r="Z48">
         <v>0</v>
@@ -11107,7 +11110,7 @@
         <v>0</v>
       </c>
       <c r="AB48">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AC48">
         <v>0</v>
@@ -11119,10 +11122,10 @@
         <v>0</v>
       </c>
       <c r="AF48">
-        <v>0</v>
+        <v>6.49</v>
       </c>
       <c r="AG48">
-        <v>5.55</v>
+        <v>0</v>
       </c>
       <c r="AH48">
         <v>0</v>
@@ -11131,10 +11134,10 @@
         <v>0</v>
       </c>
       <c r="AJ48">
-        <v>0</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="AK48">
-        <v>11.34</v>
+        <v>0</v>
       </c>
       <c r="AL48">
         <v>0</v>
@@ -11143,10 +11146,10 @@
         <v>0</v>
       </c>
       <c r="AN48">
-        <v>0</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AO48">
-        <v>4.53</v>
+        <v>0</v>
       </c>
       <c r="AP48">
         <v>0</v>
@@ -11155,10 +11158,10 @@
         <v>0</v>
       </c>
       <c r="AR48">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AS48">
-        <v>13.88</v>
+        <v>0</v>
       </c>
       <c r="AT48">
         <v>0</v>
@@ -11167,10 +11170,10 @@
         <v>0</v>
       </c>
       <c r="AV48">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="AW48">
-        <v>4.24</v>
+        <v>0</v>
       </c>
       <c r="AX48">
         <v>0</v>
@@ -11179,10 +11182,10 @@
         <v>0</v>
       </c>
       <c r="AZ48">
-        <v>0</v>
+        <v>7.35</v>
       </c>
       <c r="BA48">
-        <v>14.45</v>
+        <v>0</v>
       </c>
       <c r="BB48">
         <v>0</v>
@@ -11191,10 +11194,10 @@
         <v>0</v>
       </c>
       <c r="BD48">
-        <v>0</v>
+        <v>3.49</v>
       </c>
       <c r="BE48">
-        <v>3.04</v>
+        <v>0</v>
       </c>
       <c r="BF48">
         <v>0</v>
@@ -11203,10 +11206,10 @@
         <v>0</v>
       </c>
       <c r="BH48">
-        <v>0</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="BI48">
-        <v>14.71</v>
+        <v>0</v>
       </c>
       <c r="BJ48">
         <v>0</v>
@@ -11215,10 +11218,10 @@
         <v>0</v>
       </c>
       <c r="BL48">
-        <v>0</v>
+        <v>5.24</v>
       </c>
       <c r="BM48">
-        <v>2.93</v>
+        <v>0</v>
       </c>
       <c r="BN48">
         <v>0</v>
@@ -11227,10 +11230,10 @@
         <v>0</v>
       </c>
       <c r="BP48">
-        <v>0</v>
+        <v>10.83</v>
       </c>
       <c r="BQ48">
-        <v>18.010000000000002</v>
+        <v>0</v>
       </c>
       <c r="BR48">
         <v>0</v>
@@ -11239,10 +11242,10 @@
         <v>0</v>
       </c>
       <c r="BT48">
-        <v>0</v>
+        <v>17.62</v>
       </c>
       <c r="BU48">
-        <v>17.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:73" x14ac:dyDescent="0.2">
@@ -11250,7 +11253,7 @@
         <v>65</v>
       </c>
       <c r="B49">
-        <v>16.489999999999998</v>
+        <v>0</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -11259,10 +11262,10 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>13.43</v>
       </c>
       <c r="F49">
-        <v>2.74</v>
+        <v>0</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -11271,10 +11274,10 @@
         <v>0</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="J49">
-        <v>4.84</v>
+        <v>0</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -11283,10 +11286,10 @@
         <v>0</v>
       </c>
       <c r="M49">
-        <v>0</v>
+        <v>3.43</v>
       </c>
       <c r="N49">
-        <v>2.96</v>
+        <v>0</v>
       </c>
       <c r="O49">
         <v>0</v>
@@ -11295,10 +11298,10 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>0</v>
+        <v>4.99</v>
       </c>
       <c r="R49">
-        <v>2.62</v>
+        <v>0</v>
       </c>
       <c r="S49">
         <v>0</v>
@@ -11307,10 +11310,10 @@
         <v>0</v>
       </c>
       <c r="U49">
-        <v>0</v>
+        <v>15.41</v>
       </c>
       <c r="V49">
-        <v>2.4300000000000002</v>
+        <v>0</v>
       </c>
       <c r="W49">
         <v>0</v>
@@ -11319,10 +11322,10 @@
         <v>0</v>
       </c>
       <c r="Y49">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="Z49">
-        <v>2.54</v>
+        <v>0</v>
       </c>
       <c r="AA49">
         <v>0</v>
@@ -11334,7 +11337,7 @@
         <v>0</v>
       </c>
       <c r="AD49">
-        <v>4.3600000000000003</v>
+        <v>0</v>
       </c>
       <c r="AE49">
         <v>0</v>
@@ -11343,10 +11346,10 @@
         <v>0</v>
       </c>
       <c r="AG49">
-        <v>0</v>
+        <v>5.55</v>
       </c>
       <c r="AH49">
-        <v>16.75</v>
+        <v>0</v>
       </c>
       <c r="AI49">
         <v>0</v>
@@ -11355,10 +11358,10 @@
         <v>0</v>
       </c>
       <c r="AK49">
-        <v>0</v>
+        <v>11.34</v>
       </c>
       <c r="AL49">
-        <v>12.19</v>
+        <v>0</v>
       </c>
       <c r="AM49">
         <v>0</v>
@@ -11367,10 +11370,10 @@
         <v>0</v>
       </c>
       <c r="AO49">
-        <v>0</v>
+        <v>4.53</v>
       </c>
       <c r="AP49">
-        <v>3.47</v>
+        <v>0</v>
       </c>
       <c r="AQ49">
         <v>0</v>
@@ -11379,10 +11382,10 @@
         <v>0</v>
       </c>
       <c r="AS49">
-        <v>0</v>
+        <v>13.88</v>
       </c>
       <c r="AT49">
-        <v>3.81</v>
+        <v>0</v>
       </c>
       <c r="AU49">
         <v>0</v>
@@ -11391,10 +11394,10 @@
         <v>0</v>
       </c>
       <c r="AW49">
-        <v>0</v>
+        <v>4.24</v>
       </c>
       <c r="AX49">
-        <v>1.79</v>
+        <v>0</v>
       </c>
       <c r="AY49">
         <v>0</v>
@@ -11403,10 +11406,10 @@
         <v>0</v>
       </c>
       <c r="BA49">
-        <v>0</v>
+        <v>14.45</v>
       </c>
       <c r="BB49">
-        <v>2.0499999999999998</v>
+        <v>0</v>
       </c>
       <c r="BC49">
         <v>0</v>
@@ -11415,10 +11418,10 @@
         <v>0</v>
       </c>
       <c r="BE49">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="BF49">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="BG49">
         <v>0</v>
@@ -11427,10 +11430,10 @@
         <v>0</v>
       </c>
       <c r="BI49">
-        <v>0</v>
+        <v>14.71</v>
       </c>
       <c r="BJ49">
-        <v>3.03</v>
+        <v>0</v>
       </c>
       <c r="BK49">
         <v>0</v>
@@ -11439,10 +11442,10 @@
         <v>0</v>
       </c>
       <c r="BM49">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="BN49">
-        <v>12.37</v>
+        <v>0</v>
       </c>
       <c r="BO49">
         <v>0</v>
@@ -11451,10 +11454,10 @@
         <v>0</v>
       </c>
       <c r="BQ49">
-        <v>0</v>
+        <v>18.010000000000002</v>
       </c>
       <c r="BR49">
-        <v>10.25</v>
+        <v>0</v>
       </c>
       <c r="BS49">
         <v>0</v>
@@ -11463,7 +11466,7 @@
         <v>0</v>
       </c>
       <c r="BU49">
-        <v>0</v>
+        <v>17.55</v>
       </c>
     </row>
     <row r="50" spans="1:73" x14ac:dyDescent="0.2">
@@ -11471,10 +11474,10 @@
         <v>66</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>16.489999999999998</v>
       </c>
       <c r="C50">
-        <v>14.13</v>
+        <v>0</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -11483,10 +11486,10 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="G50">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -11495,10 +11498,10 @@
         <v>0</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>4.84</v>
       </c>
       <c r="K50">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="L50">
         <v>0</v>
@@ -11507,10 +11510,10 @@
         <v>0</v>
       </c>
       <c r="N50">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="O50">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="P50">
         <v>0</v>
@@ -11519,10 +11522,10 @@
         <v>0</v>
       </c>
       <c r="R50">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="S50">
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="T50">
         <v>0</v>
@@ -11531,7 +11534,7 @@
         <v>0</v>
       </c>
       <c r="V50">
-        <v>0</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="W50">
         <v>0</v>
@@ -11543,7 +11546,7 @@
         <v>0</v>
       </c>
       <c r="Z50">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="AA50">
         <v>0</v>
@@ -11555,7 +11558,7 @@
         <v>0</v>
       </c>
       <c r="AD50">
-        <v>0</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="AE50">
         <v>0</v>
@@ -11567,10 +11570,10 @@
         <v>0</v>
       </c>
       <c r="AH50">
-        <v>0</v>
+        <v>16.75</v>
       </c>
       <c r="AI50">
-        <v>3.53</v>
+        <v>0</v>
       </c>
       <c r="AJ50">
         <v>0</v>
@@ -11579,10 +11582,10 @@
         <v>0</v>
       </c>
       <c r="AL50">
-        <v>0</v>
+        <v>12.19</v>
       </c>
       <c r="AM50">
-        <v>6.94</v>
+        <v>0</v>
       </c>
       <c r="AN50">
         <v>0</v>
@@ -11591,10 +11594,10 @@
         <v>0</v>
       </c>
       <c r="AP50">
-        <v>0</v>
+        <v>3.47</v>
       </c>
       <c r="AQ50">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="AR50">
         <v>0</v>
@@ -11603,10 +11606,10 @@
         <v>0</v>
       </c>
       <c r="AT50">
-        <v>0</v>
+        <v>3.81</v>
       </c>
       <c r="AU50">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="AV50">
         <v>0</v>
@@ -11615,10 +11618,10 @@
         <v>0</v>
       </c>
       <c r="AX50">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="AY50">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AZ50">
         <v>0</v>
@@ -11627,7 +11630,7 @@
         <v>0</v>
       </c>
       <c r="BB50">
-        <v>0</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="BC50">
         <v>0</v>
@@ -11639,7 +11642,7 @@
         <v>0</v>
       </c>
       <c r="BF50">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="BG50">
         <v>0</v>
@@ -11651,7 +11654,7 @@
         <v>0</v>
       </c>
       <c r="BJ50">
-        <v>0</v>
+        <v>3.03</v>
       </c>
       <c r="BK50">
         <v>0</v>
@@ -11663,10 +11666,10 @@
         <v>0</v>
       </c>
       <c r="BN50">
-        <v>0</v>
+        <v>12.37</v>
       </c>
       <c r="BO50">
-        <v>7.47</v>
+        <v>0</v>
       </c>
       <c r="BP50">
         <v>0</v>
@@ -11675,10 +11678,10 @@
         <v>0</v>
       </c>
       <c r="BR50">
-        <v>0</v>
+        <v>10.25</v>
       </c>
       <c r="BS50">
-        <v>15.25</v>
+        <v>0</v>
       </c>
       <c r="BT50">
         <v>0</v>
@@ -11695,10 +11698,10 @@
         <v>0</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>14.13</v>
       </c>
       <c r="D51">
-        <v>5.92</v>
+        <v>0</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -11707,10 +11710,10 @@
         <v>0</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="H51">
-        <v>2.35</v>
+        <v>0</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -11719,10 +11722,10 @@
         <v>0</v>
       </c>
       <c r="K51">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="L51">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="M51">
         <v>0</v>
@@ -11731,10 +11734,10 @@
         <v>0</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="P51">
-        <v>3.31</v>
+        <v>0</v>
       </c>
       <c r="Q51">
         <v>0</v>
@@ -11743,10 +11746,10 @@
         <v>0</v>
       </c>
       <c r="S51">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="T51">
-        <v>7.38</v>
+        <v>0</v>
       </c>
       <c r="U51">
         <v>0</v>
@@ -11758,7 +11761,7 @@
         <v>0</v>
       </c>
       <c r="X51">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="Y51">
         <v>0</v>
@@ -11770,7 +11773,7 @@
         <v>0</v>
       </c>
       <c r="AB51">
-        <v>5.7</v>
+        <v>0</v>
       </c>
       <c r="AC51">
         <v>0</v>
@@ -11782,7 +11785,7 @@
         <v>0</v>
       </c>
       <c r="AF51">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="AG51">
         <v>0</v>
@@ -11791,10 +11794,10 @@
         <v>0</v>
       </c>
       <c r="AI51">
-        <v>0</v>
+        <v>3.53</v>
       </c>
       <c r="AJ51">
-        <v>9.67</v>
+        <v>0</v>
       </c>
       <c r="AK51">
         <v>0</v>
@@ -11803,10 +11806,10 @@
         <v>0</v>
       </c>
       <c r="AM51">
-        <v>0</v>
+        <v>6.94</v>
       </c>
       <c r="AN51">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="AO51">
         <v>0</v>
@@ -11815,10 +11818,10 @@
         <v>0</v>
       </c>
       <c r="AQ51">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AR51">
-        <v>18.059999999999999</v>
+        <v>0</v>
       </c>
       <c r="AS51">
         <v>0</v>
@@ -11827,10 +11830,10 @@
         <v>0</v>
       </c>
       <c r="AU51">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AV51">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="AW51">
         <v>0</v>
@@ -11839,10 +11842,10 @@
         <v>0</v>
       </c>
       <c r="AY51">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AZ51">
-        <v>17.43</v>
+        <v>0</v>
       </c>
       <c r="BA51">
         <v>0</v>
@@ -11854,7 +11857,7 @@
         <v>0</v>
       </c>
       <c r="BD51">
-        <v>11.69</v>
+        <v>0</v>
       </c>
       <c r="BE51">
         <v>0</v>
@@ -11878,7 +11881,7 @@
         <v>0</v>
       </c>
       <c r="BL51">
-        <v>1.1100000000000001</v>
+        <v>0</v>
       </c>
       <c r="BM51">
         <v>0</v>
@@ -11887,10 +11890,10 @@
         <v>0</v>
       </c>
       <c r="BO51">
-        <v>0</v>
+        <v>7.47</v>
       </c>
       <c r="BP51">
-        <v>18.07</v>
+        <v>0</v>
       </c>
       <c r="BQ51">
         <v>0</v>
@@ -11899,10 +11902,10 @@
         <v>0</v>
       </c>
       <c r="BS51">
-        <v>0</v>
+        <v>15.25</v>
       </c>
       <c r="BT51">
-        <v>18.04</v>
+        <v>0</v>
       </c>
       <c r="BU51">
         <v>0</v>
@@ -11919,7 +11922,7 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>3.03</v>
+        <v>5.92</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -11931,7 +11934,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>1.38</v>
+        <v>2.35</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -11943,7 +11946,7 @@
         <v>0</v>
       </c>
       <c r="L52">
-        <v>3.71</v>
+        <v>1.22</v>
       </c>
       <c r="M52">
         <v>0</v>
@@ -11955,7 +11958,7 @@
         <v>0</v>
       </c>
       <c r="P52">
-        <v>0.8</v>
+        <v>3.31</v>
       </c>
       <c r="Q52">
         <v>0</v>
@@ -11967,7 +11970,7 @@
         <v>0</v>
       </c>
       <c r="T52">
-        <v>3.56</v>
+        <v>7.38</v>
       </c>
       <c r="U52">
         <v>0</v>
@@ -11979,7 +11982,7 @@
         <v>0</v>
       </c>
       <c r="X52">
-        <v>2.97</v>
+        <v>1.62</v>
       </c>
       <c r="Y52">
         <v>0</v>
@@ -11991,7 +11994,7 @@
         <v>0</v>
       </c>
       <c r="AB52">
-        <v>3.8</v>
+        <v>5.7</v>
       </c>
       <c r="AC52">
         <v>0</v>
@@ -12003,7 +12006,7 @@
         <v>0</v>
       </c>
       <c r="AF52">
-        <v>2.67</v>
+        <v>0.86</v>
       </c>
       <c r="AG52">
         <v>0</v>
@@ -12015,7 +12018,7 @@
         <v>0</v>
       </c>
       <c r="AJ52">
-        <v>2.0699999999999998</v>
+        <v>9.67</v>
       </c>
       <c r="AK52">
         <v>0</v>
@@ -12027,7 +12030,7 @@
         <v>0</v>
       </c>
       <c r="AN52">
-        <v>0.93</v>
+        <v>3.5</v>
       </c>
       <c r="AO52">
         <v>0</v>
@@ -12039,7 +12042,7 @@
         <v>0</v>
       </c>
       <c r="AR52">
-        <v>1.05</v>
+        <v>18.059999999999999</v>
       </c>
       <c r="AS52">
         <v>0</v>
@@ -12051,7 +12054,7 @@
         <v>0</v>
       </c>
       <c r="AV52">
-        <v>0.64</v>
+        <v>1.73</v>
       </c>
       <c r="AW52">
         <v>0</v>
@@ -12063,7 +12066,7 @@
         <v>0</v>
       </c>
       <c r="AZ52">
-        <v>17.850000000000001</v>
+        <v>17.43</v>
       </c>
       <c r="BA52">
         <v>0</v>
@@ -12075,7 +12078,7 @@
         <v>0</v>
       </c>
       <c r="BD52">
-        <v>0.78</v>
+        <v>11.69</v>
       </c>
       <c r="BE52">
         <v>0</v>
@@ -12087,7 +12090,7 @@
         <v>0</v>
       </c>
       <c r="BH52">
-        <v>5.15</v>
+        <v>0</v>
       </c>
       <c r="BI52">
         <v>0</v>
@@ -12099,7 +12102,7 @@
         <v>0</v>
       </c>
       <c r="BL52">
-        <v>0.57999999999999996</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="BM52">
         <v>0</v>
@@ -12111,7 +12114,7 @@
         <v>0</v>
       </c>
       <c r="BP52">
-        <v>3.28</v>
+        <v>18.07</v>
       </c>
       <c r="BQ52">
         <v>0</v>
@@ -12123,7 +12126,7 @@
         <v>0</v>
       </c>
       <c r="BT52">
-        <v>2.0299999999999998</v>
+        <v>18.04</v>
       </c>
       <c r="BU52">
         <v>0</v>
@@ -12140,10 +12143,10 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>3.03</v>
       </c>
       <c r="E53">
-        <v>1.96</v>
+        <v>0</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -12152,10 +12155,10 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="I53">
-        <v>3.26</v>
+        <v>0</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -12164,10 +12167,10 @@
         <v>0</v>
       </c>
       <c r="L53">
-        <v>0</v>
+        <v>3.71</v>
       </c>
       <c r="M53">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -12176,7 +12179,7 @@
         <v>0</v>
       </c>
       <c r="P53">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Q53">
         <v>0</v>
@@ -12188,10 +12191,10 @@
         <v>0</v>
       </c>
       <c r="T53">
-        <v>0</v>
+        <v>3.56</v>
       </c>
       <c r="U53">
-        <v>4.46</v>
+        <v>0</v>
       </c>
       <c r="V53">
         <v>0</v>
@@ -12200,10 +12203,10 @@
         <v>0</v>
       </c>
       <c r="X53">
-        <v>0</v>
+        <v>2.97</v>
       </c>
       <c r="Y53">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="Z53">
         <v>0</v>
@@ -12212,10 +12215,10 @@
         <v>0</v>
       </c>
       <c r="AB53">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="AC53">
-        <v>6.73</v>
+        <v>0</v>
       </c>
       <c r="AD53">
         <v>0</v>
@@ -12224,10 +12227,10 @@
         <v>0</v>
       </c>
       <c r="AF53">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="AG53">
-        <v>3.39</v>
+        <v>0</v>
       </c>
       <c r="AH53">
         <v>0</v>
@@ -12236,10 +12239,10 @@
         <v>0</v>
       </c>
       <c r="AJ53">
-        <v>0</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="AK53">
-        <v>2.42</v>
+        <v>0</v>
       </c>
       <c r="AL53">
         <v>0</v>
@@ -12248,10 +12251,10 @@
         <v>0</v>
       </c>
       <c r="AN53">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="AO53">
-        <v>2.73</v>
+        <v>0</v>
       </c>
       <c r="AP53">
         <v>0</v>
@@ -12260,10 +12263,10 @@
         <v>0</v>
       </c>
       <c r="AR53">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AS53">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="AT53">
         <v>0</v>
@@ -12272,10 +12275,10 @@
         <v>0</v>
       </c>
       <c r="AV53">
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="AW53">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="AX53">
         <v>0</v>
@@ -12284,10 +12287,10 @@
         <v>0</v>
       </c>
       <c r="AZ53">
-        <v>0</v>
+        <v>17.850000000000001</v>
       </c>
       <c r="BA53">
-        <v>3.77</v>
+        <v>0</v>
       </c>
       <c r="BB53">
         <v>0</v>
@@ -12296,10 +12299,10 @@
         <v>0</v>
       </c>
       <c r="BD53">
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="BE53">
-        <v>4.1500000000000004</v>
+        <v>0</v>
       </c>
       <c r="BF53">
         <v>0</v>
@@ -12308,10 +12311,10 @@
         <v>0</v>
       </c>
       <c r="BH53">
-        <v>0</v>
+        <v>5.15</v>
       </c>
       <c r="BI53">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="BJ53">
         <v>0</v>
@@ -12320,7 +12323,7 @@
         <v>0</v>
       </c>
       <c r="BL53">
-        <v>0</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="BM53">
         <v>0</v>
@@ -12332,10 +12335,10 @@
         <v>0</v>
       </c>
       <c r="BP53">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="BQ53">
-        <v>3.06</v>
+        <v>0</v>
       </c>
       <c r="BR53">
         <v>0</v>
@@ -12344,10 +12347,10 @@
         <v>0</v>
       </c>
       <c r="BT53">
-        <v>0</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="BU53">
-        <v>3.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:73" x14ac:dyDescent="0.2">
@@ -12355,7 +12358,7 @@
         <v>70</v>
       </c>
       <c r="B54">
-        <v>9.8800000000000008</v>
+        <v>0</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -12364,10 +12367,10 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="F54">
-        <v>7.06</v>
+        <v>0</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -12376,10 +12379,10 @@
         <v>0</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>3.26</v>
       </c>
       <c r="J54">
-        <v>2.37</v>
+        <v>0</v>
       </c>
       <c r="K54">
         <v>0</v>
@@ -12388,10 +12391,10 @@
         <v>0</v>
       </c>
       <c r="M54">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="N54">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="O54">
         <v>0</v>
@@ -12403,7 +12406,7 @@
         <v>0</v>
       </c>
       <c r="R54">
-        <v>5.72</v>
+        <v>0</v>
       </c>
       <c r="S54">
         <v>0</v>
@@ -12412,10 +12415,10 @@
         <v>0</v>
       </c>
       <c r="U54">
-        <v>0</v>
+        <v>4.46</v>
       </c>
       <c r="V54">
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="W54">
         <v>0</v>
@@ -12424,10 +12427,10 @@
         <v>0</v>
       </c>
       <c r="Y54">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="Z54">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AA54">
         <v>0</v>
@@ -12436,10 +12439,10 @@
         <v>0</v>
       </c>
       <c r="AC54">
-        <v>0</v>
+        <v>6.73</v>
       </c>
       <c r="AD54">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="AE54">
         <v>0</v>
@@ -12448,10 +12451,10 @@
         <v>0</v>
       </c>
       <c r="AG54">
-        <v>0</v>
+        <v>3.39</v>
       </c>
       <c r="AH54">
-        <v>12.72</v>
+        <v>0</v>
       </c>
       <c r="AI54">
         <v>0</v>
@@ -12460,10 +12463,10 @@
         <v>0</v>
       </c>
       <c r="AK54">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="AL54">
-        <v>11.03</v>
+        <v>0</v>
       </c>
       <c r="AM54">
         <v>0</v>
@@ -12472,10 +12475,10 @@
         <v>0</v>
       </c>
       <c r="AO54">
-        <v>0</v>
+        <v>2.73</v>
       </c>
       <c r="AP54">
-        <v>9.14</v>
+        <v>0</v>
       </c>
       <c r="AQ54">
         <v>0</v>
@@ -12484,10 +12487,10 @@
         <v>0</v>
       </c>
       <c r="AS54">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AT54">
-        <v>4.75</v>
+        <v>0</v>
       </c>
       <c r="AU54">
         <v>0</v>
@@ -12496,10 +12499,10 @@
         <v>0</v>
       </c>
       <c r="AW54">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AX54">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="AY54">
         <v>0</v>
@@ -12508,10 +12511,10 @@
         <v>0</v>
       </c>
       <c r="BA54">
-        <v>0</v>
+        <v>3.77</v>
       </c>
       <c r="BB54">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="BC54">
         <v>0</v>
@@ -12520,10 +12523,10 @@
         <v>0</v>
       </c>
       <c r="BE54">
-        <v>0</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="BF54">
-        <v>4.6900000000000004</v>
+        <v>0</v>
       </c>
       <c r="BG54">
         <v>0</v>
@@ -12532,10 +12535,10 @@
         <v>0</v>
       </c>
       <c r="BI54">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="BJ54">
-        <v>2.39</v>
+        <v>0</v>
       </c>
       <c r="BK54">
         <v>0</v>
@@ -12547,7 +12550,7 @@
         <v>0</v>
       </c>
       <c r="BN54">
-        <v>7.24</v>
+        <v>0</v>
       </c>
       <c r="BO54">
         <v>0</v>
@@ -12556,10 +12559,10 @@
         <v>0</v>
       </c>
       <c r="BQ54">
-        <v>0</v>
+        <v>3.06</v>
       </c>
       <c r="BR54">
-        <v>3.22</v>
+        <v>0</v>
       </c>
       <c r="BS54">
         <v>0</v>
@@ -12568,7 +12571,7 @@
         <v>0</v>
       </c>
       <c r="BU54">
-        <v>0</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="55" spans="1:73" x14ac:dyDescent="0.2">
@@ -12576,10 +12579,10 @@
         <v>71</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>9.8800000000000008</v>
       </c>
       <c r="C55">
-        <v>8.83</v>
+        <v>0</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -12588,10 +12591,10 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>7.06</v>
       </c>
       <c r="G55">
-        <v>3.41</v>
+        <v>0</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -12600,10 +12603,10 @@
         <v>0</v>
       </c>
       <c r="J55">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="K55">
-        <v>3.43</v>
+        <v>0</v>
       </c>
       <c r="L55">
         <v>0</v>
@@ -12612,10 +12615,10 @@
         <v>0</v>
       </c>
       <c r="N55">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="O55">
-        <v>1.1499999999999999</v>
+        <v>0</v>
       </c>
       <c r="P55">
         <v>0</v>
@@ -12624,10 +12627,10 @@
         <v>0</v>
       </c>
       <c r="R55">
-        <v>0</v>
+        <v>5.72</v>
       </c>
       <c r="S55">
-        <v>5.74</v>
+        <v>0</v>
       </c>
       <c r="T55">
         <v>0</v>
@@ -12636,10 +12639,10 @@
         <v>0</v>
       </c>
       <c r="V55">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="W55">
-        <v>2.42</v>
+        <v>0</v>
       </c>
       <c r="X55">
         <v>0</v>
@@ -12648,10 +12651,10 @@
         <v>0</v>
       </c>
       <c r="Z55">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AA55">
-        <v>3.74</v>
+        <v>0</v>
       </c>
       <c r="AB55">
         <v>0</v>
@@ -12660,10 +12663,10 @@
         <v>0</v>
       </c>
       <c r="AD55">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="AE55">
-        <v>3.89</v>
+        <v>0</v>
       </c>
       <c r="AF55">
         <v>0</v>
@@ -12672,10 +12675,10 @@
         <v>0</v>
       </c>
       <c r="AH55">
-        <v>0</v>
+        <v>12.72</v>
       </c>
       <c r="AI55">
-        <v>3.21</v>
+        <v>0</v>
       </c>
       <c r="AJ55">
         <v>0</v>
@@ -12684,10 +12687,10 @@
         <v>0</v>
       </c>
       <c r="AL55">
-        <v>0</v>
+        <v>11.03</v>
       </c>
       <c r="AM55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN55">
         <v>0</v>
@@ -12696,10 +12699,10 @@
         <v>0</v>
       </c>
       <c r="AP55">
-        <v>0</v>
+        <v>9.14</v>
       </c>
       <c r="AQ55">
-        <v>5.71</v>
+        <v>0</v>
       </c>
       <c r="AR55">
         <v>0</v>
@@ -12708,10 +12711,10 @@
         <v>0</v>
       </c>
       <c r="AT55">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="AU55">
-        <v>2.61</v>
+        <v>0</v>
       </c>
       <c r="AV55">
         <v>0</v>
@@ -12720,10 +12723,10 @@
         <v>0</v>
       </c>
       <c r="AX55">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AY55">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="AZ55">
         <v>0</v>
@@ -12732,10 +12735,10 @@
         <v>0</v>
       </c>
       <c r="BB55">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="BC55">
-        <v>2.4900000000000002</v>
+        <v>0</v>
       </c>
       <c r="BD55">
         <v>0</v>
@@ -12744,10 +12747,10 @@
         <v>0</v>
       </c>
       <c r="BF55">
-        <v>0</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="BG55">
-        <v>9.25</v>
+        <v>0</v>
       </c>
       <c r="BH55">
         <v>0</v>
@@ -12756,10 +12759,10 @@
         <v>0</v>
       </c>
       <c r="BJ55">
-        <v>0</v>
+        <v>2.39</v>
       </c>
       <c r="BK55">
-        <v>6.51</v>
+        <v>0</v>
       </c>
       <c r="BL55">
         <v>0</v>
@@ -12768,10 +12771,10 @@
         <v>0</v>
       </c>
       <c r="BN55">
-        <v>0</v>
+        <v>7.24</v>
       </c>
       <c r="BO55">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="BP55">
         <v>0</v>
@@ -12780,10 +12783,10 @@
         <v>0</v>
       </c>
       <c r="BR55">
-        <v>0</v>
+        <v>3.22</v>
       </c>
       <c r="BS55">
-        <v>10.94</v>
+        <v>0</v>
       </c>
       <c r="BT55">
         <v>0</v>
@@ -12800,7 +12803,7 @@
         <v>0</v>
       </c>
       <c r="C56">
-        <v>5.86</v>
+        <v>8.83</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -12812,7 +12815,7 @@
         <v>0</v>
       </c>
       <c r="G56">
-        <v>3.39</v>
+        <v>3.41</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -12824,7 +12827,7 @@
         <v>0</v>
       </c>
       <c r="K56">
-        <v>0</v>
+        <v>3.43</v>
       </c>
       <c r="L56">
         <v>0</v>
@@ -12836,7 +12839,7 @@
         <v>0</v>
       </c>
       <c r="O56">
-        <v>12.84</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="P56">
         <v>0</v>
@@ -12848,7 +12851,7 @@
         <v>0</v>
       </c>
       <c r="S56">
-        <v>10.78</v>
+        <v>5.74</v>
       </c>
       <c r="T56">
         <v>0</v>
@@ -12860,7 +12863,7 @@
         <v>0</v>
       </c>
       <c r="W56">
-        <v>7.01</v>
+        <v>2.42</v>
       </c>
       <c r="X56">
         <v>0</v>
@@ -12872,7 +12875,7 @@
         <v>0</v>
       </c>
       <c r="AA56">
-        <v>4.57</v>
+        <v>3.74</v>
       </c>
       <c r="AB56">
         <v>0</v>
@@ -12884,7 +12887,7 @@
         <v>0</v>
       </c>
       <c r="AE56">
-        <v>2.2999999999999998</v>
+        <v>3.89</v>
       </c>
       <c r="AF56">
         <v>0</v>
@@ -12896,7 +12899,7 @@
         <v>0</v>
       </c>
       <c r="AI56">
-        <v>5.94</v>
+        <v>3.21</v>
       </c>
       <c r="AJ56">
         <v>0</v>
@@ -12908,7 +12911,7 @@
         <v>0</v>
       </c>
       <c r="AM56">
-        <v>0.32</v>
+        <v>2</v>
       </c>
       <c r="AN56">
         <v>0</v>
@@ -12920,7 +12923,7 @@
         <v>0</v>
       </c>
       <c r="AQ56">
-        <v>5.75</v>
+        <v>5.71</v>
       </c>
       <c r="AR56">
         <v>0</v>
@@ -12932,7 +12935,7 @@
         <v>0</v>
       </c>
       <c r="AU56">
-        <v>8.49</v>
+        <v>2.61</v>
       </c>
       <c r="AV56">
         <v>0</v>
@@ -12944,7 +12947,7 @@
         <v>0</v>
       </c>
       <c r="AY56">
-        <v>13.96</v>
+        <v>2.4</v>
       </c>
       <c r="AZ56">
         <v>0</v>
@@ -12956,7 +12959,7 @@
         <v>0</v>
       </c>
       <c r="BC56">
-        <v>1.1000000000000001</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="BD56">
         <v>0</v>
@@ -12968,7 +12971,7 @@
         <v>0</v>
       </c>
       <c r="BG56">
-        <v>0.83</v>
+        <v>9.25</v>
       </c>
       <c r="BH56">
         <v>0</v>
@@ -12980,7 +12983,7 @@
         <v>0</v>
       </c>
       <c r="BK56">
-        <v>5.81</v>
+        <v>6.51</v>
       </c>
       <c r="BL56">
         <v>0</v>
@@ -12992,7 +12995,7 @@
         <v>0</v>
       </c>
       <c r="BO56">
-        <v>4.3600000000000003</v>
+        <v>2.4</v>
       </c>
       <c r="BP56">
         <v>0</v>
@@ -13004,7 +13007,7 @@
         <v>0</v>
       </c>
       <c r="BS56">
-        <v>14.63</v>
+        <v>10.94</v>
       </c>
       <c r="BT56">
         <v>0</v>
@@ -13021,25 +13024,25 @@
         <v>0</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>5.86</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57">
-        <v>12.59</v>
+        <v>0</v>
       </c>
       <c r="F57">
         <v>0</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>3.39</v>
       </c>
       <c r="H57">
         <v>0</v>
       </c>
       <c r="I57">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -13051,187 +13054,187 @@
         <v>0</v>
       </c>
       <c r="M57">
-        <v>13.48</v>
+        <v>0</v>
       </c>
       <c r="N57">
         <v>0</v>
       </c>
       <c r="O57">
-        <v>0</v>
+        <v>12.84</v>
       </c>
       <c r="P57">
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>2.0499999999999998</v>
+        <v>0</v>
       </c>
       <c r="R57">
         <v>0</v>
       </c>
       <c r="S57">
-        <v>0</v>
+        <v>10.78</v>
       </c>
       <c r="T57">
         <v>0</v>
       </c>
       <c r="U57">
-        <v>16.27</v>
+        <v>0</v>
       </c>
       <c r="V57">
         <v>0</v>
       </c>
       <c r="W57">
-        <v>0</v>
+        <v>7.01</v>
       </c>
       <c r="X57">
         <v>0</v>
       </c>
       <c r="Y57">
-        <v>1.79</v>
+        <v>0</v>
       </c>
       <c r="Z57">
         <v>0</v>
       </c>
       <c r="AA57">
-        <v>0</v>
+        <v>4.57</v>
       </c>
       <c r="AB57">
         <v>0</v>
       </c>
       <c r="AC57">
-        <v>15.49</v>
+        <v>0</v>
       </c>
       <c r="AD57">
         <v>0</v>
       </c>
       <c r="AE57">
-        <v>0</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AF57">
         <v>0</v>
       </c>
       <c r="AG57">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="AH57">
         <v>0</v>
       </c>
       <c r="AI57">
-        <v>0</v>
+        <v>5.94</v>
       </c>
       <c r="AJ57">
         <v>0</v>
       </c>
       <c r="AK57">
-        <v>13.67</v>
+        <v>0</v>
       </c>
       <c r="AL57">
         <v>0</v>
       </c>
       <c r="AM57">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="AN57">
         <v>0</v>
       </c>
       <c r="AO57">
-        <v>4.5999999999999996</v>
+        <v>0</v>
       </c>
       <c r="AP57">
         <v>0</v>
       </c>
       <c r="AQ57">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="AR57">
         <v>0</v>
       </c>
       <c r="AS57">
-        <v>7.77</v>
+        <v>0</v>
       </c>
       <c r="AT57">
         <v>0</v>
       </c>
       <c r="AU57">
-        <v>0</v>
+        <v>8.49</v>
       </c>
       <c r="AV57">
         <v>0</v>
       </c>
       <c r="AW57">
-        <v>11.12</v>
+        <v>0</v>
       </c>
       <c r="AX57">
         <v>0</v>
       </c>
       <c r="AY57">
-        <v>0</v>
+        <v>13.96</v>
       </c>
       <c r="AZ57">
         <v>0</v>
       </c>
       <c r="BA57">
-        <v>2.1800000000000002</v>
+        <v>0</v>
       </c>
       <c r="BB57">
         <v>0</v>
       </c>
       <c r="BC57">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BD57">
         <v>0</v>
       </c>
       <c r="BE57">
-        <v>2.16</v>
+        <v>0</v>
       </c>
       <c r="BF57">
         <v>0</v>
       </c>
       <c r="BG57">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="BH57">
         <v>0</v>
       </c>
       <c r="BI57">
-        <v>7.83</v>
+        <v>0</v>
       </c>
       <c r="BJ57">
         <v>0</v>
       </c>
       <c r="BK57">
-        <v>0</v>
+        <v>5.81</v>
       </c>
       <c r="BL57">
         <v>0</v>
       </c>
       <c r="BM57">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="BN57">
         <v>0</v>
       </c>
       <c r="BO57">
-        <v>0</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="BP57">
         <v>0</v>
       </c>
       <c r="BQ57">
-        <v>17.04</v>
+        <v>0</v>
       </c>
       <c r="BR57">
         <v>0</v>
       </c>
       <c r="BS57">
-        <v>0</v>
+        <v>14.63</v>
       </c>
       <c r="BT57">
         <v>0</v>
       </c>
       <c r="BU57">
-        <v>16.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:73" x14ac:dyDescent="0.2">
@@ -13248,7 +13251,7 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>2.37</v>
+        <v>12.59</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -13260,7 +13263,7 @@
         <v>0</v>
       </c>
       <c r="I58">
-        <v>2.42</v>
+        <v>1.83</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -13272,7 +13275,7 @@
         <v>0</v>
       </c>
       <c r="M58">
-        <v>3.26</v>
+        <v>13.48</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -13284,7 +13287,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>2.34</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="R58">
         <v>0</v>
@@ -13296,7 +13299,7 @@
         <v>0</v>
       </c>
       <c r="U58">
-        <v>5.57</v>
+        <v>16.27</v>
       </c>
       <c r="V58">
         <v>0</v>
@@ -13308,7 +13311,7 @@
         <v>0</v>
       </c>
       <c r="Y58">
-        <v>2.4500000000000002</v>
+        <v>1.79</v>
       </c>
       <c r="Z58">
         <v>0</v>
@@ -13320,7 +13323,7 @@
         <v>0</v>
       </c>
       <c r="AC58">
-        <v>3.29</v>
+        <v>15.49</v>
       </c>
       <c r="AD58">
         <v>0</v>
@@ -13332,7 +13335,7 @@
         <v>0</v>
       </c>
       <c r="AG58">
-        <v>12.72</v>
+        <v>2.08</v>
       </c>
       <c r="AH58">
         <v>0</v>
@@ -13344,7 +13347,7 @@
         <v>0</v>
       </c>
       <c r="AK58">
-        <v>3.01</v>
+        <v>13.67</v>
       </c>
       <c r="AL58">
         <v>0</v>
@@ -13356,7 +13359,7 @@
         <v>0</v>
       </c>
       <c r="AO58">
-        <v>4.5599999999999996</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AP58">
         <v>0</v>
@@ -13368,7 +13371,7 @@
         <v>0</v>
       </c>
       <c r="AS58">
-        <v>2.15</v>
+        <v>7.77</v>
       </c>
       <c r="AT58">
         <v>0</v>
@@ -13380,7 +13383,7 @@
         <v>0</v>
       </c>
       <c r="AW58">
-        <v>2.33</v>
+        <v>11.12</v>
       </c>
       <c r="AX58">
         <v>0</v>
@@ -13392,7 +13395,7 @@
         <v>0</v>
       </c>
       <c r="BA58">
-        <v>3.75</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="BB58">
         <v>0</v>
@@ -13404,7 +13407,7 @@
         <v>0</v>
       </c>
       <c r="BE58">
-        <v>15.47</v>
+        <v>2.16</v>
       </c>
       <c r="BF58">
         <v>0</v>
@@ -13416,7 +13419,7 @@
         <v>0</v>
       </c>
       <c r="BI58">
-        <v>2.9</v>
+        <v>7.83</v>
       </c>
       <c r="BJ58">
         <v>0</v>
@@ -13428,7 +13431,7 @@
         <v>0</v>
       </c>
       <c r="BM58">
-        <v>1.35</v>
+        <v>1.02</v>
       </c>
       <c r="BN58">
         <v>0</v>
@@ -13440,7 +13443,7 @@
         <v>0</v>
       </c>
       <c r="BQ58">
-        <v>9.6999999999999993</v>
+        <v>17.04</v>
       </c>
       <c r="BR58">
         <v>0</v>
@@ -13452,7 +13455,7 @@
         <v>0</v>
       </c>
       <c r="BU58">
-        <v>7.97</v>
+        <v>16.64</v>
       </c>
     </row>
     <row r="59" spans="1:73" x14ac:dyDescent="0.2">
@@ -13466,10 +13469,10 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>5.75</v>
+        <v>0</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -13478,10 +13481,10 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>10.220000000000001</v>
+        <v>0</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -13490,10 +13493,10 @@
         <v>0</v>
       </c>
       <c r="L59">
-        <v>14.06</v>
+        <v>0</v>
       </c>
       <c r="M59">
-        <v>0</v>
+        <v>3.26</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -13502,10 +13505,10 @@
         <v>0</v>
       </c>
       <c r="P59">
-        <v>15.17</v>
+        <v>0</v>
       </c>
       <c r="Q59">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="R59">
         <v>0</v>
@@ -13514,10 +13517,10 @@
         <v>0</v>
       </c>
       <c r="T59">
-        <v>5.43</v>
+        <v>0</v>
       </c>
       <c r="U59">
-        <v>0</v>
+        <v>5.57</v>
       </c>
       <c r="V59">
         <v>0</v>
@@ -13526,10 +13529,10 @@
         <v>0</v>
       </c>
       <c r="X59">
-        <v>13.4</v>
+        <v>0</v>
       </c>
       <c r="Y59">
-        <v>0</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="Z59">
         <v>0</v>
@@ -13538,10 +13541,10 @@
         <v>0</v>
       </c>
       <c r="AB59">
-        <v>15.38</v>
+        <v>0</v>
       </c>
       <c r="AC59">
-        <v>0</v>
+        <v>3.29</v>
       </c>
       <c r="AD59">
         <v>0</v>
@@ -13550,10 +13553,10 @@
         <v>0</v>
       </c>
       <c r="AF59">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="AG59">
-        <v>0</v>
+        <v>12.72</v>
       </c>
       <c r="AH59">
         <v>0</v>
@@ -13562,10 +13565,10 @@
         <v>0</v>
       </c>
       <c r="AJ59">
-        <v>6.88</v>
+        <v>0</v>
       </c>
       <c r="AK59">
-        <v>0</v>
+        <v>3.01</v>
       </c>
       <c r="AL59">
         <v>0</v>
@@ -13574,10 +13577,10 @@
         <v>0</v>
       </c>
       <c r="AN59">
-        <v>9.44</v>
+        <v>0</v>
       </c>
       <c r="AO59">
-        <v>0</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="AP59">
         <v>0</v>
@@ -13586,10 +13589,10 @@
         <v>0</v>
       </c>
       <c r="AR59">
-        <v>11.37</v>
+        <v>0</v>
       </c>
       <c r="AS59">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AT59">
         <v>0</v>
@@ -13598,10 +13601,10 @@
         <v>0</v>
       </c>
       <c r="AV59">
-        <v>14.71</v>
+        <v>0</v>
       </c>
       <c r="AW59">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="AX59">
         <v>0</v>
@@ -13610,10 +13613,10 @@
         <v>0</v>
       </c>
       <c r="AZ59">
-        <v>15.75</v>
+        <v>0</v>
       </c>
       <c r="BA59">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="BB59">
         <v>0</v>
@@ -13622,10 +13625,10 @@
         <v>0</v>
       </c>
       <c r="BD59">
-        <v>3.38</v>
+        <v>0</v>
       </c>
       <c r="BE59">
-        <v>0</v>
+        <v>15.47</v>
       </c>
       <c r="BF59">
         <v>0</v>
@@ -13634,10 +13637,10 @@
         <v>0</v>
       </c>
       <c r="BH59">
-        <v>4.5999999999999996</v>
+        <v>0</v>
       </c>
       <c r="BI59">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="BJ59">
         <v>0</v>
@@ -13646,10 +13649,10 @@
         <v>0</v>
       </c>
       <c r="BL59">
-        <v>3.11</v>
+        <v>0</v>
       </c>
       <c r="BM59">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="BN59">
         <v>0</v>
@@ -13658,10 +13661,10 @@
         <v>0</v>
       </c>
       <c r="BP59">
-        <v>16.239999999999998</v>
+        <v>0</v>
       </c>
       <c r="BQ59">
-        <v>0</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="BR59">
         <v>0</v>
@@ -13670,10 +13673,10 @@
         <v>0</v>
       </c>
       <c r="BT59">
-        <v>17.75</v>
+        <v>0</v>
       </c>
       <c r="BU59">
-        <v>0</v>
+        <v>7.97</v>
       </c>
     </row>
     <row r="60" spans="1:73" x14ac:dyDescent="0.2">
@@ -13687,10 +13690,10 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="E60">
-        <v>11.19</v>
+        <v>0</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -13699,10 +13702,10 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>10.220000000000001</v>
       </c>
       <c r="I60">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -13711,10 +13714,10 @@
         <v>0</v>
       </c>
       <c r="L60">
-        <v>0</v>
+        <v>14.06</v>
       </c>
       <c r="M60">
-        <v>3.54</v>
+        <v>0</v>
       </c>
       <c r="N60">
         <v>0</v>
@@ -13723,10 +13726,10 @@
         <v>0</v>
       </c>
       <c r="P60">
-        <v>0</v>
+        <v>15.17</v>
       </c>
       <c r="Q60">
-        <v>2.0299999999999998</v>
+        <v>0</v>
       </c>
       <c r="R60">
         <v>0</v>
@@ -13735,10 +13738,10 @@
         <v>0</v>
       </c>
       <c r="T60">
-        <v>0</v>
+        <v>5.43</v>
       </c>
       <c r="U60">
-        <v>17.420000000000002</v>
+        <v>0</v>
       </c>
       <c r="V60">
         <v>0</v>
@@ -13747,10 +13750,10 @@
         <v>0</v>
       </c>
       <c r="X60">
-        <v>0</v>
+        <v>13.4</v>
       </c>
       <c r="Y60">
-        <v>2.09</v>
+        <v>0</v>
       </c>
       <c r="Z60">
         <v>0</v>
@@ -13759,10 +13762,10 @@
         <v>0</v>
       </c>
       <c r="AB60">
-        <v>0</v>
+        <v>15.38</v>
       </c>
       <c r="AC60">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="AD60">
         <v>0</v>
@@ -13771,10 +13774,10 @@
         <v>0</v>
       </c>
       <c r="AF60">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="AG60">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="AH60">
         <v>0</v>
@@ -13783,10 +13786,10 @@
         <v>0</v>
       </c>
       <c r="AJ60">
-        <v>0</v>
+        <v>6.88</v>
       </c>
       <c r="AK60">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="AL60">
         <v>0</v>
@@ -13795,10 +13798,10 @@
         <v>0</v>
       </c>
       <c r="AN60">
-        <v>0</v>
+        <v>9.44</v>
       </c>
       <c r="AO60">
-        <v>8.44</v>
+        <v>0</v>
       </c>
       <c r="AP60">
         <v>0</v>
@@ -13807,10 +13810,10 @@
         <v>0</v>
       </c>
       <c r="AR60">
-        <v>0</v>
+        <v>11.37</v>
       </c>
       <c r="AS60">
-        <v>5.08</v>
+        <v>0</v>
       </c>
       <c r="AT60">
         <v>0</v>
@@ -13819,10 +13822,10 @@
         <v>0</v>
       </c>
       <c r="AV60">
-        <v>0</v>
+        <v>14.71</v>
       </c>
       <c r="AW60">
-        <v>9.24</v>
+        <v>0</v>
       </c>
       <c r="AX60">
         <v>0</v>
@@ -13831,10 +13834,10 @@
         <v>0</v>
       </c>
       <c r="AZ60">
-        <v>0</v>
+        <v>15.75</v>
       </c>
       <c r="BA60">
-        <v>11.92</v>
+        <v>0</v>
       </c>
       <c r="BB60">
         <v>0</v>
@@ -13843,7 +13846,7 @@
         <v>0</v>
       </c>
       <c r="BD60">
-        <v>0</v>
+        <v>3.38</v>
       </c>
       <c r="BE60">
         <v>0</v>
@@ -13855,10 +13858,10 @@
         <v>0</v>
       </c>
       <c r="BH60">
-        <v>0</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="BI60">
-        <v>7.61</v>
+        <v>0</v>
       </c>
       <c r="BJ60">
         <v>0</v>
@@ -13867,10 +13870,10 @@
         <v>0</v>
       </c>
       <c r="BL60">
-        <v>0</v>
+        <v>3.11</v>
       </c>
       <c r="BM60">
-        <v>18.02</v>
+        <v>0</v>
       </c>
       <c r="BN60">
         <v>0</v>
@@ -13879,10 +13882,10 @@
         <v>0</v>
       </c>
       <c r="BP60">
-        <v>0</v>
+        <v>16.239999999999998</v>
       </c>
       <c r="BQ60">
-        <v>12.32</v>
+        <v>0</v>
       </c>
       <c r="BR60">
         <v>0</v>
@@ -13891,10 +13894,10 @@
         <v>0</v>
       </c>
       <c r="BT60">
-        <v>0</v>
+        <v>17.75</v>
       </c>
       <c r="BU60">
-        <v>17.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:73" x14ac:dyDescent="0.2">
@@ -13911,7 +13914,7 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>2.48</v>
+        <v>11.19</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -13923,7 +13926,7 @@
         <v>0</v>
       </c>
       <c r="I61">
-        <v>4.0599999999999996</v>
+        <v>1.05</v>
       </c>
       <c r="J61">
         <v>0</v>
@@ -13935,7 +13938,7 @@
         <v>0</v>
       </c>
       <c r="M61">
-        <v>5.39</v>
+        <v>3.54</v>
       </c>
       <c r="N61">
         <v>0</v>
@@ -13947,7 +13950,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>2.23</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="R61">
         <v>0</v>
@@ -13959,7 +13962,7 @@
         <v>0</v>
       </c>
       <c r="U61">
-        <v>13.17</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="V61">
         <v>0</v>
@@ -13971,7 +13974,7 @@
         <v>0</v>
       </c>
       <c r="Y61">
-        <v>2.67</v>
+        <v>2.09</v>
       </c>
       <c r="Z61">
         <v>0</v>
@@ -13983,7 +13986,7 @@
         <v>0</v>
       </c>
       <c r="AC61">
-        <v>4.63</v>
+        <v>5.8</v>
       </c>
       <c r="AD61">
         <v>0</v>
@@ -13995,7 +13998,7 @@
         <v>0</v>
       </c>
       <c r="AG61">
-        <v>1.1399999999999999</v>
+        <v>1.83</v>
       </c>
       <c r="AH61">
         <v>0</v>
@@ -14007,7 +14010,7 @@
         <v>0</v>
       </c>
       <c r="AK61">
-        <v>3.72</v>
+        <v>5.4</v>
       </c>
       <c r="AL61">
         <v>0</v>
@@ -14019,7 +14022,7 @@
         <v>0</v>
       </c>
       <c r="AO61">
-        <v>0.02</v>
+        <v>8.44</v>
       </c>
       <c r="AP61">
         <v>0</v>
@@ -14031,7 +14034,7 @@
         <v>0</v>
       </c>
       <c r="AS61">
-        <v>6.5</v>
+        <v>5.08</v>
       </c>
       <c r="AT61">
         <v>0</v>
@@ -14043,7 +14046,7 @@
         <v>0</v>
       </c>
       <c r="AW61">
-        <v>5.99</v>
+        <v>9.24</v>
       </c>
       <c r="AX61">
         <v>0</v>
@@ -14055,7 +14058,7 @@
         <v>0</v>
       </c>
       <c r="BA61">
-        <v>5.0999999999999996</v>
+        <v>11.92</v>
       </c>
       <c r="BB61">
         <v>0</v>
@@ -14079,7 +14082,7 @@
         <v>0</v>
       </c>
       <c r="BI61">
-        <v>7.28</v>
+        <v>7.61</v>
       </c>
       <c r="BJ61">
         <v>0</v>
@@ -14091,7 +14094,7 @@
         <v>0</v>
       </c>
       <c r="BM61">
-        <v>0.62</v>
+        <v>18.02</v>
       </c>
       <c r="BN61">
         <v>0</v>
@@ -14103,7 +14106,7 @@
         <v>0</v>
       </c>
       <c r="BQ61">
-        <v>6.91</v>
+        <v>12.32</v>
       </c>
       <c r="BR61">
         <v>0</v>
@@ -14115,7 +14118,7 @@
         <v>0</v>
       </c>
       <c r="BU61">
-        <v>7.38</v>
+        <v>17.47</v>
       </c>
     </row>
     <row r="62" spans="1:73" x14ac:dyDescent="0.2">
@@ -14126,37 +14129,37 @@
         <v>0</v>
       </c>
       <c r="C62">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62">
-        <v>2.39</v>
+        <v>0</v>
       </c>
       <c r="H62">
         <v>0</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="J62">
         <v>0</v>
       </c>
       <c r="K62">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="L62">
         <v>0</v>
       </c>
       <c r="M62">
-        <v>0</v>
+        <v>5.39</v>
       </c>
       <c r="N62">
         <v>0</v>
@@ -14168,121 +14171,121 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="R62">
         <v>0</v>
       </c>
       <c r="S62">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="T62">
         <v>0</v>
       </c>
       <c r="U62">
-        <v>0</v>
+        <v>13.17</v>
       </c>
       <c r="V62">
         <v>0</v>
       </c>
       <c r="W62">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="X62">
         <v>0</v>
       </c>
       <c r="Y62">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="Z62">
         <v>0</v>
       </c>
       <c r="AA62">
-        <v>3.92</v>
+        <v>0</v>
       </c>
       <c r="AB62">
         <v>0</v>
       </c>
       <c r="AC62">
-        <v>0</v>
+        <v>4.63</v>
       </c>
       <c r="AD62">
         <v>0</v>
       </c>
       <c r="AE62">
-        <v>2.4500000000000002</v>
+        <v>0</v>
       </c>
       <c r="AF62">
         <v>0</v>
       </c>
       <c r="AG62">
-        <v>0</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="AH62">
         <v>0</v>
       </c>
       <c r="AI62">
-        <v>4.97</v>
+        <v>0</v>
       </c>
       <c r="AJ62">
         <v>0</v>
       </c>
       <c r="AK62">
-        <v>0</v>
+        <v>3.72</v>
       </c>
       <c r="AL62">
         <v>0</v>
       </c>
       <c r="AM62">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="AN62">
         <v>0</v>
       </c>
       <c r="AO62">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="AP62">
         <v>0</v>
       </c>
       <c r="AQ62">
-        <v>4.9800000000000004</v>
+        <v>0</v>
       </c>
       <c r="AR62">
         <v>0</v>
       </c>
       <c r="AS62">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="AT62">
         <v>0</v>
       </c>
       <c r="AU62">
-        <v>1.97</v>
+        <v>0</v>
       </c>
       <c r="AV62">
         <v>0</v>
       </c>
       <c r="AW62">
-        <v>0</v>
+        <v>5.99</v>
       </c>
       <c r="AX62">
         <v>0</v>
       </c>
       <c r="AY62">
-        <v>3.01</v>
+        <v>0</v>
       </c>
       <c r="AZ62">
         <v>0</v>
       </c>
       <c r="BA62">
-        <v>0</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="BB62">
         <v>0</v>
       </c>
       <c r="BC62">
-        <v>0.77</v>
+        <v>0</v>
       </c>
       <c r="BD62">
         <v>0</v>
@@ -14294,49 +14297,49 @@
         <v>0</v>
       </c>
       <c r="BG62">
-        <v>5.51</v>
+        <v>0</v>
       </c>
       <c r="BH62">
         <v>0</v>
       </c>
       <c r="BI62">
-        <v>0</v>
+        <v>7.28</v>
       </c>
       <c r="BJ62">
         <v>0</v>
       </c>
       <c r="BK62">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="BL62">
         <v>0</v>
       </c>
       <c r="BM62">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="BN62">
         <v>0</v>
       </c>
       <c r="BO62">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="BP62">
         <v>0</v>
       </c>
       <c r="BQ62">
-        <v>0</v>
+        <v>6.91</v>
       </c>
       <c r="BR62">
         <v>0</v>
       </c>
       <c r="BS62">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="BT62">
         <v>0</v>
       </c>
       <c r="BU62">
-        <v>0</v>
+        <v>7.38</v>
       </c>
     </row>
     <row r="63" spans="1:73" x14ac:dyDescent="0.2">
@@ -14344,10 +14347,10 @@
         <v>79</v>
       </c>
       <c r="B63">
-        <v>11.67</v>
+        <v>0</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -14356,10 +14359,10 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>14.32</v>
+        <v>0</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>2.39</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -14368,10 +14371,10 @@
         <v>0</v>
       </c>
       <c r="J63">
-        <v>14.48</v>
+        <v>0</v>
       </c>
       <c r="K63">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="L63">
         <v>0</v>
@@ -14380,7 +14383,7 @@
         <v>0</v>
       </c>
       <c r="N63">
-        <v>15.28</v>
+        <v>0</v>
       </c>
       <c r="O63">
         <v>0</v>
@@ -14392,10 +14395,10 @@
         <v>0</v>
       </c>
       <c r="R63">
-        <v>9.77</v>
+        <v>0</v>
       </c>
       <c r="S63">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="T63">
         <v>0</v>
@@ -14404,10 +14407,10 @@
         <v>0</v>
       </c>
       <c r="V63">
-        <v>7.83</v>
+        <v>0</v>
       </c>
       <c r="W63">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="X63">
         <v>0</v>
@@ -14416,10 +14419,10 @@
         <v>0</v>
       </c>
       <c r="Z63">
-        <v>10.73</v>
+        <v>0</v>
       </c>
       <c r="AA63">
-        <v>0</v>
+        <v>3.92</v>
       </c>
       <c r="AB63">
         <v>0</v>
@@ -14428,10 +14431,10 @@
         <v>0</v>
       </c>
       <c r="AD63">
-        <v>9.94</v>
+        <v>0</v>
       </c>
       <c r="AE63">
-        <v>0</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="AF63">
         <v>0</v>
@@ -14440,10 +14443,10 @@
         <v>0</v>
       </c>
       <c r="AH63">
-        <v>12.97</v>
+        <v>0</v>
       </c>
       <c r="AI63">
-        <v>0</v>
+        <v>4.97</v>
       </c>
       <c r="AJ63">
         <v>0</v>
@@ -14452,10 +14455,10 @@
         <v>0</v>
       </c>
       <c r="AL63">
-        <v>12.15</v>
+        <v>0</v>
       </c>
       <c r="AM63">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="AN63">
         <v>0</v>
@@ -14464,10 +14467,10 @@
         <v>0</v>
       </c>
       <c r="AP63">
-        <v>12.19</v>
+        <v>0</v>
       </c>
       <c r="AQ63">
-        <v>0</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="AR63">
         <v>0</v>
@@ -14476,10 +14479,10 @@
         <v>0</v>
       </c>
       <c r="AT63">
-        <v>13.35</v>
+        <v>0</v>
       </c>
       <c r="AU63">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="AV63">
         <v>0</v>
@@ -14488,10 +14491,10 @@
         <v>0</v>
       </c>
       <c r="AX63">
-        <v>11.61</v>
+        <v>0</v>
       </c>
       <c r="AY63">
-        <v>0</v>
+        <v>3.01</v>
       </c>
       <c r="AZ63">
         <v>0</v>
@@ -14500,10 +14503,10 @@
         <v>0</v>
       </c>
       <c r="BB63">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BC63">
-        <v>0</v>
+        <v>0.77</v>
       </c>
       <c r="BD63">
         <v>0</v>
@@ -14512,10 +14515,10 @@
         <v>0</v>
       </c>
       <c r="BF63">
-        <v>8.1199999999999992</v>
+        <v>0</v>
       </c>
       <c r="BG63">
-        <v>0</v>
+        <v>5.51</v>
       </c>
       <c r="BH63">
         <v>0</v>
@@ -14524,10 +14527,10 @@
         <v>0</v>
       </c>
       <c r="BJ63">
-        <v>9.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="BK63">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="BL63">
         <v>0</v>
@@ -14536,10 +14539,10 @@
         <v>0</v>
       </c>
       <c r="BN63">
-        <v>3.72</v>
+        <v>0</v>
       </c>
       <c r="BO63">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="BP63">
         <v>0</v>
@@ -14548,10 +14551,10 @@
         <v>0</v>
       </c>
       <c r="BR63">
-        <v>2.44</v>
+        <v>0</v>
       </c>
       <c r="BS63">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="BT63">
         <v>0</v>
@@ -14565,7 +14568,7 @@
         <v>80</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>11.67</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -14574,10 +14577,10 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>6.08</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>14.32</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -14586,10 +14589,10 @@
         <v>0</v>
       </c>
       <c r="I64">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="J64">
-        <v>0</v>
+        <v>14.48</v>
       </c>
       <c r="K64">
         <v>0</v>
@@ -14598,10 +14601,10 @@
         <v>0</v>
       </c>
       <c r="M64">
-        <v>2.95</v>
+        <v>0</v>
       </c>
       <c r="N64">
-        <v>0</v>
+        <v>15.28</v>
       </c>
       <c r="O64">
         <v>0</v>
@@ -14610,10 +14613,10 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>5.0599999999999996</v>
+        <v>0</v>
       </c>
       <c r="R64">
-        <v>0</v>
+        <v>9.77</v>
       </c>
       <c r="S64">
         <v>0</v>
@@ -14622,10 +14625,10 @@
         <v>0</v>
       </c>
       <c r="U64">
-        <v>8.01</v>
+        <v>0</v>
       </c>
       <c r="V64">
-        <v>0</v>
+        <v>7.83</v>
       </c>
       <c r="W64">
         <v>0</v>
@@ -14634,10 +14637,10 @@
         <v>0</v>
       </c>
       <c r="Y64">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="Z64">
-        <v>0</v>
+        <v>10.73</v>
       </c>
       <c r="AA64">
         <v>0</v>
@@ -14646,10 +14649,10 @@
         <v>0</v>
       </c>
       <c r="AC64">
-        <v>5.49</v>
+        <v>0</v>
       </c>
       <c r="AD64">
-        <v>0</v>
+        <v>9.94</v>
       </c>
       <c r="AE64">
         <v>0</v>
@@ -14658,10 +14661,10 @@
         <v>0</v>
       </c>
       <c r="AG64">
-        <v>4.6100000000000003</v>
+        <v>0</v>
       </c>
       <c r="AH64">
-        <v>0</v>
+        <v>12.97</v>
       </c>
       <c r="AI64">
         <v>0</v>
@@ -14670,10 +14673,10 @@
         <v>0</v>
       </c>
       <c r="AK64">
-        <v>4.0599999999999996</v>
+        <v>0</v>
       </c>
       <c r="AL64">
-        <v>0</v>
+        <v>12.15</v>
       </c>
       <c r="AM64">
         <v>0</v>
@@ -14682,10 +14685,10 @@
         <v>0</v>
       </c>
       <c r="AO64">
-        <v>5.38</v>
+        <v>0</v>
       </c>
       <c r="AP64">
-        <v>0</v>
+        <v>12.19</v>
       </c>
       <c r="AQ64">
         <v>0</v>
@@ -14694,10 +14697,10 @@
         <v>0</v>
       </c>
       <c r="AS64">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AT64">
-        <v>0</v>
+        <v>13.35</v>
       </c>
       <c r="AU64">
         <v>0</v>
@@ -14706,10 +14709,10 @@
         <v>0</v>
       </c>
       <c r="AW64">
-        <v>7.46</v>
+        <v>0</v>
       </c>
       <c r="AX64">
-        <v>0</v>
+        <v>11.61</v>
       </c>
       <c r="AY64">
         <v>0</v>
@@ -14718,10 +14721,10 @@
         <v>0</v>
       </c>
       <c r="BA64">
-        <v>7.85</v>
+        <v>0</v>
       </c>
       <c r="BB64">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BC64">
         <v>0</v>
@@ -14730,10 +14733,10 @@
         <v>0</v>
       </c>
       <c r="BE64">
-        <v>3.69</v>
+        <v>0</v>
       </c>
       <c r="BF64">
-        <v>0</v>
+        <v>8.1199999999999992</v>
       </c>
       <c r="BG64">
         <v>0</v>
@@ -14742,10 +14745,10 @@
         <v>0</v>
       </c>
       <c r="BI64">
-        <v>6.35</v>
+        <v>0</v>
       </c>
       <c r="BJ64">
-        <v>0</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="BK64">
         <v>0</v>
@@ -14754,10 +14757,10 @@
         <v>0</v>
       </c>
       <c r="BM64">
-        <v>6.61</v>
+        <v>0</v>
       </c>
       <c r="BN64">
-        <v>0</v>
+        <v>3.72</v>
       </c>
       <c r="BO64">
         <v>0</v>
@@ -14766,10 +14769,10 @@
         <v>0</v>
       </c>
       <c r="BQ64">
-        <v>3.93</v>
+        <v>0</v>
       </c>
       <c r="BR64">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="BS64">
         <v>0</v>
@@ -14778,7 +14781,7 @@
         <v>0</v>
       </c>
       <c r="BU64">
-        <v>11.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:73" x14ac:dyDescent="0.2">
@@ -14786,7 +14789,7 @@
         <v>81</v>
       </c>
       <c r="B65">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -14795,10 +14798,10 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>6.08</v>
       </c>
       <c r="F65">
-        <v>4.47</v>
+        <v>0</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -14807,10 +14810,10 @@
         <v>0</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="J65">
-        <v>9.4499999999999993</v>
+        <v>0</v>
       </c>
       <c r="K65">
         <v>0</v>
@@ -14819,10 +14822,10 @@
         <v>0</v>
       </c>
       <c r="M65">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="N65">
-        <v>0.87</v>
+        <v>0</v>
       </c>
       <c r="O65">
         <v>0</v>
@@ -14831,10 +14834,10 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>0</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="R65">
-        <v>4.25</v>
+        <v>0</v>
       </c>
       <c r="S65">
         <v>0</v>
@@ -14843,10 +14846,10 @@
         <v>0</v>
       </c>
       <c r="U65">
-        <v>0</v>
+        <v>8.01</v>
       </c>
       <c r="V65">
-        <v>5.16</v>
+        <v>0</v>
       </c>
       <c r="W65">
         <v>0</v>
@@ -14855,10 +14858,10 @@
         <v>0</v>
       </c>
       <c r="Y65">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="Z65">
-        <v>7.14</v>
+        <v>0</v>
       </c>
       <c r="AA65">
         <v>0</v>
@@ -14867,10 +14870,10 @@
         <v>0</v>
       </c>
       <c r="AC65">
-        <v>0</v>
+        <v>5.49</v>
       </c>
       <c r="AD65">
-        <v>6.91</v>
+        <v>0</v>
       </c>
       <c r="AE65">
         <v>0</v>
@@ -14879,10 +14882,10 @@
         <v>0</v>
       </c>
       <c r="AG65">
-        <v>0</v>
+        <v>4.6100000000000003</v>
       </c>
       <c r="AH65">
-        <v>10.64</v>
+        <v>0</v>
       </c>
       <c r="AI65">
         <v>0</v>
@@ -14891,10 +14894,10 @@
         <v>0</v>
       </c>
       <c r="AK65">
-        <v>0</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="AL65">
-        <v>9.67</v>
+        <v>0</v>
       </c>
       <c r="AM65">
         <v>0</v>
@@ -14903,10 +14906,10 @@
         <v>0</v>
       </c>
       <c r="AO65">
-        <v>0</v>
+        <v>5.38</v>
       </c>
       <c r="AP65">
-        <v>5.25</v>
+        <v>0</v>
       </c>
       <c r="AQ65">
         <v>0</v>
@@ -14915,10 +14918,10 @@
         <v>0</v>
       </c>
       <c r="AS65">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AT65">
-        <v>6.63</v>
+        <v>0</v>
       </c>
       <c r="AU65">
         <v>0</v>
@@ -14927,10 +14930,10 @@
         <v>0</v>
       </c>
       <c r="AW65">
-        <v>0</v>
+        <v>7.46</v>
       </c>
       <c r="AX65">
-        <v>9.73</v>
+        <v>0</v>
       </c>
       <c r="AY65">
         <v>0</v>
@@ -14939,10 +14942,10 @@
         <v>0</v>
       </c>
       <c r="BA65">
-        <v>0</v>
+        <v>7.85</v>
       </c>
       <c r="BB65">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="BC65">
         <v>0</v>
@@ -14951,10 +14954,10 @@
         <v>0</v>
       </c>
       <c r="BE65">
-        <v>0</v>
+        <v>3.69</v>
       </c>
       <c r="BF65">
-        <v>12.42</v>
+        <v>0</v>
       </c>
       <c r="BG65">
         <v>0</v>
@@ -14963,10 +14966,10 @@
         <v>0</v>
       </c>
       <c r="BI65">
-        <v>0</v>
+        <v>6.35</v>
       </c>
       <c r="BJ65">
-        <v>7.58</v>
+        <v>0</v>
       </c>
       <c r="BK65">
         <v>0</v>
@@ -14975,10 +14978,10 @@
         <v>0</v>
       </c>
       <c r="BM65">
-        <v>0</v>
+        <v>6.61</v>
       </c>
       <c r="BN65">
-        <v>11.54</v>
+        <v>0</v>
       </c>
       <c r="BO65">
         <v>0</v>
@@ -14987,10 +14990,10 @@
         <v>0</v>
       </c>
       <c r="BQ65">
-        <v>0</v>
+        <v>3.93</v>
       </c>
       <c r="BR65">
-        <v>10.55</v>
+        <v>0</v>
       </c>
       <c r="BS65">
         <v>0</v>
@@ -14999,7 +15002,7 @@
         <v>0</v>
       </c>
       <c r="BU65">
-        <v>0</v>
+        <v>11.59</v>
       </c>
     </row>
     <row r="66" spans="1:73" x14ac:dyDescent="0.2">
@@ -15007,187 +15010,187 @@
         <v>82</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="C66">
         <v>0</v>
       </c>
       <c r="D66">
-        <v>4.3499999999999996</v>
+        <v>0</v>
       </c>
       <c r="E66">
         <v>0</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>4.47</v>
       </c>
       <c r="G66">
         <v>0</v>
       </c>
       <c r="H66">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="I66">
         <v>0</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>9.4499999999999993</v>
       </c>
       <c r="K66">
         <v>0</v>
       </c>
       <c r="L66">
-        <v>12.48</v>
+        <v>0</v>
       </c>
       <c r="M66">
         <v>0</v>
       </c>
       <c r="N66">
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="O66">
         <v>0</v>
       </c>
       <c r="P66">
-        <v>3.54</v>
+        <v>0</v>
       </c>
       <c r="Q66">
         <v>0</v>
       </c>
       <c r="R66">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="S66">
         <v>0</v>
       </c>
       <c r="T66">
-        <v>8.76</v>
+        <v>0</v>
       </c>
       <c r="U66">
         <v>0</v>
       </c>
       <c r="V66">
-        <v>0</v>
+        <v>5.16</v>
       </c>
       <c r="W66">
         <v>0</v>
       </c>
       <c r="X66">
-        <v>3.06</v>
+        <v>0</v>
       </c>
       <c r="Y66">
         <v>0</v>
       </c>
       <c r="Z66">
-        <v>0</v>
+        <v>7.14</v>
       </c>
       <c r="AA66">
         <v>0</v>
       </c>
       <c r="AB66">
-        <v>4.0999999999999996</v>
+        <v>0</v>
       </c>
       <c r="AC66">
         <v>0</v>
       </c>
       <c r="AD66">
-        <v>0</v>
+        <v>6.91</v>
       </c>
       <c r="AE66">
         <v>0</v>
       </c>
       <c r="AF66">
-        <v>6.3</v>
+        <v>0</v>
       </c>
       <c r="AG66">
         <v>0</v>
       </c>
       <c r="AH66">
-        <v>0</v>
+        <v>10.64</v>
       </c>
       <c r="AI66">
         <v>0</v>
       </c>
       <c r="AJ66">
-        <v>5.27</v>
+        <v>0</v>
       </c>
       <c r="AK66">
         <v>0</v>
       </c>
       <c r="AL66">
-        <v>0</v>
+        <v>9.67</v>
       </c>
       <c r="AM66">
         <v>0</v>
       </c>
       <c r="AN66">
-        <v>7.59</v>
+        <v>0</v>
       </c>
       <c r="AO66">
         <v>0</v>
       </c>
       <c r="AP66">
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="AQ66">
         <v>0</v>
       </c>
       <c r="AR66">
-        <v>4.67</v>
+        <v>0</v>
       </c>
       <c r="AS66">
         <v>0</v>
       </c>
       <c r="AT66">
-        <v>0</v>
+        <v>6.63</v>
       </c>
       <c r="AU66">
         <v>0</v>
       </c>
       <c r="AV66">
-        <v>2.91</v>
+        <v>0</v>
       </c>
       <c r="AW66">
         <v>0</v>
       </c>
       <c r="AX66">
-        <v>0</v>
+        <v>9.73</v>
       </c>
       <c r="AY66">
         <v>0</v>
       </c>
       <c r="AZ66">
-        <v>4.97</v>
+        <v>0</v>
       </c>
       <c r="BA66">
         <v>0</v>
       </c>
       <c r="BB66">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="BC66">
         <v>0</v>
       </c>
       <c r="BD66">
-        <v>2.68</v>
+        <v>0</v>
       </c>
       <c r="BE66">
         <v>0</v>
       </c>
       <c r="BF66">
-        <v>0</v>
+        <v>12.42</v>
       </c>
       <c r="BG66">
         <v>0</v>
       </c>
       <c r="BH66">
-        <v>14.92</v>
+        <v>0</v>
       </c>
       <c r="BI66">
         <v>0</v>
       </c>
       <c r="BJ66">
-        <v>0</v>
+        <v>7.58</v>
       </c>
       <c r="BK66">
         <v>0</v>
@@ -15199,25 +15202,25 @@
         <v>0</v>
       </c>
       <c r="BN66">
-        <v>0</v>
+        <v>11.54</v>
       </c>
       <c r="BO66">
         <v>0</v>
       </c>
       <c r="BP66">
-        <v>12.7</v>
+        <v>0</v>
       </c>
       <c r="BQ66">
         <v>0</v>
       </c>
       <c r="BR66">
-        <v>0</v>
+        <v>10.55</v>
       </c>
       <c r="BS66">
         <v>0</v>
       </c>
       <c r="BT66">
-        <v>8.56</v>
+        <v>0</v>
       </c>
       <c r="BU66">
         <v>0</v>
@@ -15231,10 +15234,10 @@
         <v>0</v>
       </c>
       <c r="C67">
-        <v>16.25</v>
+        <v>0</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -15243,10 +15246,10 @@
         <v>0</v>
       </c>
       <c r="G67">
-        <v>3.32</v>
+        <v>0</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="I67">
         <v>0</v>
@@ -15255,10 +15258,10 @@
         <v>0</v>
       </c>
       <c r="K67">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="L67">
-        <v>0</v>
+        <v>12.48</v>
       </c>
       <c r="M67">
         <v>0</v>
@@ -15267,10 +15270,10 @@
         <v>0</v>
       </c>
       <c r="O67">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="P67">
-        <v>0</v>
+        <v>3.54</v>
       </c>
       <c r="Q67">
         <v>0</v>
@@ -15279,10 +15282,10 @@
         <v>0</v>
       </c>
       <c r="S67">
-        <v>1.94</v>
+        <v>0</v>
       </c>
       <c r="T67">
-        <v>0</v>
+        <v>8.76</v>
       </c>
       <c r="U67">
         <v>0</v>
@@ -15291,10 +15294,10 @@
         <v>0</v>
       </c>
       <c r="W67">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="X67">
-        <v>0</v>
+        <v>3.06</v>
       </c>
       <c r="Y67">
         <v>0</v>
@@ -15303,10 +15306,10 @@
         <v>0</v>
       </c>
       <c r="AA67">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="AB67">
-        <v>0</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="AC67">
         <v>0</v>
@@ -15315,10 +15318,10 @@
         <v>0</v>
       </c>
       <c r="AE67">
-        <v>3.41</v>
+        <v>0</v>
       </c>
       <c r="AF67">
-        <v>0</v>
+        <v>6.3</v>
       </c>
       <c r="AG67">
         <v>0</v>
@@ -15327,10 +15330,10 @@
         <v>0</v>
       </c>
       <c r="AI67">
-        <v>4.58</v>
+        <v>0</v>
       </c>
       <c r="AJ67">
-        <v>0</v>
+        <v>5.27</v>
       </c>
       <c r="AK67">
         <v>0</v>
@@ -15339,10 +15342,10 @@
         <v>0</v>
       </c>
       <c r="AM67">
-        <v>3.71</v>
+        <v>0</v>
       </c>
       <c r="AN67">
-        <v>0</v>
+        <v>7.59</v>
       </c>
       <c r="AO67">
         <v>0</v>
@@ -15351,10 +15354,10 @@
         <v>0</v>
       </c>
       <c r="AQ67">
-        <v>2.74</v>
+        <v>0</v>
       </c>
       <c r="AR67">
-        <v>0</v>
+        <v>4.67</v>
       </c>
       <c r="AS67">
         <v>0</v>
@@ -15363,10 +15366,10 @@
         <v>0</v>
       </c>
       <c r="AU67">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AV67">
-        <v>0</v>
+        <v>2.91</v>
       </c>
       <c r="AW67">
         <v>0</v>
@@ -15375,10 +15378,10 @@
         <v>0</v>
       </c>
       <c r="AY67">
-        <v>0.87</v>
+        <v>0</v>
       </c>
       <c r="AZ67">
-        <v>0</v>
+        <v>4.97</v>
       </c>
       <c r="BA67">
         <v>0</v>
@@ -15387,10 +15390,10 @@
         <v>0</v>
       </c>
       <c r="BC67">
-        <v>1.99</v>
+        <v>0</v>
       </c>
       <c r="BD67">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="BE67">
         <v>0</v>
@@ -15399,10 +15402,10 @@
         <v>0</v>
       </c>
       <c r="BG67">
-        <v>0.56000000000000005</v>
+        <v>0</v>
       </c>
       <c r="BH67">
-        <v>0</v>
+        <v>14.92</v>
       </c>
       <c r="BI67">
         <v>0</v>
@@ -15411,7 +15414,7 @@
         <v>0</v>
       </c>
       <c r="BK67">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="BL67">
         <v>0</v>
@@ -15423,10 +15426,10 @@
         <v>0</v>
       </c>
       <c r="BO67">
-        <v>9.11</v>
+        <v>0</v>
       </c>
       <c r="BP67">
-        <v>0</v>
+        <v>12.7</v>
       </c>
       <c r="BQ67">
         <v>0</v>
@@ -15435,10 +15438,10 @@
         <v>0</v>
       </c>
       <c r="BS67">
-        <v>12.42</v>
+        <v>0</v>
       </c>
       <c r="BT67">
-        <v>0</v>
+        <v>8.56</v>
       </c>
       <c r="BU67">
         <v>0</v>
@@ -15452,10 +15455,10 @@
         <v>0</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>16.25</v>
       </c>
       <c r="D68">
-        <v>3.13</v>
+        <v>0</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -15464,10 +15467,10 @@
         <v>0</v>
       </c>
       <c r="G68">
-        <v>0</v>
+        <v>3.32</v>
       </c>
       <c r="H68">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -15476,10 +15479,10 @@
         <v>0</v>
       </c>
       <c r="K68">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="L68">
-        <v>3.48</v>
+        <v>0</v>
       </c>
       <c r="M68">
         <v>0</v>
@@ -15488,10 +15491,10 @@
         <v>0</v>
       </c>
       <c r="O68">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="P68">
-        <v>1.96</v>
+        <v>0</v>
       </c>
       <c r="Q68">
         <v>0</v>
@@ -15500,10 +15503,10 @@
         <v>0</v>
       </c>
       <c r="S68">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="T68">
-        <v>4.16</v>
+        <v>0</v>
       </c>
       <c r="U68">
         <v>0</v>
@@ -15512,10 +15515,10 @@
         <v>0</v>
       </c>
       <c r="W68">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="X68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y68">
         <v>0</v>
@@ -15524,10 +15527,10 @@
         <v>0</v>
       </c>
       <c r="AA68">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="AB68">
-        <v>5.43</v>
+        <v>0</v>
       </c>
       <c r="AC68">
         <v>0</v>
@@ -15536,7 +15539,7 @@
         <v>0</v>
       </c>
       <c r="AE68">
-        <v>0</v>
+        <v>3.41</v>
       </c>
       <c r="AF68">
         <v>0</v>
@@ -15548,7 +15551,7 @@
         <v>0</v>
       </c>
       <c r="AI68">
-        <v>0</v>
+        <v>4.58</v>
       </c>
       <c r="AJ68">
         <v>0</v>
@@ -15560,10 +15563,10 @@
         <v>0</v>
       </c>
       <c r="AM68">
-        <v>0</v>
+        <v>3.71</v>
       </c>
       <c r="AN68">
-        <v>4.55</v>
+        <v>0</v>
       </c>
       <c r="AO68">
         <v>0</v>
@@ -15572,10 +15575,10 @@
         <v>0</v>
       </c>
       <c r="AQ68">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="AR68">
-        <v>5.16</v>
+        <v>0</v>
       </c>
       <c r="AS68">
         <v>0</v>
@@ -15584,10 +15587,10 @@
         <v>0</v>
       </c>
       <c r="AU68">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AV68">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="AW68">
         <v>0</v>
@@ -15596,10 +15599,10 @@
         <v>0</v>
       </c>
       <c r="AY68">
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="AZ68">
-        <v>3.11</v>
+        <v>0</v>
       </c>
       <c r="BA68">
         <v>0</v>
@@ -15608,10 +15611,10 @@
         <v>0</v>
       </c>
       <c r="BC68">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="BD68">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="BE68">
         <v>0</v>
@@ -15620,10 +15623,10 @@
         <v>0</v>
       </c>
       <c r="BG68">
-        <v>0</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="BH68">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="BI68">
         <v>0</v>
@@ -15632,10 +15635,10 @@
         <v>0</v>
       </c>
       <c r="BK68">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="BL68">
-        <v>7.24</v>
+        <v>0</v>
       </c>
       <c r="BM68">
         <v>0</v>
@@ -15644,10 +15647,10 @@
         <v>0</v>
       </c>
       <c r="BO68">
-        <v>0</v>
+        <v>9.11</v>
       </c>
       <c r="BP68">
-        <v>8.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="BQ68">
         <v>0</v>
@@ -15656,10 +15659,10 @@
         <v>0</v>
       </c>
       <c r="BS68">
-        <v>0</v>
+        <v>12.42</v>
       </c>
       <c r="BT68">
-        <v>9.0399999999999991</v>
+        <v>0</v>
       </c>
       <c r="BU68">
         <v>0</v>
@@ -15673,10 +15676,10 @@
         <v>0</v>
       </c>
       <c r="C69">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>3.13</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -15685,10 +15688,10 @@
         <v>0</v>
       </c>
       <c r="G69">
-        <v>6.32</v>
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -15697,10 +15700,10 @@
         <v>0</v>
       </c>
       <c r="K69">
-        <v>2.93</v>
+        <v>0</v>
       </c>
       <c r="L69">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="M69">
         <v>0</v>
@@ -15709,10 +15712,10 @@
         <v>0</v>
       </c>
       <c r="O69">
-        <v>11.41</v>
+        <v>0</v>
       </c>
       <c r="P69">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="Q69">
         <v>0</v>
@@ -15721,10 +15724,10 @@
         <v>0</v>
       </c>
       <c r="S69">
-        <v>3.17</v>
+        <v>0</v>
       </c>
       <c r="T69">
-        <v>0</v>
+        <v>4.16</v>
       </c>
       <c r="U69">
         <v>0</v>
@@ -15733,10 +15736,10 @@
         <v>0</v>
       </c>
       <c r="W69">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="X69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y69">
         <v>0</v>
@@ -15745,10 +15748,10 @@
         <v>0</v>
       </c>
       <c r="AA69">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="AB69">
-        <v>0</v>
+        <v>5.43</v>
       </c>
       <c r="AC69">
         <v>0</v>
@@ -15757,7 +15760,7 @@
         <v>0</v>
       </c>
       <c r="AE69">
-        <v>0.59</v>
+        <v>0</v>
       </c>
       <c r="AF69">
         <v>0</v>
@@ -15769,7 +15772,7 @@
         <v>0</v>
       </c>
       <c r="AI69">
-        <v>11.38</v>
+        <v>0</v>
       </c>
       <c r="AJ69">
         <v>0</v>
@@ -15781,10 +15784,10 @@
         <v>0</v>
       </c>
       <c r="AM69">
-        <v>14.15</v>
+        <v>0</v>
       </c>
       <c r="AN69">
-        <v>0</v>
+        <v>4.55</v>
       </c>
       <c r="AO69">
         <v>0</v>
@@ -15793,10 +15796,10 @@
         <v>0</v>
       </c>
       <c r="AQ69">
-        <v>9.33</v>
+        <v>0</v>
       </c>
       <c r="AR69">
-        <v>0</v>
+        <v>5.16</v>
       </c>
       <c r="AS69">
         <v>0</v>
@@ -15805,10 +15808,10 @@
         <v>0</v>
       </c>
       <c r="AU69">
-        <v>5.17</v>
+        <v>0</v>
       </c>
       <c r="AV69">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AW69">
         <v>0</v>
@@ -15817,10 +15820,10 @@
         <v>0</v>
       </c>
       <c r="AY69">
-        <v>6.53</v>
+        <v>0</v>
       </c>
       <c r="AZ69">
-        <v>0</v>
+        <v>3.11</v>
       </c>
       <c r="BA69">
         <v>0</v>
@@ -15829,10 +15832,10 @@
         <v>0</v>
       </c>
       <c r="BC69">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="BD69">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="BE69">
         <v>0</v>
@@ -15841,10 +15844,10 @@
         <v>0</v>
       </c>
       <c r="BG69">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="BH69">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="BI69">
         <v>0</v>
@@ -15853,10 +15856,10 @@
         <v>0</v>
       </c>
       <c r="BK69">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="BL69">
-        <v>0</v>
+        <v>7.24</v>
       </c>
       <c r="BM69">
         <v>0</v>
@@ -15865,10 +15868,10 @@
         <v>0</v>
       </c>
       <c r="BO69">
-        <v>10.06</v>
+        <v>0</v>
       </c>
       <c r="BP69">
-        <v>0</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="BQ69">
         <v>0</v>
@@ -15877,10 +15880,10 @@
         <v>0</v>
       </c>
       <c r="BS69">
-        <v>3.11</v>
+        <v>0</v>
       </c>
       <c r="BT69">
-        <v>0</v>
+        <v>9.0399999999999991</v>
       </c>
       <c r="BU69">
         <v>0</v>
@@ -15894,10 +15897,10 @@
         <v>0</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="D70">
-        <v>5.13</v>
+        <v>0</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -15906,10 +15909,10 @@
         <v>0</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>6.32</v>
       </c>
       <c r="H70">
-        <v>3.22</v>
+        <v>0</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -15918,10 +15921,10 @@
         <v>0</v>
       </c>
       <c r="K70">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="L70">
-        <v>6.06</v>
+        <v>0</v>
       </c>
       <c r="M70">
         <v>0</v>
@@ -15930,7 +15933,7 @@
         <v>0</v>
       </c>
       <c r="O70">
-        <v>0</v>
+        <v>11.41</v>
       </c>
       <c r="P70">
         <v>0</v>
@@ -15942,10 +15945,10 @@
         <v>0</v>
       </c>
       <c r="S70">
-        <v>0</v>
+        <v>3.17</v>
       </c>
       <c r="T70">
-        <v>7.19</v>
+        <v>0</v>
       </c>
       <c r="U70">
         <v>0</v>
@@ -15954,10 +15957,10 @@
         <v>0</v>
       </c>
       <c r="W70">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="X70">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="Y70">
         <v>0</v>
@@ -15966,10 +15969,10 @@
         <v>0</v>
       </c>
       <c r="AA70">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AB70">
-        <v>9.84</v>
+        <v>0</v>
       </c>
       <c r="AC70">
         <v>0</v>
@@ -15978,7 +15981,7 @@
         <v>0</v>
       </c>
       <c r="AE70">
-        <v>0</v>
+        <v>0.59</v>
       </c>
       <c r="AF70">
         <v>0</v>
@@ -15990,10 +15993,10 @@
         <v>0</v>
       </c>
       <c r="AI70">
-        <v>0</v>
+        <v>11.38</v>
       </c>
       <c r="AJ70">
-        <v>7.91</v>
+        <v>0</v>
       </c>
       <c r="AK70">
         <v>0</v>
@@ -16002,10 +16005,10 @@
         <v>0</v>
       </c>
       <c r="AM70">
-        <v>0</v>
+        <v>14.15</v>
       </c>
       <c r="AN70">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="AO70">
         <v>0</v>
@@ -16014,10 +16017,10 @@
         <v>0</v>
       </c>
       <c r="AQ70">
-        <v>0</v>
+        <v>9.33</v>
       </c>
       <c r="AR70">
-        <v>11.19</v>
+        <v>0</v>
       </c>
       <c r="AS70">
         <v>0</v>
@@ -16026,7 +16029,7 @@
         <v>0</v>
       </c>
       <c r="AU70">
-        <v>0</v>
+        <v>5.17</v>
       </c>
       <c r="AV70">
         <v>0</v>
@@ -16038,10 +16041,10 @@
         <v>0</v>
       </c>
       <c r="AY70">
-        <v>0</v>
+        <v>6.53</v>
       </c>
       <c r="AZ70">
-        <v>15.58</v>
+        <v>0</v>
       </c>
       <c r="BA70">
         <v>0</v>
@@ -16050,10 +16053,10 @@
         <v>0</v>
       </c>
       <c r="BC70">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="BD70">
-        <v>3.63</v>
+        <v>0</v>
       </c>
       <c r="BE70">
         <v>0</v>
@@ -16062,10 +16065,10 @@
         <v>0</v>
       </c>
       <c r="BG70">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="BH70">
-        <v>5.46</v>
+        <v>0</v>
       </c>
       <c r="BI70">
         <v>0</v>
@@ -16074,10 +16077,10 @@
         <v>0</v>
       </c>
       <c r="BK70">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="BL70">
-        <v>2.48</v>
+        <v>0</v>
       </c>
       <c r="BM70">
         <v>0</v>
@@ -16086,10 +16089,10 @@
         <v>0</v>
       </c>
       <c r="BO70">
-        <v>0</v>
+        <v>10.06</v>
       </c>
       <c r="BP70">
-        <v>9.93</v>
+        <v>0</v>
       </c>
       <c r="BQ70">
         <v>0</v>
@@ -16098,10 +16101,10 @@
         <v>0</v>
       </c>
       <c r="BS70">
-        <v>0</v>
+        <v>3.11</v>
       </c>
       <c r="BT70">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="BU70">
         <v>0</v>
@@ -16118,7 +16121,7 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>5.13</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -16127,10 +16130,10 @@
         <v>0</v>
       </c>
       <c r="G71">
-        <v>11.12</v>
+        <v>0</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>3.22</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -16139,10 +16142,10 @@
         <v>0</v>
       </c>
       <c r="K71">
-        <v>14.06</v>
+        <v>0</v>
       </c>
       <c r="L71">
-        <v>0</v>
+        <v>6.06</v>
       </c>
       <c r="M71">
         <v>0</v>
@@ -16151,7 +16154,7 @@
         <v>0</v>
       </c>
       <c r="O71">
-        <v>15.01</v>
+        <v>0</v>
       </c>
       <c r="P71">
         <v>0</v>
@@ -16163,10 +16166,10 @@
         <v>0</v>
       </c>
       <c r="S71">
-        <v>13.31</v>
+        <v>0</v>
       </c>
       <c r="T71">
-        <v>0</v>
+        <v>7.19</v>
       </c>
       <c r="U71">
         <v>0</v>
@@ -16175,10 +16178,10 @@
         <v>0</v>
       </c>
       <c r="W71">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="X71">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="Y71">
         <v>0</v>
@@ -16187,10 +16190,10 @@
         <v>0</v>
       </c>
       <c r="AA71">
-        <v>7.68</v>
+        <v>0</v>
       </c>
       <c r="AB71">
-        <v>0</v>
+        <v>9.84</v>
       </c>
       <c r="AC71">
         <v>0</v>
@@ -16199,7 +16202,7 @@
         <v>0</v>
       </c>
       <c r="AE71">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="AF71">
         <v>0</v>
@@ -16211,10 +16214,10 @@
         <v>0</v>
       </c>
       <c r="AI71">
-        <v>11.16</v>
+        <v>0</v>
       </c>
       <c r="AJ71">
-        <v>0</v>
+        <v>7.91</v>
       </c>
       <c r="AK71">
         <v>0</v>
@@ -16223,10 +16226,10 @@
         <v>0</v>
       </c>
       <c r="AM71">
-        <v>12.34</v>
+        <v>0</v>
       </c>
       <c r="AN71">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AO71">
         <v>0</v>
@@ -16235,10 +16238,10 @@
         <v>0</v>
       </c>
       <c r="AQ71">
-        <v>14.79</v>
+        <v>0</v>
       </c>
       <c r="AR71">
-        <v>0</v>
+        <v>11.19</v>
       </c>
       <c r="AS71">
         <v>0</v>
@@ -16247,7 +16250,7 @@
         <v>0</v>
       </c>
       <c r="AU71">
-        <v>4.12</v>
+        <v>0</v>
       </c>
       <c r="AV71">
         <v>0</v>
@@ -16259,10 +16262,10 @@
         <v>0</v>
       </c>
       <c r="AY71">
-        <v>12.14</v>
+        <v>0</v>
       </c>
       <c r="AZ71">
-        <v>0</v>
+        <v>15.58</v>
       </c>
       <c r="BA71">
         <v>0</v>
@@ -16271,10 +16274,10 @@
         <v>0</v>
       </c>
       <c r="BC71">
-        <v>10.33</v>
+        <v>0</v>
       </c>
       <c r="BD71">
-        <v>0</v>
+        <v>3.63</v>
       </c>
       <c r="BE71">
         <v>0</v>
@@ -16283,10 +16286,10 @@
         <v>0</v>
       </c>
       <c r="BG71">
-        <v>6.9</v>
+        <v>0</v>
       </c>
       <c r="BH71">
-        <v>0</v>
+        <v>5.46</v>
       </c>
       <c r="BI71">
         <v>0</v>
@@ -16295,10 +16298,10 @@
         <v>0</v>
       </c>
       <c r="BK71">
-        <v>6.48</v>
+        <v>0</v>
       </c>
       <c r="BL71">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="BM71">
         <v>0</v>
@@ -16307,10 +16310,10 @@
         <v>0</v>
       </c>
       <c r="BO71">
-        <v>3.68</v>
+        <v>0</v>
       </c>
       <c r="BP71">
-        <v>0</v>
+        <v>9.93</v>
       </c>
       <c r="BQ71">
         <v>0</v>
@@ -16319,10 +16322,10 @@
         <v>0</v>
       </c>
       <c r="BS71">
-        <v>5.41</v>
+        <v>0</v>
       </c>
       <c r="BT71">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="BU71">
         <v>0</v>
@@ -16342,211 +16345,211 @@
         <v>0</v>
       </c>
       <c r="E72">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F72">
         <v>0</v>
       </c>
       <c r="G72">
-        <v>0</v>
+        <v>11.12</v>
       </c>
       <c r="H72">
         <v>0</v>
       </c>
       <c r="I72">
-        <v>4.78</v>
+        <v>0</v>
       </c>
       <c r="J72">
         <v>0</v>
       </c>
       <c r="K72">
-        <v>0</v>
+        <v>14.06</v>
       </c>
       <c r="L72">
         <v>0</v>
       </c>
       <c r="M72">
-        <v>5.08</v>
+        <v>0</v>
       </c>
       <c r="N72">
         <v>0</v>
       </c>
       <c r="O72">
-        <v>0</v>
+        <v>15.01</v>
       </c>
       <c r="P72">
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="R72">
         <v>0</v>
       </c>
       <c r="S72">
-        <v>0</v>
+        <v>13.31</v>
       </c>
       <c r="T72">
         <v>0</v>
       </c>
       <c r="U72">
-        <v>14.3</v>
+        <v>0</v>
       </c>
       <c r="V72">
         <v>0</v>
       </c>
       <c r="W72">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="X72">
         <v>0</v>
       </c>
       <c r="Y72">
-        <v>2.72</v>
+        <v>0</v>
       </c>
       <c r="Z72">
         <v>0</v>
       </c>
       <c r="AA72">
-        <v>0</v>
+        <v>7.68</v>
       </c>
       <c r="AB72">
         <v>0</v>
       </c>
       <c r="AC72">
-        <v>7.61</v>
+        <v>0</v>
       </c>
       <c r="AD72">
         <v>0</v>
       </c>
       <c r="AE72">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="AF72">
         <v>0</v>
       </c>
       <c r="AG72">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="AH72">
         <v>0</v>
       </c>
       <c r="AI72">
-        <v>0</v>
+        <v>11.16</v>
       </c>
       <c r="AJ72">
         <v>0</v>
       </c>
       <c r="AK72">
-        <v>10.45</v>
+        <v>0</v>
       </c>
       <c r="AL72">
         <v>0</v>
       </c>
       <c r="AM72">
-        <v>0</v>
+        <v>12.34</v>
       </c>
       <c r="AN72">
         <v>0</v>
       </c>
       <c r="AO72">
-        <v>4.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="AP72">
         <v>0</v>
       </c>
       <c r="AQ72">
-        <v>0</v>
+        <v>14.79</v>
       </c>
       <c r="AR72">
         <v>0</v>
       </c>
       <c r="AS72">
-        <v>9.4</v>
+        <v>0</v>
       </c>
       <c r="AT72">
         <v>0</v>
       </c>
       <c r="AU72">
-        <v>0</v>
+        <v>4.12</v>
       </c>
       <c r="AV72">
         <v>0</v>
       </c>
       <c r="AW72">
-        <v>6.04</v>
+        <v>0</v>
       </c>
       <c r="AX72">
         <v>0</v>
       </c>
       <c r="AY72">
-        <v>0</v>
+        <v>12.14</v>
       </c>
       <c r="AZ72">
         <v>0</v>
       </c>
       <c r="BA72">
-        <v>5.66</v>
+        <v>0</v>
       </c>
       <c r="BB72">
         <v>0</v>
       </c>
       <c r="BC72">
-        <v>0</v>
+        <v>10.33</v>
       </c>
       <c r="BD72">
         <v>0</v>
       </c>
       <c r="BE72">
-        <v>13.34</v>
+        <v>0</v>
       </c>
       <c r="BF72">
         <v>0</v>
       </c>
       <c r="BG72">
-        <v>0</v>
+        <v>6.9</v>
       </c>
       <c r="BH72">
         <v>0</v>
       </c>
       <c r="BI72">
-        <v>12.2</v>
+        <v>0</v>
       </c>
       <c r="BJ72">
         <v>0</v>
       </c>
       <c r="BK72">
-        <v>0</v>
+        <v>6.48</v>
       </c>
       <c r="BL72">
         <v>0</v>
       </c>
       <c r="BM72">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="BN72">
         <v>0</v>
       </c>
       <c r="BO72">
-        <v>0</v>
+        <v>3.68</v>
       </c>
       <c r="BP72">
         <v>0</v>
       </c>
       <c r="BQ72">
-        <v>17.89</v>
+        <v>0</v>
       </c>
       <c r="BR72">
         <v>0</v>
       </c>
       <c r="BS72">
-        <v>0</v>
+        <v>5.41</v>
       </c>
       <c r="BT72">
         <v>0</v>
       </c>
       <c r="BU72">
-        <v>17.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:73" x14ac:dyDescent="0.2">
@@ -16563,7 +16566,7 @@
         <v>0</v>
       </c>
       <c r="E73">
-        <v>4.79</v>
+        <v>0.03</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -16575,7 +16578,7 @@
         <v>0</v>
       </c>
       <c r="I73">
-        <v>1.91</v>
+        <v>4.78</v>
       </c>
       <c r="J73">
         <v>0</v>
@@ -16587,7 +16590,7 @@
         <v>0</v>
       </c>
       <c r="M73">
-        <v>8.5299999999999994</v>
+        <v>5.08</v>
       </c>
       <c r="N73">
         <v>0</v>
@@ -16599,7 +16602,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>1.37</v>
+        <v>1.63</v>
       </c>
       <c r="R73">
         <v>0</v>
@@ -16611,7 +16614,7 @@
         <v>0</v>
       </c>
       <c r="U73">
-        <v>16.190000000000001</v>
+        <v>14.3</v>
       </c>
       <c r="V73">
         <v>0</v>
@@ -16623,7 +16626,7 @@
         <v>0</v>
       </c>
       <c r="Y73">
-        <v>1.25</v>
+        <v>2.72</v>
       </c>
       <c r="Z73">
         <v>0</v>
@@ -16635,7 +16638,7 @@
         <v>0</v>
       </c>
       <c r="AC73">
-        <v>6.52</v>
+        <v>7.61</v>
       </c>
       <c r="AD73">
         <v>0</v>
@@ -16647,7 +16650,7 @@
         <v>0</v>
       </c>
       <c r="AG73">
-        <v>2.21</v>
+        <v>0.9</v>
       </c>
       <c r="AH73">
         <v>0</v>
@@ -16659,7 +16662,7 @@
         <v>0</v>
       </c>
       <c r="AK73">
-        <v>12.64</v>
+        <v>10.45</v>
       </c>
       <c r="AL73">
         <v>0</v>
@@ -16671,7 +16674,7 @@
         <v>0</v>
       </c>
       <c r="AO73">
-        <v>4.63</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AP73">
         <v>0</v>
@@ -16683,7 +16686,7 @@
         <v>0</v>
       </c>
       <c r="AS73">
-        <v>7.57</v>
+        <v>9.4</v>
       </c>
       <c r="AT73">
         <v>0</v>
@@ -16695,7 +16698,7 @@
         <v>0</v>
       </c>
       <c r="AW73">
-        <v>5.01</v>
+        <v>6.04</v>
       </c>
       <c r="AX73">
         <v>0</v>
@@ -16707,7 +16710,7 @@
         <v>0</v>
       </c>
       <c r="BA73">
-        <v>11.98</v>
+        <v>5.66</v>
       </c>
       <c r="BB73">
         <v>0</v>
@@ -16719,7 +16722,7 @@
         <v>0</v>
       </c>
       <c r="BE73">
-        <v>4.96</v>
+        <v>13.34</v>
       </c>
       <c r="BF73">
         <v>0</v>
@@ -16731,7 +16734,7 @@
         <v>0</v>
       </c>
       <c r="BI73">
-        <v>7</v>
+        <v>12.2</v>
       </c>
       <c r="BJ73">
         <v>0</v>
@@ -16743,7 +16746,7 @@
         <v>0</v>
       </c>
       <c r="BM73">
-        <v>4.6399999999999997</v>
+        <v>6.25</v>
       </c>
       <c r="BN73">
         <v>0</v>
@@ -16755,7 +16758,7 @@
         <v>0</v>
       </c>
       <c r="BQ73">
-        <v>12.5</v>
+        <v>17.89</v>
       </c>
       <c r="BR73">
         <v>0</v>
@@ -16767,7 +16770,7 @@
         <v>0</v>
       </c>
       <c r="BU73">
-        <v>15.41</v>
+        <v>17.3</v>
       </c>
     </row>
     <row r="74" spans="1:73" x14ac:dyDescent="0.2">
@@ -16784,7 +16787,7 @@
         <v>0</v>
       </c>
       <c r="E74">
-        <v>6.64</v>
+        <v>4.79</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -16796,7 +16799,7 @@
         <v>0</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -16808,7 +16811,7 @@
         <v>0</v>
       </c>
       <c r="M74">
-        <v>0.5</v>
+        <v>8.5299999999999994</v>
       </c>
       <c r="N74">
         <v>0</v>
@@ -16820,7 +16823,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="R74">
         <v>0</v>
@@ -16832,7 +16835,7 @@
         <v>0</v>
       </c>
       <c r="U74">
-        <v>13.53</v>
+        <v>16.190000000000001</v>
       </c>
       <c r="V74">
         <v>0</v>
@@ -16844,7 +16847,7 @@
         <v>0</v>
       </c>
       <c r="Y74">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Z74">
         <v>0</v>
@@ -16856,7 +16859,7 @@
         <v>0</v>
       </c>
       <c r="AC74">
-        <v>6.31</v>
+        <v>6.52</v>
       </c>
       <c r="AD74">
         <v>0</v>
@@ -16868,7 +16871,7 @@
         <v>0</v>
       </c>
       <c r="AG74">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="AH74">
         <v>0</v>
@@ -16880,7 +16883,7 @@
         <v>0</v>
       </c>
       <c r="AK74">
-        <v>6.99</v>
+        <v>12.64</v>
       </c>
       <c r="AL74">
         <v>0</v>
@@ -16892,7 +16895,7 @@
         <v>0</v>
       </c>
       <c r="AO74">
-        <v>0</v>
+        <v>4.63</v>
       </c>
       <c r="AP74">
         <v>0</v>
@@ -16904,7 +16907,7 @@
         <v>0</v>
       </c>
       <c r="AS74">
-        <v>7.54</v>
+        <v>7.57</v>
       </c>
       <c r="AT74">
         <v>0</v>
@@ -16916,7 +16919,7 @@
         <v>0</v>
       </c>
       <c r="AW74">
-        <v>0</v>
+        <v>5.01</v>
       </c>
       <c r="AX74">
         <v>0</v>
@@ -16928,7 +16931,7 @@
         <v>0</v>
       </c>
       <c r="BA74">
-        <v>1.9</v>
+        <v>11.98</v>
       </c>
       <c r="BB74">
         <v>0</v>
@@ -16940,7 +16943,7 @@
         <v>0</v>
       </c>
       <c r="BE74">
-        <v>0</v>
+        <v>4.96</v>
       </c>
       <c r="BF74">
         <v>0</v>
@@ -16952,7 +16955,7 @@
         <v>0</v>
       </c>
       <c r="BI74">
-        <v>3.79</v>
+        <v>7</v>
       </c>
       <c r="BJ74">
         <v>0</v>
@@ -16964,7 +16967,7 @@
         <v>0</v>
       </c>
       <c r="BM74">
-        <v>0</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="BN74">
         <v>0</v>
@@ -16976,7 +16979,7 @@
         <v>0</v>
       </c>
       <c r="BQ74">
-        <v>7.95</v>
+        <v>12.5</v>
       </c>
       <c r="BR74">
         <v>0</v>
@@ -16988,7 +16991,7 @@
         <v>0</v>
       </c>
       <c r="BU74">
-        <v>10.54</v>
+        <v>15.41</v>
       </c>
     </row>
     <row r="75" spans="1:73" x14ac:dyDescent="0.2">
@@ -16996,7 +16999,7 @@
         <v>91</v>
       </c>
       <c r="B75">
-        <v>4.87</v>
+        <v>0</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -17005,10 +17008,10 @@
         <v>0</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>6.64</v>
       </c>
       <c r="F75">
-        <v>4.99</v>
+        <v>0</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -17020,7 +17023,7 @@
         <v>0</v>
       </c>
       <c r="J75">
-        <v>6.23</v>
+        <v>0</v>
       </c>
       <c r="K75">
         <v>0</v>
@@ -17029,10 +17032,10 @@
         <v>0</v>
       </c>
       <c r="M75">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N75">
-        <v>3.64</v>
+        <v>0</v>
       </c>
       <c r="O75">
         <v>0</v>
@@ -17044,7 +17047,7 @@
         <v>0</v>
       </c>
       <c r="R75">
-        <v>2.71</v>
+        <v>0</v>
       </c>
       <c r="S75">
         <v>0</v>
@@ -17053,10 +17056,10 @@
         <v>0</v>
       </c>
       <c r="U75">
-        <v>0</v>
+        <v>13.53</v>
       </c>
       <c r="V75">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="W75">
         <v>0</v>
@@ -17068,7 +17071,7 @@
         <v>0</v>
       </c>
       <c r="Z75">
-        <v>13.69</v>
+        <v>0</v>
       </c>
       <c r="AA75">
         <v>0</v>
@@ -17077,10 +17080,10 @@
         <v>0</v>
       </c>
       <c r="AC75">
-        <v>0</v>
+        <v>6.31</v>
       </c>
       <c r="AD75">
-        <v>1.94</v>
+        <v>0</v>
       </c>
       <c r="AE75">
         <v>0</v>
@@ -17092,7 +17095,7 @@
         <v>0</v>
       </c>
       <c r="AH75">
-        <v>6.97</v>
+        <v>0</v>
       </c>
       <c r="AI75">
         <v>0</v>
@@ -17101,10 +17104,10 @@
         <v>0</v>
       </c>
       <c r="AK75">
-        <v>0</v>
+        <v>6.99</v>
       </c>
       <c r="AL75">
-        <v>8.26</v>
+        <v>0</v>
       </c>
       <c r="AM75">
         <v>0</v>
@@ -17116,7 +17119,7 @@
         <v>0</v>
       </c>
       <c r="AP75">
-        <v>6.06</v>
+        <v>0</v>
       </c>
       <c r="AQ75">
         <v>0</v>
@@ -17125,10 +17128,10 @@
         <v>0</v>
       </c>
       <c r="AS75">
-        <v>0</v>
+        <v>7.54</v>
       </c>
       <c r="AT75">
-        <v>3.91</v>
+        <v>0</v>
       </c>
       <c r="AU75">
         <v>0</v>
@@ -17140,7 +17143,7 @@
         <v>0</v>
       </c>
       <c r="AX75">
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="AY75">
         <v>0</v>
@@ -17149,10 +17152,10 @@
         <v>0</v>
       </c>
       <c r="BA75">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="BB75">
-        <v>4.45</v>
+        <v>0</v>
       </c>
       <c r="BC75">
         <v>0</v>
@@ -17164,7 +17167,7 @@
         <v>0</v>
       </c>
       <c r="BF75">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="BG75">
         <v>0</v>
@@ -17173,10 +17176,10 @@
         <v>0</v>
       </c>
       <c r="BI75">
-        <v>0</v>
+        <v>3.79</v>
       </c>
       <c r="BJ75">
-        <v>6.37</v>
+        <v>0</v>
       </c>
       <c r="BK75">
         <v>0</v>
@@ -17188,7 +17191,7 @@
         <v>0</v>
       </c>
       <c r="BN75">
-        <v>12.81</v>
+        <v>0</v>
       </c>
       <c r="BO75">
         <v>0</v>
@@ -17197,10 +17200,10 @@
         <v>0</v>
       </c>
       <c r="BQ75">
-        <v>0</v>
+        <v>7.95</v>
       </c>
       <c r="BR75">
-        <v>10.43</v>
+        <v>0</v>
       </c>
       <c r="BS75">
         <v>0</v>
@@ -17209,7 +17212,7 @@
         <v>0</v>
       </c>
       <c r="BU75">
-        <v>0</v>
+        <v>10.54</v>
       </c>
     </row>
     <row r="76" spans="1:73" x14ac:dyDescent="0.2">
@@ -17217,217 +17220,217 @@
         <v>92</v>
       </c>
       <c r="B76">
-        <v>0</v>
+        <v>4.87</v>
       </c>
       <c r="C76">
         <v>0</v>
       </c>
       <c r="D76">
-        <v>7.45</v>
+        <v>0</v>
       </c>
       <c r="E76">
         <v>0</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>4.99</v>
       </c>
       <c r="G76">
         <v>0</v>
       </c>
       <c r="H76">
-        <v>0.77</v>
+        <v>0</v>
       </c>
       <c r="I76">
         <v>0</v>
       </c>
       <c r="J76">
-        <v>0</v>
+        <v>6.23</v>
       </c>
       <c r="K76">
         <v>0</v>
       </c>
       <c r="L76">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="M76">
         <v>0</v>
       </c>
       <c r="N76">
-        <v>0</v>
+        <v>3.64</v>
       </c>
       <c r="O76">
         <v>0</v>
       </c>
       <c r="P76">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="Q76">
         <v>0</v>
       </c>
       <c r="R76">
-        <v>0</v>
+        <v>2.71</v>
       </c>
       <c r="S76">
         <v>0</v>
       </c>
       <c r="T76">
-        <v>7.76</v>
+        <v>0</v>
       </c>
       <c r="U76">
         <v>0</v>
       </c>
       <c r="V76">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="W76">
         <v>0</v>
       </c>
       <c r="X76">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="Y76">
         <v>0</v>
       </c>
       <c r="Z76">
-        <v>0</v>
+        <v>13.69</v>
       </c>
       <c r="AA76">
         <v>0</v>
       </c>
       <c r="AB76">
-        <v>7.06</v>
+        <v>0</v>
       </c>
       <c r="AC76">
         <v>0</v>
       </c>
       <c r="AD76">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="AE76">
         <v>0</v>
       </c>
       <c r="AF76">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="AG76">
         <v>0</v>
       </c>
       <c r="AH76">
-        <v>0</v>
+        <v>6.97</v>
       </c>
       <c r="AI76">
         <v>0</v>
       </c>
       <c r="AJ76">
-        <v>4.66</v>
+        <v>0</v>
       </c>
       <c r="AK76">
         <v>0</v>
       </c>
       <c r="AL76">
-        <v>0</v>
+        <v>8.26</v>
       </c>
       <c r="AM76">
         <v>0</v>
       </c>
       <c r="AN76">
-        <v>12.34</v>
+        <v>0</v>
       </c>
       <c r="AO76">
         <v>0</v>
       </c>
       <c r="AP76">
-        <v>0</v>
+        <v>6.06</v>
       </c>
       <c r="AQ76">
         <v>0</v>
       </c>
       <c r="AR76">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="AS76">
         <v>0</v>
       </c>
       <c r="AT76">
-        <v>0</v>
+        <v>3.91</v>
       </c>
       <c r="AU76">
         <v>0</v>
       </c>
       <c r="AV76">
-        <v>2.87</v>
+        <v>0</v>
       </c>
       <c r="AW76">
         <v>0</v>
       </c>
       <c r="AX76">
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="AY76">
         <v>0</v>
       </c>
       <c r="AZ76">
-        <v>13.54</v>
+        <v>0</v>
       </c>
       <c r="BA76">
         <v>0</v>
       </c>
       <c r="BB76">
-        <v>0</v>
+        <v>4.45</v>
       </c>
       <c r="BC76">
         <v>0</v>
       </c>
       <c r="BD76">
-        <v>1.1499999999999999</v>
+        <v>0</v>
       </c>
       <c r="BE76">
         <v>0</v>
       </c>
       <c r="BF76">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="BG76">
         <v>0</v>
       </c>
       <c r="BH76">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="BI76">
         <v>0</v>
       </c>
       <c r="BJ76">
-        <v>0</v>
+        <v>6.37</v>
       </c>
       <c r="BK76">
         <v>0</v>
       </c>
       <c r="BL76">
-        <v>0.62</v>
+        <v>0</v>
       </c>
       <c r="BM76">
         <v>0</v>
       </c>
       <c r="BN76">
-        <v>0</v>
+        <v>12.81</v>
       </c>
       <c r="BO76">
         <v>0</v>
       </c>
       <c r="BP76">
-        <v>15.06</v>
+        <v>0</v>
       </c>
       <c r="BQ76">
         <v>0</v>
       </c>
       <c r="BR76">
-        <v>0</v>
+        <v>10.43</v>
       </c>
       <c r="BS76">
         <v>0</v>
       </c>
       <c r="BT76">
-        <v>10.41</v>
+        <v>0</v>
       </c>
       <c r="BU76">
         <v>0</v>
@@ -17438,217 +17441,217 @@
         <v>93</v>
       </c>
       <c r="B77">
-        <v>14.49</v>
+        <v>0</v>
       </c>
       <c r="C77">
         <v>0</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>7.45</v>
       </c>
       <c r="E77">
         <v>0</v>
       </c>
       <c r="F77">
-        <v>2.44</v>
+        <v>0</v>
       </c>
       <c r="G77">
         <v>0</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>0.77</v>
       </c>
       <c r="I77">
         <v>0</v>
       </c>
       <c r="J77">
-        <v>11.2</v>
+        <v>0</v>
       </c>
       <c r="K77">
         <v>0</v>
       </c>
       <c r="L77">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="M77">
         <v>0</v>
       </c>
       <c r="N77">
-        <v>9.64</v>
+        <v>0</v>
       </c>
       <c r="O77">
         <v>0</v>
       </c>
       <c r="P77">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="Q77">
         <v>0</v>
       </c>
       <c r="R77">
-        <v>11.9</v>
+        <v>0</v>
       </c>
       <c r="S77">
         <v>0</v>
       </c>
       <c r="T77">
-        <v>0</v>
+        <v>7.76</v>
       </c>
       <c r="U77">
         <v>0</v>
       </c>
       <c r="V77">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="W77">
         <v>0</v>
       </c>
       <c r="X77">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Y77">
         <v>0</v>
       </c>
       <c r="Z77">
-        <v>2.59</v>
+        <v>0</v>
       </c>
       <c r="AA77">
         <v>0</v>
       </c>
       <c r="AB77">
-        <v>0</v>
+        <v>7.06</v>
       </c>
       <c r="AC77">
         <v>0</v>
       </c>
       <c r="AD77">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="AE77">
         <v>0</v>
       </c>
       <c r="AF77">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AG77">
         <v>0</v>
       </c>
       <c r="AH77">
-        <v>15.32</v>
+        <v>0</v>
       </c>
       <c r="AI77">
         <v>0</v>
       </c>
       <c r="AJ77">
-        <v>0</v>
+        <v>4.66</v>
       </c>
       <c r="AK77">
         <v>0</v>
       </c>
       <c r="AL77">
-        <v>12.93</v>
+        <v>0</v>
       </c>
       <c r="AM77">
         <v>0</v>
       </c>
       <c r="AN77">
-        <v>0</v>
+        <v>12.34</v>
       </c>
       <c r="AO77">
         <v>0</v>
       </c>
       <c r="AP77">
-        <v>13.75</v>
+        <v>0</v>
       </c>
       <c r="AQ77">
         <v>0</v>
       </c>
       <c r="AR77">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AS77">
         <v>0</v>
       </c>
       <c r="AT77">
-        <v>6.57</v>
+        <v>0</v>
       </c>
       <c r="AU77">
         <v>0</v>
       </c>
       <c r="AV77">
-        <v>0</v>
+        <v>2.87</v>
       </c>
       <c r="AW77">
         <v>0</v>
       </c>
       <c r="AX77">
-        <v>12.48</v>
+        <v>0</v>
       </c>
       <c r="AY77">
         <v>0</v>
       </c>
       <c r="AZ77">
-        <v>0</v>
+        <v>13.54</v>
       </c>
       <c r="BA77">
         <v>0</v>
       </c>
       <c r="BB77">
-        <v>2.0499999999999998</v>
+        <v>0</v>
       </c>
       <c r="BC77">
         <v>0</v>
       </c>
       <c r="BD77">
-        <v>0</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="BE77">
         <v>0</v>
       </c>
       <c r="BF77">
-        <v>2.5499999999999998</v>
+        <v>0</v>
       </c>
       <c r="BG77">
         <v>0</v>
       </c>
       <c r="BH77">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="BI77">
         <v>0</v>
       </c>
       <c r="BJ77">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="BK77">
         <v>0</v>
       </c>
       <c r="BL77">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="BM77">
         <v>0</v>
       </c>
       <c r="BN77">
-        <v>13.24</v>
+        <v>0</v>
       </c>
       <c r="BO77">
         <v>0</v>
       </c>
       <c r="BP77">
-        <v>0</v>
+        <v>15.06</v>
       </c>
       <c r="BQ77">
         <v>0</v>
       </c>
       <c r="BR77">
-        <v>8.58</v>
+        <v>0</v>
       </c>
       <c r="BS77">
         <v>0</v>
       </c>
       <c r="BT77">
-        <v>0</v>
+        <v>10.41</v>
       </c>
       <c r="BU77">
         <v>0</v>
@@ -17659,219 +17662,440 @@
         <v>94</v>
       </c>
       <c r="B78">
-        <v>114.44</v>
+        <v>14.49</v>
       </c>
       <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>2.44</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>11.2</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>9.64</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+      <c r="R78">
+        <v>11.9</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>0</v>
+      </c>
+      <c r="U78">
+        <v>0</v>
+      </c>
+      <c r="V78">
+        <v>0.1</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>0</v>
+      </c>
+      <c r="Y78">
+        <v>0</v>
+      </c>
+      <c r="Z78">
+        <v>2.59</v>
+      </c>
+      <c r="AA78">
+        <v>0</v>
+      </c>
+      <c r="AB78">
+        <v>0</v>
+      </c>
+      <c r="AC78">
+        <v>0</v>
+      </c>
+      <c r="AD78">
+        <v>1.37</v>
+      </c>
+      <c r="AE78">
+        <v>0</v>
+      </c>
+      <c r="AF78">
+        <v>0</v>
+      </c>
+      <c r="AG78">
+        <v>0</v>
+      </c>
+      <c r="AH78">
+        <v>15.32</v>
+      </c>
+      <c r="AI78">
+        <v>0</v>
+      </c>
+      <c r="AJ78">
+        <v>0</v>
+      </c>
+      <c r="AK78">
+        <v>0</v>
+      </c>
+      <c r="AL78">
+        <v>12.93</v>
+      </c>
+      <c r="AM78">
+        <v>0</v>
+      </c>
+      <c r="AN78">
+        <v>0</v>
+      </c>
+      <c r="AO78">
+        <v>0</v>
+      </c>
+      <c r="AP78">
+        <v>13.75</v>
+      </c>
+      <c r="AQ78">
+        <v>0</v>
+      </c>
+      <c r="AR78">
+        <v>0</v>
+      </c>
+      <c r="AS78">
+        <v>0</v>
+      </c>
+      <c r="AT78">
+        <v>6.57</v>
+      </c>
+      <c r="AU78">
+        <v>0</v>
+      </c>
+      <c r="AV78">
+        <v>0</v>
+      </c>
+      <c r="AW78">
+        <v>0</v>
+      </c>
+      <c r="AX78">
+        <v>12.48</v>
+      </c>
+      <c r="AY78">
+        <v>0</v>
+      </c>
+      <c r="AZ78">
+        <v>0</v>
+      </c>
+      <c r="BA78">
+        <v>0</v>
+      </c>
+      <c r="BB78">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="BC78">
+        <v>0</v>
+      </c>
+      <c r="BD78">
+        <v>0</v>
+      </c>
+      <c r="BE78">
+        <v>0</v>
+      </c>
+      <c r="BF78">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="BG78">
+        <v>0</v>
+      </c>
+      <c r="BH78">
+        <v>0</v>
+      </c>
+      <c r="BI78">
+        <v>0</v>
+      </c>
+      <c r="BJ78">
+        <v>1.45</v>
+      </c>
+      <c r="BK78">
+        <v>0</v>
+      </c>
+      <c r="BL78">
+        <v>0</v>
+      </c>
+      <c r="BM78">
+        <v>0</v>
+      </c>
+      <c r="BN78">
+        <v>13.24</v>
+      </c>
+      <c r="BO78">
+        <v>0</v>
+      </c>
+      <c r="BP78">
+        <v>0</v>
+      </c>
+      <c r="BQ78">
+        <v>0</v>
+      </c>
+      <c r="BR78">
+        <v>8.58</v>
+      </c>
+      <c r="BS78">
+        <v>0</v>
+      </c>
+      <c r="BT78">
+        <v>0</v>
+      </c>
+      <c r="BU78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:73" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>95</v>
+      </c>
+      <c r="B79">
+        <v>118.17</v>
+      </c>
+      <c r="C79">
         <v>186.46</v>
       </c>
-      <c r="D78">
+      <c r="D79">
         <v>68.349999999999994</v>
       </c>
-      <c r="E78">
+      <c r="E79">
         <v>107.07</v>
       </c>
-      <c r="F78">
-        <v>74.900000000000006</v>
-      </c>
-      <c r="G78">
+      <c r="F79">
+        <v>79.8</v>
+      </c>
+      <c r="G79">
         <v>107.83</v>
       </c>
-      <c r="H78">
+      <c r="H79">
         <v>55.7</v>
       </c>
-      <c r="I78">
+      <c r="I79">
         <v>67.84</v>
       </c>
-      <c r="J78">
-        <v>99.32</v>
-      </c>
-      <c r="K78">
+      <c r="J79">
+        <v>110.29</v>
+      </c>
+      <c r="K79">
         <v>74.989999999999995</v>
       </c>
-      <c r="L78">
+      <c r="L79">
         <v>79.56</v>
       </c>
-      <c r="M78">
+      <c r="M79">
         <v>79.989999999999995</v>
       </c>
-      <c r="N78">
-        <v>53.21</v>
-      </c>
-      <c r="O78">
+      <c r="N79">
+        <v>61.12</v>
+      </c>
+      <c r="O79">
         <v>100.03</v>
       </c>
-      <c r="P78">
+      <c r="P79">
         <v>74.31</v>
       </c>
-      <c r="Q78">
+      <c r="Q79">
         <v>53.32</v>
       </c>
-      <c r="R78">
-        <v>79.59</v>
-      </c>
-      <c r="S78">
+      <c r="R79">
+        <v>83.35</v>
+      </c>
+      <c r="S79">
         <v>73.48</v>
       </c>
-      <c r="T78">
+      <c r="T79">
         <v>93.87</v>
       </c>
-      <c r="U78">
+      <c r="U79">
         <v>230.16</v>
       </c>
-      <c r="V78">
-        <v>45.49</v>
-      </c>
-      <c r="W78">
+      <c r="V79">
+        <v>46.62</v>
+      </c>
+      <c r="W79">
         <v>52.06</v>
       </c>
-      <c r="X78">
+      <c r="X79">
         <v>55.86</v>
       </c>
-      <c r="Y78">
+      <c r="Y79">
         <v>57.09</v>
       </c>
-      <c r="Z78">
-        <v>74.099999999999994</v>
-      </c>
-      <c r="AA78">
+      <c r="Z79">
+        <v>76.78</v>
+      </c>
+      <c r="AA79">
         <v>45.71</v>
       </c>
-      <c r="AB78">
+      <c r="AB79">
         <v>103.08</v>
       </c>
-      <c r="AC78">
+      <c r="AC79">
         <v>131.87</v>
       </c>
-      <c r="AD78">
-        <v>69.41</v>
-      </c>
-      <c r="AE78">
+      <c r="AD79">
+        <v>73.64</v>
+      </c>
+      <c r="AE79">
         <v>38.64</v>
       </c>
-      <c r="AF78">
+      <c r="AF79">
         <v>39.64</v>
       </c>
-      <c r="AG78">
+      <c r="AG79">
         <v>58.02</v>
       </c>
-      <c r="AH78">
-        <v>178.11</v>
-      </c>
-      <c r="AI78">
+      <c r="AH79">
+        <v>194.22</v>
+      </c>
+      <c r="AI79">
         <v>203.39</v>
       </c>
-      <c r="AJ78">
+      <c r="AJ79">
         <v>79.069999999999993</v>
       </c>
-      <c r="AK78">
+      <c r="AK79">
         <v>157.16999999999999</v>
       </c>
-      <c r="AL78">
-        <v>121.52</v>
-      </c>
-      <c r="AM78">
+      <c r="AL79">
+        <v>135.13</v>
+      </c>
+      <c r="AM79">
         <v>146.34</v>
       </c>
-      <c r="AN78">
+      <c r="AN79">
         <v>82.39</v>
       </c>
-      <c r="AO78">
+      <c r="AO79">
         <v>85.5</v>
       </c>
-      <c r="AP78">
-        <v>100.01</v>
-      </c>
-      <c r="AQ78">
+      <c r="AP79">
+        <v>108.02</v>
+      </c>
+      <c r="AQ79">
         <v>132.11000000000001</v>
       </c>
-      <c r="AR78">
+      <c r="AR79">
         <v>143.63999999999999</v>
       </c>
-      <c r="AS78">
+      <c r="AS79">
         <v>107.47</v>
       </c>
-      <c r="AT78">
-        <v>79.510000000000005</v>
-      </c>
-      <c r="AU78">
+      <c r="AT79">
+        <v>79.73</v>
+      </c>
+      <c r="AU79">
         <v>69.56</v>
       </c>
-      <c r="AV78">
+      <c r="AV79">
         <v>59.78</v>
       </c>
-      <c r="AW78">
+      <c r="AW79">
         <v>93.53</v>
       </c>
-      <c r="AX78">
-        <v>93.98</v>
-      </c>
-      <c r="AY78">
+      <c r="AX79">
+        <v>97.87</v>
+      </c>
+      <c r="AY79">
         <v>82.7</v>
       </c>
-      <c r="AZ78">
+      <c r="AZ79">
         <v>205.41</v>
       </c>
-      <c r="BA78">
+      <c r="BA79">
         <v>156.41999999999999</v>
       </c>
-      <c r="BB78">
-        <v>65.209999999999994</v>
-      </c>
-      <c r="BC78">
+      <c r="BB79">
+        <v>67.84</v>
+      </c>
+      <c r="BC79">
         <v>58.77</v>
       </c>
-      <c r="BD78">
+      <c r="BD79">
         <v>54.36</v>
       </c>
-      <c r="BE78">
+      <c r="BE79">
         <v>73.23</v>
       </c>
-      <c r="BF78">
-        <v>71.900000000000006</v>
-      </c>
-      <c r="BG78">
+      <c r="BF79">
+        <v>76.849999999999994</v>
+      </c>
+      <c r="BG79">
         <v>56.67</v>
       </c>
-      <c r="BH78">
+      <c r="BH79">
         <v>96.35</v>
       </c>
-      <c r="BI78">
+      <c r="BI79">
         <v>162.76</v>
       </c>
-      <c r="BJ78">
-        <v>71.42</v>
-      </c>
-      <c r="BK78">
+      <c r="BJ79">
+        <v>71.44</v>
+      </c>
+      <c r="BK79">
         <v>65.16</v>
       </c>
-      <c r="BL78">
+      <c r="BL79">
         <v>54.31</v>
       </c>
-      <c r="BM78">
+      <c r="BM79">
         <v>57.98</v>
       </c>
-      <c r="BN78">
-        <v>181.99</v>
-      </c>
-      <c r="BO78">
+      <c r="BN79">
+        <v>193.4</v>
+      </c>
+      <c r="BO79">
         <v>166.49</v>
       </c>
-      <c r="BP78">
+      <c r="BP79">
         <v>188.47</v>
       </c>
-      <c r="BQ78">
+      <c r="BQ79">
         <v>211.47</v>
       </c>
-      <c r="BR78">
-        <v>110.81</v>
-      </c>
-      <c r="BS78">
+      <c r="BR79">
+        <v>114.65</v>
+      </c>
+      <c r="BS79">
         <v>222.29</v>
       </c>
-      <c r="BT78">
+      <c r="BT79">
         <v>146.69999999999999</v>
       </c>
-      <c r="BU78">
+      <c r="BU79">
         <v>236.58</v>
       </c>
     </row>

--- a/data/ManyBabiesDataExport.xlsx
+++ b/data/ManyBabiesDataExport.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="100">
   <si>
     <t>Total Fixation Duration (Include Zeros)_ADS1_ADS1_Sum</t>
   </si>
@@ -210,6 +210,9 @@
   </si>
   <si>
     <t>MB12_S42_48360</t>
+  </si>
+  <si>
+    <t>MB12_S43_48973</t>
   </si>
   <si>
     <t>MB6_S01_46278</t>
@@ -644,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BU82"/>
+  <dimension ref="A1:BU83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82:XFD82"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:BU83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10157,7 +10160,7 @@
         <v>60</v>
       </c>
       <c r="B44">
-        <v>14.91</v>
+        <v>0</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -10166,10 +10169,10 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F44">
-        <v>6.23</v>
+        <v>0</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -10178,10 +10181,10 @@
         <v>0</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="J44">
-        <v>5.01</v>
+        <v>0</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -10190,22 +10193,22 @@
         <v>0</v>
       </c>
       <c r="M44">
-        <v>0</v>
+        <v>6.96</v>
       </c>
       <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
         <v>4.21</v>
       </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>0</v>
-      </c>
       <c r="R44">
-        <v>5.61</v>
+        <v>0</v>
       </c>
       <c r="S44">
         <v>0</v>
@@ -10214,10 +10217,10 @@
         <v>0</v>
       </c>
       <c r="U44">
-        <v>0</v>
+        <v>11.74</v>
       </c>
       <c r="V44">
-        <v>2.83</v>
+        <v>0</v>
       </c>
       <c r="W44">
         <v>0</v>
@@ -10226,10 +10229,10 @@
         <v>0</v>
       </c>
       <c r="Y44">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="Z44">
-        <v>3.01</v>
+        <v>0</v>
       </c>
       <c r="AA44">
         <v>0</v>
@@ -10238,10 +10241,10 @@
         <v>0</v>
       </c>
       <c r="AC44">
-        <v>0</v>
+        <v>4.03</v>
       </c>
       <c r="AD44">
-        <v>6.97</v>
+        <v>0</v>
       </c>
       <c r="AE44">
         <v>0</v>
@@ -10250,10 +10253,10 @@
         <v>0</v>
       </c>
       <c r="AG44">
-        <v>0</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="AH44">
-        <v>13.84</v>
+        <v>0</v>
       </c>
       <c r="AI44">
         <v>0</v>
@@ -10262,10 +10265,10 @@
         <v>0</v>
       </c>
       <c r="AK44">
-        <v>0</v>
+        <v>11.66</v>
       </c>
       <c r="AL44">
-        <v>8.0299999999999994</v>
+        <v>0</v>
       </c>
       <c r="AM44">
         <v>0</v>
@@ -10274,10 +10277,10 @@
         <v>0</v>
       </c>
       <c r="AO44">
-        <v>0</v>
+        <v>7.39</v>
       </c>
       <c r="AP44">
-        <v>6.05</v>
+        <v>0</v>
       </c>
       <c r="AQ44">
         <v>0</v>
@@ -10286,10 +10289,10 @@
         <v>0</v>
       </c>
       <c r="AS44">
-        <v>0</v>
+        <v>14.58</v>
       </c>
       <c r="AT44">
-        <v>3.38</v>
+        <v>0</v>
       </c>
       <c r="AU44">
         <v>0</v>
@@ -10301,7 +10304,7 @@
         <v>0</v>
       </c>
       <c r="AX44">
-        <v>13.92</v>
+        <v>0</v>
       </c>
       <c r="AY44">
         <v>0</v>
@@ -10310,10 +10313,10 @@
         <v>0</v>
       </c>
       <c r="BA44">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="BB44">
-        <v>8.39</v>
+        <v>0</v>
       </c>
       <c r="BC44">
         <v>0</v>
@@ -10322,10 +10325,10 @@
         <v>0</v>
       </c>
       <c r="BE44">
-        <v>0</v>
+        <v>3.61</v>
       </c>
       <c r="BF44">
-        <v>10.68</v>
+        <v>0</v>
       </c>
       <c r="BG44">
         <v>0</v>
@@ -10334,10 +10337,10 @@
         <v>0</v>
       </c>
       <c r="BI44">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="BJ44">
-        <v>6.69</v>
+        <v>0</v>
       </c>
       <c r="BK44">
         <v>0</v>
@@ -10346,10 +10349,10 @@
         <v>0</v>
       </c>
       <c r="BM44">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="BN44">
-        <v>16.66</v>
+        <v>0</v>
       </c>
       <c r="BO44">
         <v>0</v>
@@ -10358,10 +10361,10 @@
         <v>0</v>
       </c>
       <c r="BQ44">
-        <v>0</v>
+        <v>11.79</v>
       </c>
       <c r="BR44">
-        <v>9.01</v>
+        <v>0</v>
       </c>
       <c r="BS44">
         <v>0</v>
@@ -10370,7 +10373,7 @@
         <v>0</v>
       </c>
       <c r="BU44">
-        <v>0</v>
+        <v>4.93</v>
       </c>
     </row>
     <row r="45" spans="1:73" x14ac:dyDescent="0.2">
@@ -10378,7 +10381,7 @@
         <v>61</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>14.91</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -10390,7 +10393,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>6.23</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -10402,7 +10405,7 @@
         <v>0</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>5.01</v>
       </c>
       <c r="K45">
         <v>0</v>
@@ -10414,7 +10417,7 @@
         <v>0</v>
       </c>
       <c r="N45">
-        <v>0</v>
+        <v>4.21</v>
       </c>
       <c r="O45">
         <v>0</v>
@@ -10426,7 +10429,7 @@
         <v>0</v>
       </c>
       <c r="R45">
-        <v>0</v>
+        <v>5.61</v>
       </c>
       <c r="S45">
         <v>0</v>
@@ -10438,7 +10441,7 @@
         <v>0</v>
       </c>
       <c r="V45">
-        <v>0</v>
+        <v>2.83</v>
       </c>
       <c r="W45">
         <v>0</v>
@@ -10450,7 +10453,7 @@
         <v>0</v>
       </c>
       <c r="Z45">
-        <v>0</v>
+        <v>3.01</v>
       </c>
       <c r="AA45">
         <v>0</v>
@@ -10462,7 +10465,7 @@
         <v>0</v>
       </c>
       <c r="AD45">
-        <v>0</v>
+        <v>6.97</v>
       </c>
       <c r="AE45">
         <v>0</v>
@@ -10474,7 +10477,7 @@
         <v>0</v>
       </c>
       <c r="AH45">
-        <v>0</v>
+        <v>13.84</v>
       </c>
       <c r="AI45">
         <v>0</v>
@@ -10486,7 +10489,7 @@
         <v>0</v>
       </c>
       <c r="AL45">
-        <v>0</v>
+        <v>8.0299999999999994</v>
       </c>
       <c r="AM45">
         <v>0</v>
@@ -10498,7 +10501,7 @@
         <v>0</v>
       </c>
       <c r="AP45">
-        <v>0</v>
+        <v>6.05</v>
       </c>
       <c r="AQ45">
         <v>0</v>
@@ -10510,7 +10513,7 @@
         <v>0</v>
       </c>
       <c r="AT45">
-        <v>0</v>
+        <v>3.38</v>
       </c>
       <c r="AU45">
         <v>0</v>
@@ -10522,7 +10525,7 @@
         <v>0</v>
       </c>
       <c r="AX45">
-        <v>0</v>
+        <v>13.92</v>
       </c>
       <c r="AY45">
         <v>0</v>
@@ -10534,7 +10537,7 @@
         <v>0</v>
       </c>
       <c r="BB45">
-        <v>0</v>
+        <v>8.39</v>
       </c>
       <c r="BC45">
         <v>0</v>
@@ -10546,7 +10549,7 @@
         <v>0</v>
       </c>
       <c r="BF45">
-        <v>0</v>
+        <v>10.68</v>
       </c>
       <c r="BG45">
         <v>0</v>
@@ -10558,7 +10561,7 @@
         <v>0</v>
       </c>
       <c r="BJ45">
-        <v>0</v>
+        <v>6.69</v>
       </c>
       <c r="BK45">
         <v>0</v>
@@ -10570,7 +10573,7 @@
         <v>0</v>
       </c>
       <c r="BN45">
-        <v>0</v>
+        <v>16.66</v>
       </c>
       <c r="BO45">
         <v>0</v>
@@ -10582,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="BR45">
-        <v>0</v>
+        <v>9.01</v>
       </c>
       <c r="BS45">
         <v>0</v>
@@ -10608,7 +10611,7 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>2.2599999999999998</v>
+        <v>0</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -10620,7 +10623,7 @@
         <v>0</v>
       </c>
       <c r="I46">
-        <v>12.24</v>
+        <v>0</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -10632,7 +10635,7 @@
         <v>0</v>
       </c>
       <c r="M46">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -10644,7 +10647,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>2.0299999999999998</v>
+        <v>0</v>
       </c>
       <c r="R46">
         <v>0</v>
@@ -10656,7 +10659,7 @@
         <v>0</v>
       </c>
       <c r="U46">
-        <v>2.93</v>
+        <v>0</v>
       </c>
       <c r="V46">
         <v>0</v>
@@ -10668,7 +10671,7 @@
         <v>0</v>
       </c>
       <c r="Y46">
-        <v>3.05</v>
+        <v>0</v>
       </c>
       <c r="Z46">
         <v>0</v>
@@ -10680,7 +10683,7 @@
         <v>0</v>
       </c>
       <c r="AC46">
-        <v>5.19</v>
+        <v>0</v>
       </c>
       <c r="AD46">
         <v>0</v>
@@ -10692,7 +10695,7 @@
         <v>0</v>
       </c>
       <c r="AG46">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AH46">
         <v>0</v>
@@ -10704,7 +10707,7 @@
         <v>0</v>
       </c>
       <c r="AK46">
-        <v>4.82</v>
+        <v>0</v>
       </c>
       <c r="AL46">
         <v>0</v>
@@ -10716,7 +10719,7 @@
         <v>0</v>
       </c>
       <c r="AO46">
-        <v>9.9</v>
+        <v>0</v>
       </c>
       <c r="AP46">
         <v>0</v>
@@ -10728,7 +10731,7 @@
         <v>0</v>
       </c>
       <c r="AS46">
-        <v>2.86</v>
+        <v>0</v>
       </c>
       <c r="AT46">
         <v>0</v>
@@ -10740,7 +10743,7 @@
         <v>0</v>
       </c>
       <c r="AW46">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="AX46">
         <v>0</v>
@@ -10752,7 +10755,7 @@
         <v>0</v>
       </c>
       <c r="BA46">
-        <v>4.8600000000000003</v>
+        <v>0</v>
       </c>
       <c r="BB46">
         <v>0</v>
@@ -10764,7 +10767,7 @@
         <v>0</v>
       </c>
       <c r="BE46">
-        <v>2.64</v>
+        <v>0</v>
       </c>
       <c r="BF46">
         <v>0</v>
@@ -10776,7 +10779,7 @@
         <v>0</v>
       </c>
       <c r="BI46">
-        <v>1.1299999999999999</v>
+        <v>0</v>
       </c>
       <c r="BJ46">
         <v>0</v>
@@ -10788,7 +10791,7 @@
         <v>0</v>
       </c>
       <c r="BM46">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="BN46">
         <v>0</v>
@@ -10800,7 +10803,7 @@
         <v>0</v>
       </c>
       <c r="BQ46">
-        <v>11.04</v>
+        <v>0</v>
       </c>
       <c r="BR46">
         <v>0</v>
@@ -10812,7 +10815,7 @@
         <v>0</v>
       </c>
       <c r="BU46">
-        <v>17.29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:73" x14ac:dyDescent="0.2">
@@ -10823,217 +10826,217 @@
         <v>0</v>
       </c>
       <c r="C47">
-        <v>9.31</v>
+        <v>0</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
       <c r="G47">
-        <v>14.57</v>
+        <v>0</v>
       </c>
       <c r="H47">
         <v>0</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>12.24</v>
       </c>
       <c r="J47">
         <v>0</v>
       </c>
       <c r="K47">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="L47">
         <v>0</v>
       </c>
       <c r="M47">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="N47">
         <v>0</v>
       </c>
       <c r="O47">
-        <v>8.76</v>
+        <v>0</v>
       </c>
       <c r="P47">
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>0</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="R47">
         <v>0</v>
       </c>
       <c r="S47">
-        <v>2.62</v>
+        <v>0</v>
       </c>
       <c r="T47">
         <v>0</v>
       </c>
       <c r="U47">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="V47">
         <v>0</v>
       </c>
       <c r="W47">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="X47">
         <v>0</v>
       </c>
       <c r="Y47">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="Z47">
         <v>0</v>
       </c>
       <c r="AA47">
-        <v>5.78</v>
+        <v>0</v>
       </c>
       <c r="AB47">
         <v>0</v>
       </c>
       <c r="AC47">
-        <v>0</v>
+        <v>5.19</v>
       </c>
       <c r="AD47">
         <v>0</v>
       </c>
       <c r="AE47">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="AF47">
         <v>0</v>
       </c>
       <c r="AG47">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AH47">
         <v>0</v>
       </c>
       <c r="AI47">
-        <v>11.57</v>
+        <v>0</v>
       </c>
       <c r="AJ47">
         <v>0</v>
       </c>
       <c r="AK47">
-        <v>0</v>
+        <v>4.82</v>
       </c>
       <c r="AL47">
         <v>0</v>
       </c>
       <c r="AM47">
-        <v>9.08</v>
+        <v>0</v>
       </c>
       <c r="AN47">
         <v>0</v>
       </c>
       <c r="AO47">
-        <v>0</v>
+        <v>9.9</v>
       </c>
       <c r="AP47">
         <v>0</v>
       </c>
       <c r="AQ47">
-        <v>11.21</v>
+        <v>0</v>
       </c>
       <c r="AR47">
         <v>0</v>
       </c>
       <c r="AS47">
-        <v>0</v>
+        <v>2.86</v>
       </c>
       <c r="AT47">
         <v>0</v>
       </c>
       <c r="AU47">
-        <v>3.28</v>
+        <v>0</v>
       </c>
       <c r="AV47">
         <v>0</v>
       </c>
       <c r="AW47">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="AX47">
         <v>0</v>
       </c>
       <c r="AY47">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="AZ47">
         <v>0</v>
       </c>
       <c r="BA47">
-        <v>0</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="BB47">
         <v>0</v>
       </c>
       <c r="BC47">
-        <v>2.78</v>
+        <v>0</v>
       </c>
       <c r="BD47">
         <v>0</v>
       </c>
       <c r="BE47">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="BF47">
         <v>0</v>
       </c>
       <c r="BG47">
-        <v>7.42</v>
+        <v>0</v>
       </c>
       <c r="BH47">
         <v>0</v>
       </c>
       <c r="BI47">
-        <v>0</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="BJ47">
         <v>0</v>
       </c>
       <c r="BK47">
-        <v>10.38</v>
+        <v>0</v>
       </c>
       <c r="BL47">
         <v>0</v>
       </c>
       <c r="BM47">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="BN47">
         <v>0</v>
       </c>
       <c r="BO47">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="BP47">
         <v>0</v>
       </c>
       <c r="BQ47">
-        <v>0</v>
+        <v>11.04</v>
       </c>
       <c r="BR47">
         <v>0</v>
       </c>
       <c r="BS47">
-        <v>15.35</v>
+        <v>0</v>
       </c>
       <c r="BT47">
         <v>0</v>
       </c>
       <c r="BU47">
-        <v>0</v>
+        <v>17.29</v>
       </c>
     </row>
     <row r="48" spans="1:73" x14ac:dyDescent="0.2">
@@ -11044,10 +11047,10 @@
         <v>0</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>9.31</v>
       </c>
       <c r="D48">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -11056,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>14.57</v>
       </c>
       <c r="H48">
-        <v>0.59</v>
+        <v>0</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -11068,10 +11071,10 @@
         <v>0</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="L48">
-        <v>2.48</v>
+        <v>0</v>
       </c>
       <c r="M48">
         <v>0</v>
@@ -11080,10 +11083,10 @@
         <v>0</v>
       </c>
       <c r="O48">
-        <v>0</v>
+        <v>8.76</v>
       </c>
       <c r="P48">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q48">
         <v>0</v>
@@ -11092,10 +11095,10 @@
         <v>0</v>
       </c>
       <c r="S48">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="T48">
-        <v>10.119999999999999</v>
+        <v>0</v>
       </c>
       <c r="U48">
         <v>0</v>
@@ -11104,10 +11107,10 @@
         <v>0</v>
       </c>
       <c r="W48">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="X48">
-        <v>3.63</v>
+        <v>0</v>
       </c>
       <c r="Y48">
         <v>0</v>
@@ -11116,10 +11119,10 @@
         <v>0</v>
       </c>
       <c r="AA48">
-        <v>0</v>
+        <v>5.78</v>
       </c>
       <c r="AB48">
-        <v>2.36</v>
+        <v>0</v>
       </c>
       <c r="AC48">
         <v>0</v>
@@ -11128,118 +11131,118 @@
         <v>0</v>
       </c>
       <c r="AE48">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AF48">
+        <v>0</v>
+      </c>
+      <c r="AG48">
+        <v>0</v>
+      </c>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>11.57</v>
+      </c>
+      <c r="AJ48">
+        <v>0</v>
+      </c>
+      <c r="AK48">
+        <v>0</v>
+      </c>
+      <c r="AL48">
+        <v>0</v>
+      </c>
+      <c r="AM48">
+        <v>9.08</v>
+      </c>
+      <c r="AN48">
+        <v>0</v>
+      </c>
+      <c r="AO48">
+        <v>0</v>
+      </c>
+      <c r="AP48">
+        <v>0</v>
+      </c>
+      <c r="AQ48">
+        <v>11.21</v>
+      </c>
+      <c r="AR48">
+        <v>0</v>
+      </c>
+      <c r="AS48">
+        <v>0</v>
+      </c>
+      <c r="AT48">
+        <v>0</v>
+      </c>
+      <c r="AU48">
+        <v>3.28</v>
+      </c>
+      <c r="AV48">
+        <v>0</v>
+      </c>
+      <c r="AW48">
+        <v>0</v>
+      </c>
+      <c r="AX48">
+        <v>0</v>
+      </c>
+      <c r="AY48">
+        <v>2.65</v>
+      </c>
+      <c r="AZ48">
+        <v>0</v>
+      </c>
+      <c r="BA48">
+        <v>0</v>
+      </c>
+      <c r="BB48">
+        <v>0</v>
+      </c>
+      <c r="BC48">
+        <v>2.78</v>
+      </c>
+      <c r="BD48">
+        <v>0</v>
+      </c>
+      <c r="BE48">
+        <v>0</v>
+      </c>
+      <c r="BF48">
+        <v>0</v>
+      </c>
+      <c r="BG48">
+        <v>7.42</v>
+      </c>
+      <c r="BH48">
+        <v>0</v>
+      </c>
+      <c r="BI48">
+        <v>0</v>
+      </c>
+      <c r="BJ48">
+        <v>0</v>
+      </c>
+      <c r="BK48">
+        <v>10.38</v>
+      </c>
+      <c r="BL48">
+        <v>0</v>
+      </c>
+      <c r="BM48">
+        <v>0</v>
+      </c>
+      <c r="BN48">
+        <v>0</v>
+      </c>
+      <c r="BO48">
         <v>1.37</v>
       </c>
-      <c r="AG48">
-        <v>0</v>
-      </c>
-      <c r="AH48">
-        <v>0</v>
-      </c>
-      <c r="AI48">
-        <v>0</v>
-      </c>
-      <c r="AJ48">
-        <v>3.65</v>
-      </c>
-      <c r="AK48">
-        <v>0</v>
-      </c>
-      <c r="AL48">
-        <v>0</v>
-      </c>
-      <c r="AM48">
-        <v>0</v>
-      </c>
-      <c r="AN48">
-        <v>5.61</v>
-      </c>
-      <c r="AO48">
-        <v>0</v>
-      </c>
-      <c r="AP48">
-        <v>0</v>
-      </c>
-      <c r="AQ48">
-        <v>0</v>
-      </c>
-      <c r="AR48">
-        <v>3.96</v>
-      </c>
-      <c r="AS48">
-        <v>0</v>
-      </c>
-      <c r="AT48">
-        <v>0</v>
-      </c>
-      <c r="AU48">
-        <v>0</v>
-      </c>
-      <c r="AV48">
-        <v>6.87</v>
-      </c>
-      <c r="AW48">
-        <v>0</v>
-      </c>
-      <c r="AX48">
-        <v>0</v>
-      </c>
-      <c r="AY48">
-        <v>0</v>
-      </c>
-      <c r="AZ48">
-        <v>15.13</v>
-      </c>
-      <c r="BA48">
-        <v>0</v>
-      </c>
-      <c r="BB48">
-        <v>0</v>
-      </c>
-      <c r="BC48">
-        <v>0</v>
-      </c>
-      <c r="BD48">
-        <v>7.03</v>
-      </c>
-      <c r="BE48">
-        <v>0</v>
-      </c>
-      <c r="BF48">
-        <v>0</v>
-      </c>
-      <c r="BG48">
-        <v>0</v>
-      </c>
-      <c r="BH48">
-        <v>0</v>
-      </c>
-      <c r="BI48">
-        <v>0</v>
-      </c>
-      <c r="BJ48">
-        <v>0</v>
-      </c>
-      <c r="BK48">
-        <v>0</v>
-      </c>
-      <c r="BL48">
-        <v>3.89</v>
-      </c>
-      <c r="BM48">
-        <v>0</v>
-      </c>
-      <c r="BN48">
-        <v>0</v>
-      </c>
-      <c r="BO48">
-        <v>0</v>
-      </c>
       <c r="BP48">
-        <v>4.38</v>
+        <v>0</v>
       </c>
       <c r="BQ48">
         <v>0</v>
@@ -11248,7 +11251,7 @@
         <v>0</v>
       </c>
       <c r="BS48">
-        <v>0</v>
+        <v>15.35</v>
       </c>
       <c r="BT48">
         <v>0</v>
@@ -11262,175 +11265,175 @@
         <v>65</v>
       </c>
       <c r="B49">
-        <v>7.13</v>
+        <v>0</v>
       </c>
       <c r="C49">
         <v>0</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="G49">
         <v>0</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>0.59</v>
       </c>
       <c r="I49">
         <v>0</v>
       </c>
       <c r="J49">
-        <v>3.01</v>
+        <v>0</v>
       </c>
       <c r="K49">
         <v>0</v>
       </c>
       <c r="L49">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="M49">
         <v>0</v>
       </c>
       <c r="N49">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="O49">
         <v>0</v>
       </c>
       <c r="P49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q49">
         <v>0</v>
       </c>
       <c r="R49">
-        <v>1.97</v>
+        <v>0</v>
       </c>
       <c r="S49">
         <v>0</v>
       </c>
       <c r="T49">
-        <v>0</v>
+        <v>10.119999999999999</v>
       </c>
       <c r="U49">
         <v>0</v>
       </c>
       <c r="V49">
-        <v>1.69</v>
+        <v>0</v>
       </c>
       <c r="W49">
         <v>0</v>
       </c>
       <c r="X49">
-        <v>0</v>
+        <v>3.63</v>
       </c>
       <c r="Y49">
         <v>0</v>
       </c>
       <c r="Z49">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="AA49">
         <v>0</v>
       </c>
       <c r="AB49">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="AC49">
         <v>0</v>
       </c>
       <c r="AD49">
-        <v>2.87</v>
+        <v>0</v>
       </c>
       <c r="AE49">
         <v>0</v>
       </c>
       <c r="AF49">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AG49">
         <v>0</v>
       </c>
       <c r="AH49">
-        <v>9.69</v>
+        <v>0</v>
       </c>
       <c r="AI49">
         <v>0</v>
       </c>
       <c r="AJ49">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="AK49">
         <v>0</v>
       </c>
       <c r="AL49">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AM49">
         <v>0</v>
       </c>
       <c r="AN49">
-        <v>0</v>
+        <v>5.61</v>
       </c>
       <c r="AO49">
         <v>0</v>
       </c>
       <c r="AP49">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="AQ49">
         <v>0</v>
       </c>
       <c r="AR49">
-        <v>0</v>
+        <v>3.96</v>
       </c>
       <c r="AS49">
         <v>0</v>
       </c>
       <c r="AT49">
-        <v>2.63</v>
+        <v>0</v>
       </c>
       <c r="AU49">
         <v>0</v>
       </c>
       <c r="AV49">
-        <v>0</v>
+        <v>6.87</v>
       </c>
       <c r="AW49">
         <v>0</v>
       </c>
       <c r="AX49">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="AY49">
         <v>0</v>
       </c>
       <c r="AZ49">
-        <v>0</v>
+        <v>15.13</v>
       </c>
       <c r="BA49">
         <v>0</v>
       </c>
       <c r="BB49">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="BC49">
         <v>0</v>
       </c>
       <c r="BD49">
-        <v>0</v>
+        <v>7.03</v>
       </c>
       <c r="BE49">
         <v>0</v>
       </c>
       <c r="BF49">
-        <v>2.5499999999999998</v>
+        <v>0</v>
       </c>
       <c r="BG49">
         <v>0</v>
@@ -11442,31 +11445,31 @@
         <v>0</v>
       </c>
       <c r="BJ49">
-        <v>1.1100000000000001</v>
+        <v>0</v>
       </c>
       <c r="BK49">
         <v>0</v>
       </c>
       <c r="BL49">
-        <v>0</v>
+        <v>3.89</v>
       </c>
       <c r="BM49">
         <v>0</v>
       </c>
       <c r="BN49">
-        <v>7.52</v>
+        <v>0</v>
       </c>
       <c r="BO49">
         <v>0</v>
       </c>
       <c r="BP49">
-        <v>0</v>
+        <v>4.38</v>
       </c>
       <c r="BQ49">
         <v>0</v>
       </c>
       <c r="BR49">
-        <v>3.67</v>
+        <v>0</v>
       </c>
       <c r="BS49">
         <v>0</v>
@@ -11483,10 +11486,10 @@
         <v>66</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>7.13</v>
       </c>
       <c r="C50">
-        <v>10.29</v>
+        <v>0</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -11495,10 +11498,10 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="G50">
-        <v>7.39</v>
+        <v>0</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -11507,10 +11510,10 @@
         <v>0</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>3.01</v>
       </c>
       <c r="K50">
-        <v>5.95</v>
+        <v>0</v>
       </c>
       <c r="L50">
         <v>0</v>
@@ -11519,10 +11522,10 @@
         <v>0</v>
       </c>
       <c r="N50">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="O50">
-        <v>4.1900000000000004</v>
+        <v>0</v>
       </c>
       <c r="P50">
         <v>0</v>
@@ -11531,10 +11534,10 @@
         <v>0</v>
       </c>
       <c r="R50">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="S50">
-        <v>4.4400000000000004</v>
+        <v>0</v>
       </c>
       <c r="T50">
         <v>0</v>
@@ -11543,10 +11546,10 @@
         <v>0</v>
       </c>
       <c r="V50">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="W50">
-        <v>2.4900000000000002</v>
+        <v>0</v>
       </c>
       <c r="X50">
         <v>0</v>
@@ -11555,10 +11558,10 @@
         <v>0</v>
       </c>
       <c r="Z50">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="AA50">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="AB50">
         <v>0</v>
@@ -11567,10 +11570,10 @@
         <v>0</v>
       </c>
       <c r="AD50">
-        <v>0</v>
+        <v>2.87</v>
       </c>
       <c r="AE50">
-        <v>5.88</v>
+        <v>0</v>
       </c>
       <c r="AF50">
         <v>0</v>
@@ -11579,10 +11582,10 @@
         <v>0</v>
       </c>
       <c r="AH50">
-        <v>0</v>
+        <v>9.69</v>
       </c>
       <c r="AI50">
-        <v>11.13</v>
+        <v>0</v>
       </c>
       <c r="AJ50">
         <v>0</v>
@@ -11591,10 +11594,10 @@
         <v>0</v>
       </c>
       <c r="AL50">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AM50">
-        <v>8.7899999999999991</v>
+        <v>0</v>
       </c>
       <c r="AN50">
         <v>0</v>
@@ -11603,10 +11606,10 @@
         <v>0</v>
       </c>
       <c r="AP50">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AQ50">
-        <v>9.9700000000000006</v>
+        <v>0</v>
       </c>
       <c r="AR50">
         <v>0</v>
@@ -11615,10 +11618,10 @@
         <v>0</v>
       </c>
       <c r="AT50">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="AU50">
-        <v>3.34</v>
+        <v>0</v>
       </c>
       <c r="AV50">
         <v>0</v>
@@ -11627,10 +11630,10 @@
         <v>0</v>
       </c>
       <c r="AX50">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="AY50">
-        <v>2.3199999999999998</v>
+        <v>0</v>
       </c>
       <c r="AZ50">
         <v>0</v>
@@ -11639,10 +11642,10 @@
         <v>0</v>
       </c>
       <c r="BB50">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="BC50">
-        <v>2.68</v>
+        <v>0</v>
       </c>
       <c r="BD50">
         <v>0</v>
@@ -11651,10 +11654,10 @@
         <v>0</v>
       </c>
       <c r="BF50">
-        <v>0</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="BG50">
-        <v>4.0999999999999996</v>
+        <v>0</v>
       </c>
       <c r="BH50">
         <v>0</v>
@@ -11663,10 +11666,10 @@
         <v>0</v>
       </c>
       <c r="BJ50">
-        <v>0</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="BK50">
-        <v>3.77</v>
+        <v>0</v>
       </c>
       <c r="BL50">
         <v>0</v>
@@ -11675,10 +11678,10 @@
         <v>0</v>
       </c>
       <c r="BN50">
-        <v>0</v>
+        <v>7.52</v>
       </c>
       <c r="BO50">
-        <v>12.44</v>
+        <v>0</v>
       </c>
       <c r="BP50">
         <v>0</v>
@@ -11687,10 +11690,10 @@
         <v>0</v>
       </c>
       <c r="BR50">
-        <v>0</v>
+        <v>3.67</v>
       </c>
       <c r="BS50">
-        <v>15.06</v>
+        <v>0</v>
       </c>
       <c r="BT50">
         <v>0</v>
@@ -11707,10 +11710,10 @@
         <v>0</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>10.29</v>
       </c>
       <c r="D51">
-        <v>4.7300000000000004</v>
+        <v>0</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -11719,82 +11722,82 @@
         <v>0</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>7.39</v>
       </c>
       <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>5.95</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="T51">
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <v>0</v>
+      </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="X51">
+        <v>0</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>1.22</v>
+      </c>
+      <c r="AB51">
+        <v>0</v>
+      </c>
+      <c r="AC51">
+        <v>0</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
         <v>5.88</v>
       </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-      <c r="L51">
-        <v>1.75</v>
-      </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-      <c r="N51">
-        <v>0</v>
-      </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
-      <c r="P51">
-        <v>1.24</v>
-      </c>
-      <c r="Q51">
-        <v>0</v>
-      </c>
-      <c r="R51">
-        <v>0</v>
-      </c>
-      <c r="S51">
-        <v>0</v>
-      </c>
-      <c r="T51">
-        <v>2.67</v>
-      </c>
-      <c r="U51">
-        <v>0</v>
-      </c>
-      <c r="V51">
-        <v>0</v>
-      </c>
-      <c r="W51">
-        <v>0</v>
-      </c>
-      <c r="X51">
-        <v>11.4</v>
-      </c>
-      <c r="Y51">
-        <v>0</v>
-      </c>
-      <c r="Z51">
-        <v>0</v>
-      </c>
-      <c r="AA51">
-        <v>0</v>
-      </c>
-      <c r="AB51">
-        <v>1.56</v>
-      </c>
-      <c r="AC51">
-        <v>0</v>
-      </c>
-      <c r="AD51">
-        <v>0</v>
-      </c>
-      <c r="AE51">
-        <v>0</v>
-      </c>
       <c r="AF51">
-        <v>6.49</v>
+        <v>0</v>
       </c>
       <c r="AG51">
         <v>0</v>
@@ -11803,10 +11806,10 @@
         <v>0</v>
       </c>
       <c r="AI51">
-        <v>0</v>
+        <v>11.13</v>
       </c>
       <c r="AJ51">
-        <v>2.5299999999999998</v>
+        <v>0</v>
       </c>
       <c r="AK51">
         <v>0</v>
@@ -11815,10 +11818,10 @@
         <v>0</v>
       </c>
       <c r="AM51">
-        <v>0</v>
+        <v>8.7899999999999991</v>
       </c>
       <c r="AN51">
-        <v>2.2000000000000002</v>
+        <v>0</v>
       </c>
       <c r="AO51">
         <v>0</v>
@@ -11827,10 +11830,10 @@
         <v>0</v>
       </c>
       <c r="AQ51">
-        <v>0</v>
+        <v>9.9700000000000006</v>
       </c>
       <c r="AR51">
-        <v>1.82</v>
+        <v>0</v>
       </c>
       <c r="AS51">
         <v>0</v>
@@ -11839,10 +11842,10 @@
         <v>0</v>
       </c>
       <c r="AU51">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="AV51">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="AW51">
         <v>0</v>
@@ -11851,10 +11854,10 @@
         <v>0</v>
       </c>
       <c r="AY51">
-        <v>0</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="AZ51">
-        <v>7.35</v>
+        <v>0</v>
       </c>
       <c r="BA51">
         <v>0</v>
@@ -11863,10 +11866,10 @@
         <v>0</v>
       </c>
       <c r="BC51">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="BD51">
-        <v>3.49</v>
+        <v>0</v>
       </c>
       <c r="BE51">
         <v>0</v>
@@ -11875,10 +11878,10 @@
         <v>0</v>
       </c>
       <c r="BG51">
-        <v>0</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="BH51">
-        <v>2.2000000000000002</v>
+        <v>0</v>
       </c>
       <c r="BI51">
         <v>0</v>
@@ -11887,10 +11890,10 @@
         <v>0</v>
       </c>
       <c r="BK51">
-        <v>0</v>
+        <v>3.77</v>
       </c>
       <c r="BL51">
-        <v>5.24</v>
+        <v>0</v>
       </c>
       <c r="BM51">
         <v>0</v>
@@ -11899,10 +11902,10 @@
         <v>0</v>
       </c>
       <c r="BO51">
-        <v>0</v>
+        <v>12.44</v>
       </c>
       <c r="BP51">
-        <v>10.83</v>
+        <v>0</v>
       </c>
       <c r="BQ51">
         <v>0</v>
@@ -11911,10 +11914,10 @@
         <v>0</v>
       </c>
       <c r="BS51">
-        <v>0</v>
+        <v>15.06</v>
       </c>
       <c r="BT51">
-        <v>17.62</v>
+        <v>0</v>
       </c>
       <c r="BU51">
         <v>0</v>
@@ -11931,10 +11934,10 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="E52">
-        <v>13.43</v>
+        <v>0</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -11943,10 +11946,10 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>5.88</v>
       </c>
       <c r="I52">
-        <v>1.1599999999999999</v>
+        <v>0</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -11955,10 +11958,10 @@
         <v>0</v>
       </c>
       <c r="L52">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="M52">
-        <v>3.43</v>
+        <v>0</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -11967,10 +11970,10 @@
         <v>0</v>
       </c>
       <c r="P52">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="Q52">
-        <v>4.99</v>
+        <v>0</v>
       </c>
       <c r="R52">
         <v>0</v>
@@ -11979,10 +11982,10 @@
         <v>0</v>
       </c>
       <c r="T52">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="U52">
-        <v>15.41</v>
+        <v>0</v>
       </c>
       <c r="V52">
         <v>0</v>
@@ -11991,10 +11994,10 @@
         <v>0</v>
       </c>
       <c r="X52">
-        <v>0</v>
+        <v>11.4</v>
       </c>
       <c r="Y52">
-        <v>2.76</v>
+        <v>0</v>
       </c>
       <c r="Z52">
         <v>0</v>
@@ -12003,7 +12006,7 @@
         <v>0</v>
       </c>
       <c r="AB52">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AC52">
         <v>0</v>
@@ -12015,10 +12018,10 @@
         <v>0</v>
       </c>
       <c r="AF52">
-        <v>0</v>
+        <v>6.49</v>
       </c>
       <c r="AG52">
-        <v>5.55</v>
+        <v>0</v>
       </c>
       <c r="AH52">
         <v>0</v>
@@ -12027,10 +12030,10 @@
         <v>0</v>
       </c>
       <c r="AJ52">
-        <v>0</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="AK52">
-        <v>11.34</v>
+        <v>0</v>
       </c>
       <c r="AL52">
         <v>0</v>
@@ -12039,10 +12042,10 @@
         <v>0</v>
       </c>
       <c r="AN52">
-        <v>0</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AO52">
-        <v>4.53</v>
+        <v>0</v>
       </c>
       <c r="AP52">
         <v>0</v>
@@ -12051,10 +12054,10 @@
         <v>0</v>
       </c>
       <c r="AR52">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AS52">
-        <v>13.88</v>
+        <v>0</v>
       </c>
       <c r="AT52">
         <v>0</v>
@@ -12063,10 +12066,10 @@
         <v>0</v>
       </c>
       <c r="AV52">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="AW52">
-        <v>4.24</v>
+        <v>0</v>
       </c>
       <c r="AX52">
         <v>0</v>
@@ -12075,10 +12078,10 @@
         <v>0</v>
       </c>
       <c r="AZ52">
-        <v>0</v>
+        <v>7.35</v>
       </c>
       <c r="BA52">
-        <v>14.45</v>
+        <v>0</v>
       </c>
       <c r="BB52">
         <v>0</v>
@@ -12087,10 +12090,10 @@
         <v>0</v>
       </c>
       <c r="BD52">
-        <v>0</v>
+        <v>3.49</v>
       </c>
       <c r="BE52">
-        <v>3.04</v>
+        <v>0</v>
       </c>
       <c r="BF52">
         <v>0</v>
@@ -12099,10 +12102,10 @@
         <v>0</v>
       </c>
       <c r="BH52">
-        <v>0</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="BI52">
-        <v>14.71</v>
+        <v>0</v>
       </c>
       <c r="BJ52">
         <v>0</v>
@@ -12111,10 +12114,10 @@
         <v>0</v>
       </c>
       <c r="BL52">
-        <v>0</v>
+        <v>5.24</v>
       </c>
       <c r="BM52">
-        <v>2.93</v>
+        <v>0</v>
       </c>
       <c r="BN52">
         <v>0</v>
@@ -12123,10 +12126,10 @@
         <v>0</v>
       </c>
       <c r="BP52">
-        <v>0</v>
+        <v>10.83</v>
       </c>
       <c r="BQ52">
-        <v>18.010000000000002</v>
+        <v>0</v>
       </c>
       <c r="BR52">
         <v>0</v>
@@ -12135,10 +12138,10 @@
         <v>0</v>
       </c>
       <c r="BT52">
-        <v>0</v>
+        <v>17.62</v>
       </c>
       <c r="BU52">
-        <v>17.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:73" x14ac:dyDescent="0.2">
@@ -12146,7 +12149,7 @@
         <v>69</v>
       </c>
       <c r="B53">
-        <v>16.489999999999998</v>
+        <v>0</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -12155,10 +12158,10 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>13.43</v>
       </c>
       <c r="F53">
-        <v>2.74</v>
+        <v>0</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -12167,10 +12170,10 @@
         <v>0</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="J53">
-        <v>4.84</v>
+        <v>0</v>
       </c>
       <c r="K53">
         <v>0</v>
@@ -12179,10 +12182,10 @@
         <v>0</v>
       </c>
       <c r="M53">
-        <v>0</v>
+        <v>3.43</v>
       </c>
       <c r="N53">
-        <v>2.96</v>
+        <v>0</v>
       </c>
       <c r="O53">
         <v>0</v>
@@ -12191,10 +12194,10 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>0</v>
+        <v>4.99</v>
       </c>
       <c r="R53">
-        <v>2.62</v>
+        <v>0</v>
       </c>
       <c r="S53">
         <v>0</v>
@@ -12203,10 +12206,10 @@
         <v>0</v>
       </c>
       <c r="U53">
-        <v>0</v>
+        <v>15.41</v>
       </c>
       <c r="V53">
-        <v>2.4300000000000002</v>
+        <v>0</v>
       </c>
       <c r="W53">
         <v>0</v>
@@ -12215,10 +12218,10 @@
         <v>0</v>
       </c>
       <c r="Y53">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="Z53">
-        <v>2.54</v>
+        <v>0</v>
       </c>
       <c r="AA53">
         <v>0</v>
@@ -12230,7 +12233,7 @@
         <v>0</v>
       </c>
       <c r="AD53">
-        <v>4.3600000000000003</v>
+        <v>0</v>
       </c>
       <c r="AE53">
         <v>0</v>
@@ -12239,10 +12242,10 @@
         <v>0</v>
       </c>
       <c r="AG53">
-        <v>0</v>
+        <v>5.55</v>
       </c>
       <c r="AH53">
-        <v>16.75</v>
+        <v>0</v>
       </c>
       <c r="AI53">
         <v>0</v>
@@ -12251,10 +12254,10 @@
         <v>0</v>
       </c>
       <c r="AK53">
-        <v>0</v>
+        <v>11.34</v>
       </c>
       <c r="AL53">
-        <v>12.19</v>
+        <v>0</v>
       </c>
       <c r="AM53">
         <v>0</v>
@@ -12263,10 +12266,10 @@
         <v>0</v>
       </c>
       <c r="AO53">
-        <v>0</v>
+        <v>4.53</v>
       </c>
       <c r="AP53">
-        <v>3.47</v>
+        <v>0</v>
       </c>
       <c r="AQ53">
         <v>0</v>
@@ -12275,10 +12278,10 @@
         <v>0</v>
       </c>
       <c r="AS53">
-        <v>0</v>
+        <v>13.88</v>
       </c>
       <c r="AT53">
-        <v>3.81</v>
+        <v>0</v>
       </c>
       <c r="AU53">
         <v>0</v>
@@ -12287,10 +12290,10 @@
         <v>0</v>
       </c>
       <c r="AW53">
-        <v>0</v>
+        <v>4.24</v>
       </c>
       <c r="AX53">
-        <v>1.79</v>
+        <v>0</v>
       </c>
       <c r="AY53">
         <v>0</v>
@@ -12299,10 +12302,10 @@
         <v>0</v>
       </c>
       <c r="BA53">
-        <v>0</v>
+        <v>14.45</v>
       </c>
       <c r="BB53">
-        <v>2.0499999999999998</v>
+        <v>0</v>
       </c>
       <c r="BC53">
         <v>0</v>
@@ -12311,10 +12314,10 @@
         <v>0</v>
       </c>
       <c r="BE53">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="BF53">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="BG53">
         <v>0</v>
@@ -12323,10 +12326,10 @@
         <v>0</v>
       </c>
       <c r="BI53">
-        <v>0</v>
+        <v>14.71</v>
       </c>
       <c r="BJ53">
-        <v>3.03</v>
+        <v>0</v>
       </c>
       <c r="BK53">
         <v>0</v>
@@ -12335,10 +12338,10 @@
         <v>0</v>
       </c>
       <c r="BM53">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="BN53">
-        <v>12.37</v>
+        <v>0</v>
       </c>
       <c r="BO53">
         <v>0</v>
@@ -12347,10 +12350,10 @@
         <v>0</v>
       </c>
       <c r="BQ53">
-        <v>0</v>
+        <v>18.010000000000002</v>
       </c>
       <c r="BR53">
-        <v>10.25</v>
+        <v>0</v>
       </c>
       <c r="BS53">
         <v>0</v>
@@ -12359,7 +12362,7 @@
         <v>0</v>
       </c>
       <c r="BU53">
-        <v>0</v>
+        <v>17.55</v>
       </c>
     </row>
     <row r="54" spans="1:73" x14ac:dyDescent="0.2">
@@ -12367,10 +12370,10 @@
         <v>70</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>16.489999999999998</v>
       </c>
       <c r="C54">
-        <v>14.13</v>
+        <v>0</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -12379,10 +12382,10 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="G54">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -12391,10 +12394,10 @@
         <v>0</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>4.84</v>
       </c>
       <c r="K54">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="L54">
         <v>0</v>
@@ -12403,10 +12406,10 @@
         <v>0</v>
       </c>
       <c r="N54">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="O54">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="P54">
         <v>0</v>
@@ -12415,10 +12418,10 @@
         <v>0</v>
       </c>
       <c r="R54">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="S54">
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="T54">
         <v>0</v>
@@ -12427,7 +12430,7 @@
         <v>0</v>
       </c>
       <c r="V54">
-        <v>0</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="W54">
         <v>0</v>
@@ -12439,7 +12442,7 @@
         <v>0</v>
       </c>
       <c r="Z54">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="AA54">
         <v>0</v>
@@ -12451,7 +12454,7 @@
         <v>0</v>
       </c>
       <c r="AD54">
-        <v>0</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="AE54">
         <v>0</v>
@@ -12463,10 +12466,10 @@
         <v>0</v>
       </c>
       <c r="AH54">
-        <v>0</v>
+        <v>16.75</v>
       </c>
       <c r="AI54">
-        <v>3.53</v>
+        <v>0</v>
       </c>
       <c r="AJ54">
         <v>0</v>
@@ -12475,10 +12478,10 @@
         <v>0</v>
       </c>
       <c r="AL54">
-        <v>0</v>
+        <v>12.19</v>
       </c>
       <c r="AM54">
-        <v>6.94</v>
+        <v>0</v>
       </c>
       <c r="AN54">
         <v>0</v>
@@ -12487,10 +12490,10 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>0</v>
+        <v>3.47</v>
       </c>
       <c r="AQ54">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="AR54">
         <v>0</v>
@@ -12499,10 +12502,10 @@
         <v>0</v>
       </c>
       <c r="AT54">
-        <v>0</v>
+        <v>3.81</v>
       </c>
       <c r="AU54">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="AV54">
         <v>0</v>
@@ -12511,10 +12514,10 @@
         <v>0</v>
       </c>
       <c r="AX54">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="AY54">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AZ54">
         <v>0</v>
@@ -12523,7 +12526,7 @@
         <v>0</v>
       </c>
       <c r="BB54">
-        <v>0</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="BC54">
         <v>0</v>
@@ -12535,7 +12538,7 @@
         <v>0</v>
       </c>
       <c r="BF54">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="BG54">
         <v>0</v>
@@ -12547,7 +12550,7 @@
         <v>0</v>
       </c>
       <c r="BJ54">
-        <v>0</v>
+        <v>3.03</v>
       </c>
       <c r="BK54">
         <v>0</v>
@@ -12559,10 +12562,10 @@
         <v>0</v>
       </c>
       <c r="BN54">
-        <v>0</v>
+        <v>12.37</v>
       </c>
       <c r="BO54">
-        <v>7.47</v>
+        <v>0</v>
       </c>
       <c r="BP54">
         <v>0</v>
@@ -12571,10 +12574,10 @@
         <v>0</v>
       </c>
       <c r="BR54">
-        <v>0</v>
+        <v>10.25</v>
       </c>
       <c r="BS54">
-        <v>15.25</v>
+        <v>0</v>
       </c>
       <c r="BT54">
         <v>0</v>
@@ -12591,10 +12594,10 @@
         <v>0</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>14.13</v>
       </c>
       <c r="D55">
-        <v>5.92</v>
+        <v>0</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -12603,10 +12606,10 @@
         <v>0</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="H55">
-        <v>2.35</v>
+        <v>0</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -12615,10 +12618,10 @@
         <v>0</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="L55">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="M55">
         <v>0</v>
@@ -12627,10 +12630,10 @@
         <v>0</v>
       </c>
       <c r="O55">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="P55">
-        <v>3.31</v>
+        <v>0</v>
       </c>
       <c r="Q55">
         <v>0</v>
@@ -12639,10 +12642,10 @@
         <v>0</v>
       </c>
       <c r="S55">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="T55">
-        <v>7.38</v>
+        <v>0</v>
       </c>
       <c r="U55">
         <v>0</v>
@@ -12654,7 +12657,7 @@
         <v>0</v>
       </c>
       <c r="X55">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="Y55">
         <v>0</v>
@@ -12666,7 +12669,7 @@
         <v>0</v>
       </c>
       <c r="AB55">
-        <v>5.7</v>
+        <v>0</v>
       </c>
       <c r="AC55">
         <v>0</v>
@@ -12678,7 +12681,7 @@
         <v>0</v>
       </c>
       <c r="AF55">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="AG55">
         <v>0</v>
@@ -12687,10 +12690,10 @@
         <v>0</v>
       </c>
       <c r="AI55">
-        <v>0</v>
+        <v>3.53</v>
       </c>
       <c r="AJ55">
-        <v>9.67</v>
+        <v>0</v>
       </c>
       <c r="AK55">
         <v>0</v>
@@ -12699,10 +12702,10 @@
         <v>0</v>
       </c>
       <c r="AM55">
-        <v>0</v>
+        <v>6.94</v>
       </c>
       <c r="AN55">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="AO55">
         <v>0</v>
@@ -12711,10 +12714,10 @@
         <v>0</v>
       </c>
       <c r="AQ55">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AR55">
-        <v>18.059999999999999</v>
+        <v>0</v>
       </c>
       <c r="AS55">
         <v>0</v>
@@ -12723,10 +12726,10 @@
         <v>0</v>
       </c>
       <c r="AU55">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AV55">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="AW55">
         <v>0</v>
@@ -12735,10 +12738,10 @@
         <v>0</v>
       </c>
       <c r="AY55">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AZ55">
-        <v>17.43</v>
+        <v>0</v>
       </c>
       <c r="BA55">
         <v>0</v>
@@ -12750,7 +12753,7 @@
         <v>0</v>
       </c>
       <c r="BD55">
-        <v>11.69</v>
+        <v>0</v>
       </c>
       <c r="BE55">
         <v>0</v>
@@ -12774,7 +12777,7 @@
         <v>0</v>
       </c>
       <c r="BL55">
-        <v>1.1100000000000001</v>
+        <v>0</v>
       </c>
       <c r="BM55">
         <v>0</v>
@@ -12783,10 +12786,10 @@
         <v>0</v>
       </c>
       <c r="BO55">
-        <v>0</v>
+        <v>7.47</v>
       </c>
       <c r="BP55">
-        <v>18.07</v>
+        <v>0</v>
       </c>
       <c r="BQ55">
         <v>0</v>
@@ -12795,10 +12798,10 @@
         <v>0</v>
       </c>
       <c r="BS55">
-        <v>0</v>
+        <v>15.25</v>
       </c>
       <c r="BT55">
-        <v>18.04</v>
+        <v>0</v>
       </c>
       <c r="BU55">
         <v>0</v>
@@ -12815,7 +12818,7 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>3.03</v>
+        <v>5.92</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -12827,7 +12830,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>1.38</v>
+        <v>2.35</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -12839,7 +12842,7 @@
         <v>0</v>
       </c>
       <c r="L56">
-        <v>3.71</v>
+        <v>1.22</v>
       </c>
       <c r="M56">
         <v>0</v>
@@ -12851,7 +12854,7 @@
         <v>0</v>
       </c>
       <c r="P56">
-        <v>0.8</v>
+        <v>3.31</v>
       </c>
       <c r="Q56">
         <v>0</v>
@@ -12863,7 +12866,7 @@
         <v>0</v>
       </c>
       <c r="T56">
-        <v>3.56</v>
+        <v>7.38</v>
       </c>
       <c r="U56">
         <v>0</v>
@@ -12875,7 +12878,7 @@
         <v>0</v>
       </c>
       <c r="X56">
-        <v>2.97</v>
+        <v>1.62</v>
       </c>
       <c r="Y56">
         <v>0</v>
@@ -12887,7 +12890,7 @@
         <v>0</v>
       </c>
       <c r="AB56">
-        <v>3.8</v>
+        <v>5.7</v>
       </c>
       <c r="AC56">
         <v>0</v>
@@ -12899,7 +12902,7 @@
         <v>0</v>
       </c>
       <c r="AF56">
-        <v>2.67</v>
+        <v>0.86</v>
       </c>
       <c r="AG56">
         <v>0</v>
@@ -12911,7 +12914,7 @@
         <v>0</v>
       </c>
       <c r="AJ56">
-        <v>2.0699999999999998</v>
+        <v>9.67</v>
       </c>
       <c r="AK56">
         <v>0</v>
@@ -12923,7 +12926,7 @@
         <v>0</v>
       </c>
       <c r="AN56">
-        <v>0.93</v>
+        <v>3.5</v>
       </c>
       <c r="AO56">
         <v>0</v>
@@ -12935,7 +12938,7 @@
         <v>0</v>
       </c>
       <c r="AR56">
-        <v>1.05</v>
+        <v>18.059999999999999</v>
       </c>
       <c r="AS56">
         <v>0</v>
@@ -12947,7 +12950,7 @@
         <v>0</v>
       </c>
       <c r="AV56">
-        <v>0.64</v>
+        <v>1.73</v>
       </c>
       <c r="AW56">
         <v>0</v>
@@ -12959,7 +12962,7 @@
         <v>0</v>
       </c>
       <c r="AZ56">
-        <v>17.850000000000001</v>
+        <v>17.43</v>
       </c>
       <c r="BA56">
         <v>0</v>
@@ -12971,7 +12974,7 @@
         <v>0</v>
       </c>
       <c r="BD56">
-        <v>0.78</v>
+        <v>11.69</v>
       </c>
       <c r="BE56">
         <v>0</v>
@@ -12983,7 +12986,7 @@
         <v>0</v>
       </c>
       <c r="BH56">
-        <v>5.15</v>
+        <v>0</v>
       </c>
       <c r="BI56">
         <v>0</v>
@@ -12995,7 +12998,7 @@
         <v>0</v>
       </c>
       <c r="BL56">
-        <v>0.57999999999999996</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="BM56">
         <v>0</v>
@@ -13007,7 +13010,7 @@
         <v>0</v>
       </c>
       <c r="BP56">
-        <v>3.28</v>
+        <v>18.07</v>
       </c>
       <c r="BQ56">
         <v>0</v>
@@ -13019,7 +13022,7 @@
         <v>0</v>
       </c>
       <c r="BT56">
-        <v>2.0299999999999998</v>
+        <v>18.04</v>
       </c>
       <c r="BU56">
         <v>0</v>
@@ -13036,10 +13039,10 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>3.03</v>
       </c>
       <c r="E57">
-        <v>1.96</v>
+        <v>0</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -13048,10 +13051,10 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="I57">
-        <v>3.26</v>
+        <v>0</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -13060,10 +13063,10 @@
         <v>0</v>
       </c>
       <c r="L57">
-        <v>0</v>
+        <v>3.71</v>
       </c>
       <c r="M57">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="N57">
         <v>0</v>
@@ -13072,7 +13075,7 @@
         <v>0</v>
       </c>
       <c r="P57">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Q57">
         <v>0</v>
@@ -13084,10 +13087,10 @@
         <v>0</v>
       </c>
       <c r="T57">
-        <v>0</v>
+        <v>3.56</v>
       </c>
       <c r="U57">
-        <v>4.46</v>
+        <v>0</v>
       </c>
       <c r="V57">
         <v>0</v>
@@ -13096,10 +13099,10 @@
         <v>0</v>
       </c>
       <c r="X57">
-        <v>0</v>
+        <v>2.97</v>
       </c>
       <c r="Y57">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="Z57">
         <v>0</v>
@@ -13108,10 +13111,10 @@
         <v>0</v>
       </c>
       <c r="AB57">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="AC57">
-        <v>6.73</v>
+        <v>0</v>
       </c>
       <c r="AD57">
         <v>0</v>
@@ -13120,10 +13123,10 @@
         <v>0</v>
       </c>
       <c r="AF57">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="AG57">
-        <v>3.39</v>
+        <v>0</v>
       </c>
       <c r="AH57">
         <v>0</v>
@@ -13132,10 +13135,10 @@
         <v>0</v>
       </c>
       <c r="AJ57">
-        <v>0</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="AK57">
-        <v>2.42</v>
+        <v>0</v>
       </c>
       <c r="AL57">
         <v>0</v>
@@ -13144,10 +13147,10 @@
         <v>0</v>
       </c>
       <c r="AN57">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="AO57">
-        <v>2.73</v>
+        <v>0</v>
       </c>
       <c r="AP57">
         <v>0</v>
@@ -13156,10 +13159,10 @@
         <v>0</v>
       </c>
       <c r="AR57">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AS57">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="AT57">
         <v>0</v>
@@ -13168,10 +13171,10 @@
         <v>0</v>
       </c>
       <c r="AV57">
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="AW57">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="AX57">
         <v>0</v>
@@ -13180,10 +13183,10 @@
         <v>0</v>
       </c>
       <c r="AZ57">
-        <v>0</v>
+        <v>17.850000000000001</v>
       </c>
       <c r="BA57">
-        <v>3.77</v>
+        <v>0</v>
       </c>
       <c r="BB57">
         <v>0</v>
@@ -13192,10 +13195,10 @@
         <v>0</v>
       </c>
       <c r="BD57">
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="BE57">
-        <v>4.1500000000000004</v>
+        <v>0</v>
       </c>
       <c r="BF57">
         <v>0</v>
@@ -13204,10 +13207,10 @@
         <v>0</v>
       </c>
       <c r="BH57">
-        <v>0</v>
+        <v>5.15</v>
       </c>
       <c r="BI57">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="BJ57">
         <v>0</v>
@@ -13216,7 +13219,7 @@
         <v>0</v>
       </c>
       <c r="BL57">
-        <v>0</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="BM57">
         <v>0</v>
@@ -13228,10 +13231,10 @@
         <v>0</v>
       </c>
       <c r="BP57">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="BQ57">
-        <v>3.06</v>
+        <v>0</v>
       </c>
       <c r="BR57">
         <v>0</v>
@@ -13240,10 +13243,10 @@
         <v>0</v>
       </c>
       <c r="BT57">
-        <v>0</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="BU57">
-        <v>3.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:73" x14ac:dyDescent="0.2">
@@ -13251,7 +13254,7 @@
         <v>74</v>
       </c>
       <c r="B58">
-        <v>9.8800000000000008</v>
+        <v>0</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -13260,10 +13263,10 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="F58">
-        <v>7.06</v>
+        <v>0</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -13272,10 +13275,10 @@
         <v>0</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>3.26</v>
       </c>
       <c r="J58">
-        <v>2.37</v>
+        <v>0</v>
       </c>
       <c r="K58">
         <v>0</v>
@@ -13284,10 +13287,10 @@
         <v>0</v>
       </c>
       <c r="M58">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="N58">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="O58">
         <v>0</v>
@@ -13299,7 +13302,7 @@
         <v>0</v>
       </c>
       <c r="R58">
-        <v>5.72</v>
+        <v>0</v>
       </c>
       <c r="S58">
         <v>0</v>
@@ -13308,10 +13311,10 @@
         <v>0</v>
       </c>
       <c r="U58">
-        <v>0</v>
+        <v>4.46</v>
       </c>
       <c r="V58">
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="W58">
         <v>0</v>
@@ -13320,10 +13323,10 @@
         <v>0</v>
       </c>
       <c r="Y58">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="Z58">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AA58">
         <v>0</v>
@@ -13332,10 +13335,10 @@
         <v>0</v>
       </c>
       <c r="AC58">
-        <v>0</v>
+        <v>6.73</v>
       </c>
       <c r="AD58">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="AE58">
         <v>0</v>
@@ -13344,10 +13347,10 @@
         <v>0</v>
       </c>
       <c r="AG58">
-        <v>0</v>
+        <v>3.39</v>
       </c>
       <c r="AH58">
-        <v>12.72</v>
+        <v>0</v>
       </c>
       <c r="AI58">
         <v>0</v>
@@ -13356,10 +13359,10 @@
         <v>0</v>
       </c>
       <c r="AK58">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="AL58">
-        <v>11.03</v>
+        <v>0</v>
       </c>
       <c r="AM58">
         <v>0</v>
@@ -13368,10 +13371,10 @@
         <v>0</v>
       </c>
       <c r="AO58">
-        <v>0</v>
+        <v>2.73</v>
       </c>
       <c r="AP58">
-        <v>9.14</v>
+        <v>0</v>
       </c>
       <c r="AQ58">
         <v>0</v>
@@ -13380,10 +13383,10 @@
         <v>0</v>
       </c>
       <c r="AS58">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AT58">
-        <v>4.75</v>
+        <v>0</v>
       </c>
       <c r="AU58">
         <v>0</v>
@@ -13392,10 +13395,10 @@
         <v>0</v>
       </c>
       <c r="AW58">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AX58">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="AY58">
         <v>0</v>
@@ -13404,10 +13407,10 @@
         <v>0</v>
       </c>
       <c r="BA58">
-        <v>0</v>
+        <v>3.77</v>
       </c>
       <c r="BB58">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="BC58">
         <v>0</v>
@@ -13416,10 +13419,10 @@
         <v>0</v>
       </c>
       <c r="BE58">
-        <v>0</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="BF58">
-        <v>4.6900000000000004</v>
+        <v>0</v>
       </c>
       <c r="BG58">
         <v>0</v>
@@ -13428,10 +13431,10 @@
         <v>0</v>
       </c>
       <c r="BI58">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="BJ58">
-        <v>2.39</v>
+        <v>0</v>
       </c>
       <c r="BK58">
         <v>0</v>
@@ -13443,7 +13446,7 @@
         <v>0</v>
       </c>
       <c r="BN58">
-        <v>7.24</v>
+        <v>0</v>
       </c>
       <c r="BO58">
         <v>0</v>
@@ -13452,10 +13455,10 @@
         <v>0</v>
       </c>
       <c r="BQ58">
-        <v>0</v>
+        <v>3.06</v>
       </c>
       <c r="BR58">
-        <v>3.22</v>
+        <v>0</v>
       </c>
       <c r="BS58">
         <v>0</v>
@@ -13464,7 +13467,7 @@
         <v>0</v>
       </c>
       <c r="BU58">
-        <v>0</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="59" spans="1:73" x14ac:dyDescent="0.2">
@@ -13472,10 +13475,10 @@
         <v>75</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>9.8800000000000008</v>
       </c>
       <c r="C59">
-        <v>8.83</v>
+        <v>0</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -13484,10 +13487,10 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>7.06</v>
       </c>
       <c r="G59">
-        <v>3.41</v>
+        <v>0</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -13496,10 +13499,10 @@
         <v>0</v>
       </c>
       <c r="J59">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="K59">
-        <v>3.43</v>
+        <v>0</v>
       </c>
       <c r="L59">
         <v>0</v>
@@ -13508,10 +13511,10 @@
         <v>0</v>
       </c>
       <c r="N59">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="O59">
-        <v>1.1499999999999999</v>
+        <v>0</v>
       </c>
       <c r="P59">
         <v>0</v>
@@ -13520,10 +13523,10 @@
         <v>0</v>
       </c>
       <c r="R59">
-        <v>0</v>
+        <v>5.72</v>
       </c>
       <c r="S59">
-        <v>5.74</v>
+        <v>0</v>
       </c>
       <c r="T59">
         <v>0</v>
@@ -13532,10 +13535,10 @@
         <v>0</v>
       </c>
       <c r="V59">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="W59">
-        <v>2.42</v>
+        <v>0</v>
       </c>
       <c r="X59">
         <v>0</v>
@@ -13544,10 +13547,10 @@
         <v>0</v>
       </c>
       <c r="Z59">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AA59">
-        <v>3.74</v>
+        <v>0</v>
       </c>
       <c r="AB59">
         <v>0</v>
@@ -13556,10 +13559,10 @@
         <v>0</v>
       </c>
       <c r="AD59">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="AE59">
-        <v>3.89</v>
+        <v>0</v>
       </c>
       <c r="AF59">
         <v>0</v>
@@ -13568,10 +13571,10 @@
         <v>0</v>
       </c>
       <c r="AH59">
-        <v>0</v>
+        <v>12.72</v>
       </c>
       <c r="AI59">
-        <v>3.21</v>
+        <v>0</v>
       </c>
       <c r="AJ59">
         <v>0</v>
@@ -13580,10 +13583,10 @@
         <v>0</v>
       </c>
       <c r="AL59">
-        <v>0</v>
+        <v>11.03</v>
       </c>
       <c r="AM59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN59">
         <v>0</v>
@@ -13592,10 +13595,10 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>0</v>
+        <v>9.14</v>
       </c>
       <c r="AQ59">
-        <v>5.71</v>
+        <v>0</v>
       </c>
       <c r="AR59">
         <v>0</v>
@@ -13604,10 +13607,10 @@
         <v>0</v>
       </c>
       <c r="AT59">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="AU59">
-        <v>2.61</v>
+        <v>0</v>
       </c>
       <c r="AV59">
         <v>0</v>
@@ -13616,10 +13619,10 @@
         <v>0</v>
       </c>
       <c r="AX59">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AY59">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="AZ59">
         <v>0</v>
@@ -13628,10 +13631,10 @@
         <v>0</v>
       </c>
       <c r="BB59">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="BC59">
-        <v>2.4900000000000002</v>
+        <v>0</v>
       </c>
       <c r="BD59">
         <v>0</v>
@@ -13640,10 +13643,10 @@
         <v>0</v>
       </c>
       <c r="BF59">
-        <v>0</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="BG59">
-        <v>9.25</v>
+        <v>0</v>
       </c>
       <c r="BH59">
         <v>0</v>
@@ -13652,10 +13655,10 @@
         <v>0</v>
       </c>
       <c r="BJ59">
-        <v>0</v>
+        <v>2.39</v>
       </c>
       <c r="BK59">
-        <v>6.51</v>
+        <v>0</v>
       </c>
       <c r="BL59">
         <v>0</v>
@@ -13664,10 +13667,10 @@
         <v>0</v>
       </c>
       <c r="BN59">
-        <v>0</v>
+        <v>7.24</v>
       </c>
       <c r="BO59">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="BP59">
         <v>0</v>
@@ -13676,10 +13679,10 @@
         <v>0</v>
       </c>
       <c r="BR59">
-        <v>0</v>
+        <v>3.22</v>
       </c>
       <c r="BS59">
-        <v>10.94</v>
+        <v>0</v>
       </c>
       <c r="BT59">
         <v>0</v>
@@ -13696,7 +13699,7 @@
         <v>0</v>
       </c>
       <c r="C60">
-        <v>5.86</v>
+        <v>8.83</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -13708,7 +13711,7 @@
         <v>0</v>
       </c>
       <c r="G60">
-        <v>3.39</v>
+        <v>3.41</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -13720,7 +13723,7 @@
         <v>0</v>
       </c>
       <c r="K60">
-        <v>0</v>
+        <v>3.43</v>
       </c>
       <c r="L60">
         <v>0</v>
@@ -13732,7 +13735,7 @@
         <v>0</v>
       </c>
       <c r="O60">
-        <v>12.84</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="P60">
         <v>0</v>
@@ -13744,7 +13747,7 @@
         <v>0</v>
       </c>
       <c r="S60">
-        <v>10.78</v>
+        <v>5.74</v>
       </c>
       <c r="T60">
         <v>0</v>
@@ -13756,7 +13759,7 @@
         <v>0</v>
       </c>
       <c r="W60">
-        <v>7.01</v>
+        <v>2.42</v>
       </c>
       <c r="X60">
         <v>0</v>
@@ -13768,7 +13771,7 @@
         <v>0</v>
       </c>
       <c r="AA60">
-        <v>4.57</v>
+        <v>3.74</v>
       </c>
       <c r="AB60">
         <v>0</v>
@@ -13780,7 +13783,7 @@
         <v>0</v>
       </c>
       <c r="AE60">
-        <v>2.2999999999999998</v>
+        <v>3.89</v>
       </c>
       <c r="AF60">
         <v>0</v>
@@ -13792,7 +13795,7 @@
         <v>0</v>
       </c>
       <c r="AI60">
-        <v>5.94</v>
+        <v>3.21</v>
       </c>
       <c r="AJ60">
         <v>0</v>
@@ -13804,7 +13807,7 @@
         <v>0</v>
       </c>
       <c r="AM60">
-        <v>0.32</v>
+        <v>2</v>
       </c>
       <c r="AN60">
         <v>0</v>
@@ -13816,7 +13819,7 @@
         <v>0</v>
       </c>
       <c r="AQ60">
-        <v>5.75</v>
+        <v>5.71</v>
       </c>
       <c r="AR60">
         <v>0</v>
@@ -13828,7 +13831,7 @@
         <v>0</v>
       </c>
       <c r="AU60">
-        <v>8.49</v>
+        <v>2.61</v>
       </c>
       <c r="AV60">
         <v>0</v>
@@ -13840,7 +13843,7 @@
         <v>0</v>
       </c>
       <c r="AY60">
-        <v>13.96</v>
+        <v>2.4</v>
       </c>
       <c r="AZ60">
         <v>0</v>
@@ -13852,7 +13855,7 @@
         <v>0</v>
       </c>
       <c r="BC60">
-        <v>1.1000000000000001</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="BD60">
         <v>0</v>
@@ -13864,7 +13867,7 @@
         <v>0</v>
       </c>
       <c r="BG60">
-        <v>0.83</v>
+        <v>9.25</v>
       </c>
       <c r="BH60">
         <v>0</v>
@@ -13876,7 +13879,7 @@
         <v>0</v>
       </c>
       <c r="BK60">
-        <v>5.81</v>
+        <v>6.51</v>
       </c>
       <c r="BL60">
         <v>0</v>
@@ -13888,7 +13891,7 @@
         <v>0</v>
       </c>
       <c r="BO60">
-        <v>4.3600000000000003</v>
+        <v>2.4</v>
       </c>
       <c r="BP60">
         <v>0</v>
@@ -13900,7 +13903,7 @@
         <v>0</v>
       </c>
       <c r="BS60">
-        <v>14.63</v>
+        <v>10.94</v>
       </c>
       <c r="BT60">
         <v>0</v>
@@ -13917,25 +13920,25 @@
         <v>0</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>5.86</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61">
-        <v>12.59</v>
+        <v>0</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>3.39</v>
       </c>
       <c r="H61">
         <v>0</v>
       </c>
       <c r="I61">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="J61">
         <v>0</v>
@@ -13947,187 +13950,187 @@
         <v>0</v>
       </c>
       <c r="M61">
-        <v>13.48</v>
+        <v>0</v>
       </c>
       <c r="N61">
         <v>0</v>
       </c>
       <c r="O61">
-        <v>0</v>
+        <v>12.84</v>
       </c>
       <c r="P61">
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>2.0499999999999998</v>
+        <v>0</v>
       </c>
       <c r="R61">
         <v>0</v>
       </c>
       <c r="S61">
-        <v>0</v>
+        <v>10.78</v>
       </c>
       <c r="T61">
         <v>0</v>
       </c>
       <c r="U61">
-        <v>16.27</v>
+        <v>0</v>
       </c>
       <c r="V61">
         <v>0</v>
       </c>
       <c r="W61">
-        <v>0</v>
+        <v>7.01</v>
       </c>
       <c r="X61">
         <v>0</v>
       </c>
       <c r="Y61">
-        <v>1.79</v>
+        <v>0</v>
       </c>
       <c r="Z61">
         <v>0</v>
       </c>
       <c r="AA61">
-        <v>0</v>
+        <v>4.57</v>
       </c>
       <c r="AB61">
         <v>0</v>
       </c>
       <c r="AC61">
-        <v>15.49</v>
+        <v>0</v>
       </c>
       <c r="AD61">
         <v>0</v>
       </c>
       <c r="AE61">
-        <v>0</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AF61">
         <v>0</v>
       </c>
       <c r="AG61">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="AH61">
         <v>0</v>
       </c>
       <c r="AI61">
-        <v>0</v>
+        <v>5.94</v>
       </c>
       <c r="AJ61">
         <v>0</v>
       </c>
       <c r="AK61">
-        <v>13.67</v>
+        <v>0</v>
       </c>
       <c r="AL61">
         <v>0</v>
       </c>
       <c r="AM61">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="AN61">
         <v>0</v>
       </c>
       <c r="AO61">
-        <v>4.5999999999999996</v>
+        <v>0</v>
       </c>
       <c r="AP61">
         <v>0</v>
       </c>
       <c r="AQ61">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="AR61">
         <v>0</v>
       </c>
       <c r="AS61">
-        <v>7.77</v>
+        <v>0</v>
       </c>
       <c r="AT61">
         <v>0</v>
       </c>
       <c r="AU61">
-        <v>0</v>
+        <v>8.49</v>
       </c>
       <c r="AV61">
         <v>0</v>
       </c>
       <c r="AW61">
-        <v>11.12</v>
+        <v>0</v>
       </c>
       <c r="AX61">
         <v>0</v>
       </c>
       <c r="AY61">
-        <v>0</v>
+        <v>13.96</v>
       </c>
       <c r="AZ61">
         <v>0</v>
       </c>
       <c r="BA61">
-        <v>2.1800000000000002</v>
+        <v>0</v>
       </c>
       <c r="BB61">
         <v>0</v>
       </c>
       <c r="BC61">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BD61">
         <v>0</v>
       </c>
       <c r="BE61">
-        <v>2.16</v>
+        <v>0</v>
       </c>
       <c r="BF61">
         <v>0</v>
       </c>
       <c r="BG61">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="BH61">
         <v>0</v>
       </c>
       <c r="BI61">
-        <v>7.83</v>
+        <v>0</v>
       </c>
       <c r="BJ61">
         <v>0</v>
       </c>
       <c r="BK61">
-        <v>0</v>
+        <v>5.81</v>
       </c>
       <c r="BL61">
         <v>0</v>
       </c>
       <c r="BM61">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="BN61">
         <v>0</v>
       </c>
       <c r="BO61">
-        <v>0</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="BP61">
         <v>0</v>
       </c>
       <c r="BQ61">
-        <v>17.04</v>
+        <v>0</v>
       </c>
       <c r="BR61">
         <v>0</v>
       </c>
       <c r="BS61">
-        <v>0</v>
+        <v>14.63</v>
       </c>
       <c r="BT61">
         <v>0</v>
       </c>
       <c r="BU61">
-        <v>16.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:73" x14ac:dyDescent="0.2">
@@ -14144,7 +14147,7 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>2.37</v>
+        <v>12.59</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -14156,7 +14159,7 @@
         <v>0</v>
       </c>
       <c r="I62">
-        <v>2.42</v>
+        <v>1.83</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -14168,7 +14171,7 @@
         <v>0</v>
       </c>
       <c r="M62">
-        <v>3.26</v>
+        <v>13.48</v>
       </c>
       <c r="N62">
         <v>0</v>
@@ -14180,7 +14183,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>2.34</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="R62">
         <v>0</v>
@@ -14192,7 +14195,7 @@
         <v>0</v>
       </c>
       <c r="U62">
-        <v>5.57</v>
+        <v>16.27</v>
       </c>
       <c r="V62">
         <v>0</v>
@@ -14204,7 +14207,7 @@
         <v>0</v>
       </c>
       <c r="Y62">
-        <v>2.4500000000000002</v>
+        <v>1.79</v>
       </c>
       <c r="Z62">
         <v>0</v>
@@ -14216,7 +14219,7 @@
         <v>0</v>
       </c>
       <c r="AC62">
-        <v>3.29</v>
+        <v>15.49</v>
       </c>
       <c r="AD62">
         <v>0</v>
@@ -14228,7 +14231,7 @@
         <v>0</v>
       </c>
       <c r="AG62">
-        <v>12.72</v>
+        <v>2.08</v>
       </c>
       <c r="AH62">
         <v>0</v>
@@ -14240,7 +14243,7 @@
         <v>0</v>
       </c>
       <c r="AK62">
-        <v>3.01</v>
+        <v>13.67</v>
       </c>
       <c r="AL62">
         <v>0</v>
@@ -14252,7 +14255,7 @@
         <v>0</v>
       </c>
       <c r="AO62">
-        <v>4.5599999999999996</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AP62">
         <v>0</v>
@@ -14264,7 +14267,7 @@
         <v>0</v>
       </c>
       <c r="AS62">
-        <v>2.15</v>
+        <v>7.77</v>
       </c>
       <c r="AT62">
         <v>0</v>
@@ -14276,7 +14279,7 @@
         <v>0</v>
       </c>
       <c r="AW62">
-        <v>2.33</v>
+        <v>11.12</v>
       </c>
       <c r="AX62">
         <v>0</v>
@@ -14288,7 +14291,7 @@
         <v>0</v>
       </c>
       <c r="BA62">
-        <v>3.75</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="BB62">
         <v>0</v>
@@ -14300,7 +14303,7 @@
         <v>0</v>
       </c>
       <c r="BE62">
-        <v>15.47</v>
+        <v>2.16</v>
       </c>
       <c r="BF62">
         <v>0</v>
@@ -14312,7 +14315,7 @@
         <v>0</v>
       </c>
       <c r="BI62">
-        <v>2.9</v>
+        <v>7.83</v>
       </c>
       <c r="BJ62">
         <v>0</v>
@@ -14324,7 +14327,7 @@
         <v>0</v>
       </c>
       <c r="BM62">
-        <v>1.35</v>
+        <v>1.02</v>
       </c>
       <c r="BN62">
         <v>0</v>
@@ -14336,7 +14339,7 @@
         <v>0</v>
       </c>
       <c r="BQ62">
-        <v>9.6999999999999993</v>
+        <v>17.04</v>
       </c>
       <c r="BR62">
         <v>0</v>
@@ -14348,7 +14351,7 @@
         <v>0</v>
       </c>
       <c r="BU62">
-        <v>7.97</v>
+        <v>16.64</v>
       </c>
     </row>
     <row r="63" spans="1:73" x14ac:dyDescent="0.2">
@@ -14362,10 +14365,10 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>5.75</v>
+        <v>0</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -14374,10 +14377,10 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>10.220000000000001</v>
+        <v>0</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="J63">
         <v>0</v>
@@ -14386,10 +14389,10 @@
         <v>0</v>
       </c>
       <c r="L63">
-        <v>14.06</v>
+        <v>0</v>
       </c>
       <c r="M63">
-        <v>0</v>
+        <v>3.26</v>
       </c>
       <c r="N63">
         <v>0</v>
@@ -14398,10 +14401,10 @@
         <v>0</v>
       </c>
       <c r="P63">
-        <v>15.17</v>
+        <v>0</v>
       </c>
       <c r="Q63">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="R63">
         <v>0</v>
@@ -14410,10 +14413,10 @@
         <v>0</v>
       </c>
       <c r="T63">
-        <v>5.43</v>
+        <v>0</v>
       </c>
       <c r="U63">
-        <v>0</v>
+        <v>5.57</v>
       </c>
       <c r="V63">
         <v>0</v>
@@ -14422,10 +14425,10 @@
         <v>0</v>
       </c>
       <c r="X63">
-        <v>13.4</v>
+        <v>0</v>
       </c>
       <c r="Y63">
-        <v>0</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="Z63">
         <v>0</v>
@@ -14434,10 +14437,10 @@
         <v>0</v>
       </c>
       <c r="AB63">
-        <v>15.38</v>
+        <v>0</v>
       </c>
       <c r="AC63">
-        <v>0</v>
+        <v>3.29</v>
       </c>
       <c r="AD63">
         <v>0</v>
@@ -14446,10 +14449,10 @@
         <v>0</v>
       </c>
       <c r="AF63">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="AG63">
-        <v>0</v>
+        <v>12.72</v>
       </c>
       <c r="AH63">
         <v>0</v>
@@ -14458,10 +14461,10 @@
         <v>0</v>
       </c>
       <c r="AJ63">
-        <v>6.88</v>
+        <v>0</v>
       </c>
       <c r="AK63">
-        <v>0</v>
+        <v>3.01</v>
       </c>
       <c r="AL63">
         <v>0</v>
@@ -14470,10 +14473,10 @@
         <v>0</v>
       </c>
       <c r="AN63">
-        <v>9.44</v>
+        <v>0</v>
       </c>
       <c r="AO63">
-        <v>0</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="AP63">
         <v>0</v>
@@ -14482,10 +14485,10 @@
         <v>0</v>
       </c>
       <c r="AR63">
-        <v>11.37</v>
+        <v>0</v>
       </c>
       <c r="AS63">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AT63">
         <v>0</v>
@@ -14494,10 +14497,10 @@
         <v>0</v>
       </c>
       <c r="AV63">
-        <v>14.71</v>
+        <v>0</v>
       </c>
       <c r="AW63">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="AX63">
         <v>0</v>
@@ -14506,10 +14509,10 @@
         <v>0</v>
       </c>
       <c r="AZ63">
-        <v>15.75</v>
+        <v>0</v>
       </c>
       <c r="BA63">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="BB63">
         <v>0</v>
@@ -14518,10 +14521,10 @@
         <v>0</v>
       </c>
       <c r="BD63">
-        <v>3.38</v>
+        <v>0</v>
       </c>
       <c r="BE63">
-        <v>0</v>
+        <v>15.47</v>
       </c>
       <c r="BF63">
         <v>0</v>
@@ -14530,10 +14533,10 @@
         <v>0</v>
       </c>
       <c r="BH63">
-        <v>4.5999999999999996</v>
+        <v>0</v>
       </c>
       <c r="BI63">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="BJ63">
         <v>0</v>
@@ -14542,10 +14545,10 @@
         <v>0</v>
       </c>
       <c r="BL63">
-        <v>3.11</v>
+        <v>0</v>
       </c>
       <c r="BM63">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="BN63">
         <v>0</v>
@@ -14554,10 +14557,10 @@
         <v>0</v>
       </c>
       <c r="BP63">
-        <v>16.239999999999998</v>
+        <v>0</v>
       </c>
       <c r="BQ63">
-        <v>0</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="BR63">
         <v>0</v>
@@ -14566,10 +14569,10 @@
         <v>0</v>
       </c>
       <c r="BT63">
-        <v>17.75</v>
+        <v>0</v>
       </c>
       <c r="BU63">
-        <v>0</v>
+        <v>7.97</v>
       </c>
     </row>
     <row r="64" spans="1:73" x14ac:dyDescent="0.2">
@@ -14583,10 +14586,10 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="E64">
-        <v>11.19</v>
+        <v>0</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -14595,10 +14598,10 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>10.220000000000001</v>
       </c>
       <c r="I64">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -14607,10 +14610,10 @@
         <v>0</v>
       </c>
       <c r="L64">
-        <v>0</v>
+        <v>14.06</v>
       </c>
       <c r="M64">
-        <v>3.54</v>
+        <v>0</v>
       </c>
       <c r="N64">
         <v>0</v>
@@ -14619,10 +14622,10 @@
         <v>0</v>
       </c>
       <c r="P64">
-        <v>0</v>
+        <v>15.17</v>
       </c>
       <c r="Q64">
-        <v>2.0299999999999998</v>
+        <v>0</v>
       </c>
       <c r="R64">
         <v>0</v>
@@ -14631,10 +14634,10 @@
         <v>0</v>
       </c>
       <c r="T64">
-        <v>0</v>
+        <v>5.43</v>
       </c>
       <c r="U64">
-        <v>17.420000000000002</v>
+        <v>0</v>
       </c>
       <c r="V64">
         <v>0</v>
@@ -14643,10 +14646,10 @@
         <v>0</v>
       </c>
       <c r="X64">
-        <v>0</v>
+        <v>13.4</v>
       </c>
       <c r="Y64">
-        <v>2.09</v>
+        <v>0</v>
       </c>
       <c r="Z64">
         <v>0</v>
@@ -14655,10 +14658,10 @@
         <v>0</v>
       </c>
       <c r="AB64">
-        <v>0</v>
+        <v>15.38</v>
       </c>
       <c r="AC64">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="AD64">
         <v>0</v>
@@ -14667,10 +14670,10 @@
         <v>0</v>
       </c>
       <c r="AF64">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="AG64">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="AH64">
         <v>0</v>
@@ -14679,10 +14682,10 @@
         <v>0</v>
       </c>
       <c r="AJ64">
-        <v>0</v>
+        <v>6.88</v>
       </c>
       <c r="AK64">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="AL64">
         <v>0</v>
@@ -14691,10 +14694,10 @@
         <v>0</v>
       </c>
       <c r="AN64">
-        <v>0</v>
+        <v>9.44</v>
       </c>
       <c r="AO64">
-        <v>8.44</v>
+        <v>0</v>
       </c>
       <c r="AP64">
         <v>0</v>
@@ -14703,10 +14706,10 @@
         <v>0</v>
       </c>
       <c r="AR64">
-        <v>0</v>
+        <v>11.37</v>
       </c>
       <c r="AS64">
-        <v>5.08</v>
+        <v>0</v>
       </c>
       <c r="AT64">
         <v>0</v>
@@ -14715,10 +14718,10 @@
         <v>0</v>
       </c>
       <c r="AV64">
-        <v>0</v>
+        <v>14.71</v>
       </c>
       <c r="AW64">
-        <v>9.24</v>
+        <v>0</v>
       </c>
       <c r="AX64">
         <v>0</v>
@@ -14727,10 +14730,10 @@
         <v>0</v>
       </c>
       <c r="AZ64">
-        <v>0</v>
+        <v>15.75</v>
       </c>
       <c r="BA64">
-        <v>11.92</v>
+        <v>0</v>
       </c>
       <c r="BB64">
         <v>0</v>
@@ -14739,7 +14742,7 @@
         <v>0</v>
       </c>
       <c r="BD64">
-        <v>0</v>
+        <v>3.38</v>
       </c>
       <c r="BE64">
         <v>0</v>
@@ -14751,10 +14754,10 @@
         <v>0</v>
       </c>
       <c r="BH64">
-        <v>0</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="BI64">
-        <v>7.61</v>
+        <v>0</v>
       </c>
       <c r="BJ64">
         <v>0</v>
@@ -14763,10 +14766,10 @@
         <v>0</v>
       </c>
       <c r="BL64">
-        <v>0</v>
+        <v>3.11</v>
       </c>
       <c r="BM64">
-        <v>18.02</v>
+        <v>0</v>
       </c>
       <c r="BN64">
         <v>0</v>
@@ -14775,10 +14778,10 @@
         <v>0</v>
       </c>
       <c r="BP64">
-        <v>0</v>
+        <v>16.239999999999998</v>
       </c>
       <c r="BQ64">
-        <v>12.32</v>
+        <v>0</v>
       </c>
       <c r="BR64">
         <v>0</v>
@@ -14787,10 +14790,10 @@
         <v>0</v>
       </c>
       <c r="BT64">
-        <v>0</v>
+        <v>17.75</v>
       </c>
       <c r="BU64">
-        <v>17.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:73" x14ac:dyDescent="0.2">
@@ -14807,7 +14810,7 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>2.48</v>
+        <v>11.19</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -14819,7 +14822,7 @@
         <v>0</v>
       </c>
       <c r="I65">
-        <v>4.0599999999999996</v>
+        <v>1.05</v>
       </c>
       <c r="J65">
         <v>0</v>
@@ -14831,7 +14834,7 @@
         <v>0</v>
       </c>
       <c r="M65">
-        <v>5.39</v>
+        <v>3.54</v>
       </c>
       <c r="N65">
         <v>0</v>
@@ -14843,7 +14846,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>2.23</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="R65">
         <v>0</v>
@@ -14855,7 +14858,7 @@
         <v>0</v>
       </c>
       <c r="U65">
-        <v>13.17</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="V65">
         <v>0</v>
@@ -14867,7 +14870,7 @@
         <v>0</v>
       </c>
       <c r="Y65">
-        <v>2.67</v>
+        <v>2.09</v>
       </c>
       <c r="Z65">
         <v>0</v>
@@ -14879,7 +14882,7 @@
         <v>0</v>
       </c>
       <c r="AC65">
-        <v>4.63</v>
+        <v>5.8</v>
       </c>
       <c r="AD65">
         <v>0</v>
@@ -14891,7 +14894,7 @@
         <v>0</v>
       </c>
       <c r="AG65">
-        <v>1.1399999999999999</v>
+        <v>1.83</v>
       </c>
       <c r="AH65">
         <v>0</v>
@@ -14903,7 +14906,7 @@
         <v>0</v>
       </c>
       <c r="AK65">
-        <v>3.72</v>
+        <v>5.4</v>
       </c>
       <c r="AL65">
         <v>0</v>
@@ -14915,7 +14918,7 @@
         <v>0</v>
       </c>
       <c r="AO65">
-        <v>0.02</v>
+        <v>8.44</v>
       </c>
       <c r="AP65">
         <v>0</v>
@@ -14927,7 +14930,7 @@
         <v>0</v>
       </c>
       <c r="AS65">
-        <v>6.5</v>
+        <v>5.08</v>
       </c>
       <c r="AT65">
         <v>0</v>
@@ -14939,7 +14942,7 @@
         <v>0</v>
       </c>
       <c r="AW65">
-        <v>5.99</v>
+        <v>9.24</v>
       </c>
       <c r="AX65">
         <v>0</v>
@@ -14951,7 +14954,7 @@
         <v>0</v>
       </c>
       <c r="BA65">
-        <v>5.0999999999999996</v>
+        <v>11.92</v>
       </c>
       <c r="BB65">
         <v>0</v>
@@ -14975,7 +14978,7 @@
         <v>0</v>
       </c>
       <c r="BI65">
-        <v>7.28</v>
+        <v>7.61</v>
       </c>
       <c r="BJ65">
         <v>0</v>
@@ -14987,7 +14990,7 @@
         <v>0</v>
       </c>
       <c r="BM65">
-        <v>0.62</v>
+        <v>18.02</v>
       </c>
       <c r="BN65">
         <v>0</v>
@@ -14999,7 +15002,7 @@
         <v>0</v>
       </c>
       <c r="BQ65">
-        <v>6.91</v>
+        <v>12.32</v>
       </c>
       <c r="BR65">
         <v>0</v>
@@ -15011,7 +15014,7 @@
         <v>0</v>
       </c>
       <c r="BU65">
-        <v>7.38</v>
+        <v>17.47</v>
       </c>
     </row>
     <row r="66" spans="1:73" x14ac:dyDescent="0.2">
@@ -15022,37 +15025,37 @@
         <v>0</v>
       </c>
       <c r="C66">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="F66">
         <v>0</v>
       </c>
       <c r="G66">
-        <v>2.39</v>
+        <v>0</v>
       </c>
       <c r="H66">
         <v>0</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="J66">
         <v>0</v>
       </c>
       <c r="K66">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="L66">
         <v>0</v>
       </c>
       <c r="M66">
-        <v>0</v>
+        <v>5.39</v>
       </c>
       <c r="N66">
         <v>0</v>
@@ -15064,121 +15067,121 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="R66">
         <v>0</v>
       </c>
       <c r="S66">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="T66">
         <v>0</v>
       </c>
       <c r="U66">
-        <v>0</v>
+        <v>13.17</v>
       </c>
       <c r="V66">
         <v>0</v>
       </c>
       <c r="W66">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="X66">
         <v>0</v>
       </c>
       <c r="Y66">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="Z66">
         <v>0</v>
       </c>
       <c r="AA66">
-        <v>3.92</v>
+        <v>0</v>
       </c>
       <c r="AB66">
         <v>0</v>
       </c>
       <c r="AC66">
-        <v>0</v>
+        <v>4.63</v>
       </c>
       <c r="AD66">
         <v>0</v>
       </c>
       <c r="AE66">
-        <v>2.4500000000000002</v>
+        <v>0</v>
       </c>
       <c r="AF66">
         <v>0</v>
       </c>
       <c r="AG66">
-        <v>0</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="AH66">
         <v>0</v>
       </c>
       <c r="AI66">
-        <v>4.97</v>
+        <v>0</v>
       </c>
       <c r="AJ66">
         <v>0</v>
       </c>
       <c r="AK66">
-        <v>0</v>
+        <v>3.72</v>
       </c>
       <c r="AL66">
         <v>0</v>
       </c>
       <c r="AM66">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="AN66">
         <v>0</v>
       </c>
       <c r="AO66">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="AP66">
         <v>0</v>
       </c>
       <c r="AQ66">
-        <v>4.9800000000000004</v>
+        <v>0</v>
       </c>
       <c r="AR66">
         <v>0</v>
       </c>
       <c r="AS66">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="AT66">
         <v>0</v>
       </c>
       <c r="AU66">
-        <v>1.97</v>
+        <v>0</v>
       </c>
       <c r="AV66">
         <v>0</v>
       </c>
       <c r="AW66">
-        <v>0</v>
+        <v>5.99</v>
       </c>
       <c r="AX66">
         <v>0</v>
       </c>
       <c r="AY66">
-        <v>3.01</v>
+        <v>0</v>
       </c>
       <c r="AZ66">
         <v>0</v>
       </c>
       <c r="BA66">
-        <v>0</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="BB66">
         <v>0</v>
       </c>
       <c r="BC66">
-        <v>0.77</v>
+        <v>0</v>
       </c>
       <c r="BD66">
         <v>0</v>
@@ -15190,49 +15193,49 @@
         <v>0</v>
       </c>
       <c r="BG66">
-        <v>5.51</v>
+        <v>0</v>
       </c>
       <c r="BH66">
         <v>0</v>
       </c>
       <c r="BI66">
-        <v>0</v>
+        <v>7.28</v>
       </c>
       <c r="BJ66">
         <v>0</v>
       </c>
       <c r="BK66">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="BL66">
         <v>0</v>
       </c>
       <c r="BM66">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="BN66">
         <v>0</v>
       </c>
       <c r="BO66">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="BP66">
         <v>0</v>
       </c>
       <c r="BQ66">
-        <v>0</v>
+        <v>6.91</v>
       </c>
       <c r="BR66">
         <v>0</v>
       </c>
       <c r="BS66">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="BT66">
         <v>0</v>
       </c>
       <c r="BU66">
-        <v>0</v>
+        <v>7.38</v>
       </c>
     </row>
     <row r="67" spans="1:73" x14ac:dyDescent="0.2">
@@ -15240,10 +15243,10 @@
         <v>83</v>
       </c>
       <c r="B67">
-        <v>11.67</v>
+        <v>0</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -15252,10 +15255,10 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>14.32</v>
+        <v>0</v>
       </c>
       <c r="G67">
-        <v>0</v>
+        <v>2.39</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -15264,10 +15267,10 @@
         <v>0</v>
       </c>
       <c r="J67">
-        <v>14.48</v>
+        <v>0</v>
       </c>
       <c r="K67">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="L67">
         <v>0</v>
@@ -15276,7 +15279,7 @@
         <v>0</v>
       </c>
       <c r="N67">
-        <v>15.28</v>
+        <v>0</v>
       </c>
       <c r="O67">
         <v>0</v>
@@ -15288,10 +15291,10 @@
         <v>0</v>
       </c>
       <c r="R67">
-        <v>9.77</v>
+        <v>0</v>
       </c>
       <c r="S67">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="T67">
         <v>0</v>
@@ -15300,10 +15303,10 @@
         <v>0</v>
       </c>
       <c r="V67">
-        <v>7.83</v>
+        <v>0</v>
       </c>
       <c r="W67">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="X67">
         <v>0</v>
@@ -15312,10 +15315,10 @@
         <v>0</v>
       </c>
       <c r="Z67">
-        <v>10.73</v>
+        <v>0</v>
       </c>
       <c r="AA67">
-        <v>0</v>
+        <v>3.92</v>
       </c>
       <c r="AB67">
         <v>0</v>
@@ -15324,10 +15327,10 @@
         <v>0</v>
       </c>
       <c r="AD67">
-        <v>9.94</v>
+        <v>0</v>
       </c>
       <c r="AE67">
-        <v>0</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="AF67">
         <v>0</v>
@@ -15336,10 +15339,10 @@
         <v>0</v>
       </c>
       <c r="AH67">
-        <v>12.97</v>
+        <v>0</v>
       </c>
       <c r="AI67">
-        <v>0</v>
+        <v>4.97</v>
       </c>
       <c r="AJ67">
         <v>0</v>
@@ -15348,10 +15351,10 @@
         <v>0</v>
       </c>
       <c r="AL67">
-        <v>12.15</v>
+        <v>0</v>
       </c>
       <c r="AM67">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="AN67">
         <v>0</v>
@@ -15360,10 +15363,10 @@
         <v>0</v>
       </c>
       <c r="AP67">
-        <v>12.19</v>
+        <v>0</v>
       </c>
       <c r="AQ67">
-        <v>0</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="AR67">
         <v>0</v>
@@ -15372,10 +15375,10 @@
         <v>0</v>
       </c>
       <c r="AT67">
-        <v>13.35</v>
+        <v>0</v>
       </c>
       <c r="AU67">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="AV67">
         <v>0</v>
@@ -15384,10 +15387,10 @@
         <v>0</v>
       </c>
       <c r="AX67">
-        <v>11.61</v>
+        <v>0</v>
       </c>
       <c r="AY67">
-        <v>0</v>
+        <v>3.01</v>
       </c>
       <c r="AZ67">
         <v>0</v>
@@ -15396,10 +15399,10 @@
         <v>0</v>
       </c>
       <c r="BB67">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BC67">
-        <v>0</v>
+        <v>0.77</v>
       </c>
       <c r="BD67">
         <v>0</v>
@@ -15408,10 +15411,10 @@
         <v>0</v>
       </c>
       <c r="BF67">
-        <v>8.1199999999999992</v>
+        <v>0</v>
       </c>
       <c r="BG67">
-        <v>0</v>
+        <v>5.51</v>
       </c>
       <c r="BH67">
         <v>0</v>
@@ -15420,10 +15423,10 @@
         <v>0</v>
       </c>
       <c r="BJ67">
-        <v>9.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="BK67">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="BL67">
         <v>0</v>
@@ -15432,10 +15435,10 @@
         <v>0</v>
       </c>
       <c r="BN67">
-        <v>3.72</v>
+        <v>0</v>
       </c>
       <c r="BO67">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="BP67">
         <v>0</v>
@@ -15444,10 +15447,10 @@
         <v>0</v>
       </c>
       <c r="BR67">
-        <v>2.44</v>
+        <v>0</v>
       </c>
       <c r="BS67">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="BT67">
         <v>0</v>
@@ -15461,7 +15464,7 @@
         <v>84</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>11.67</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -15470,10 +15473,10 @@
         <v>0</v>
       </c>
       <c r="E68">
-        <v>6.08</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>14.32</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -15482,10 +15485,10 @@
         <v>0</v>
       </c>
       <c r="I68">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="J68">
-        <v>0</v>
+        <v>14.48</v>
       </c>
       <c r="K68">
         <v>0</v>
@@ -15494,10 +15497,10 @@
         <v>0</v>
       </c>
       <c r="M68">
-        <v>2.95</v>
+        <v>0</v>
       </c>
       <c r="N68">
-        <v>0</v>
+        <v>15.28</v>
       </c>
       <c r="O68">
         <v>0</v>
@@ -15506,10 +15509,10 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>5.0599999999999996</v>
+        <v>0</v>
       </c>
       <c r="R68">
-        <v>0</v>
+        <v>9.77</v>
       </c>
       <c r="S68">
         <v>0</v>
@@ -15518,10 +15521,10 @@
         <v>0</v>
       </c>
       <c r="U68">
-        <v>8.01</v>
+        <v>0</v>
       </c>
       <c r="V68">
-        <v>0</v>
+        <v>7.83</v>
       </c>
       <c r="W68">
         <v>0</v>
@@ -15530,10 +15533,10 @@
         <v>0</v>
       </c>
       <c r="Y68">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="Z68">
-        <v>0</v>
+        <v>10.73</v>
       </c>
       <c r="AA68">
         <v>0</v>
@@ -15542,10 +15545,10 @@
         <v>0</v>
       </c>
       <c r="AC68">
-        <v>5.49</v>
+        <v>0</v>
       </c>
       <c r="AD68">
-        <v>0</v>
+        <v>9.94</v>
       </c>
       <c r="AE68">
         <v>0</v>
@@ -15554,10 +15557,10 @@
         <v>0</v>
       </c>
       <c r="AG68">
-        <v>4.6100000000000003</v>
+        <v>0</v>
       </c>
       <c r="AH68">
-        <v>0</v>
+        <v>12.97</v>
       </c>
       <c r="AI68">
         <v>0</v>
@@ -15566,10 +15569,10 @@
         <v>0</v>
       </c>
       <c r="AK68">
-        <v>4.0599999999999996</v>
+        <v>0</v>
       </c>
       <c r="AL68">
-        <v>0</v>
+        <v>12.15</v>
       </c>
       <c r="AM68">
         <v>0</v>
@@ -15578,10 +15581,10 @@
         <v>0</v>
       </c>
       <c r="AO68">
-        <v>5.38</v>
+        <v>0</v>
       </c>
       <c r="AP68">
-        <v>0</v>
+        <v>12.19</v>
       </c>
       <c r="AQ68">
         <v>0</v>
@@ -15590,10 +15593,10 @@
         <v>0</v>
       </c>
       <c r="AS68">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AT68">
-        <v>0</v>
+        <v>13.35</v>
       </c>
       <c r="AU68">
         <v>0</v>
@@ -15602,10 +15605,10 @@
         <v>0</v>
       </c>
       <c r="AW68">
-        <v>7.46</v>
+        <v>0</v>
       </c>
       <c r="AX68">
-        <v>0</v>
+        <v>11.61</v>
       </c>
       <c r="AY68">
         <v>0</v>
@@ -15614,10 +15617,10 @@
         <v>0</v>
       </c>
       <c r="BA68">
-        <v>7.85</v>
+        <v>0</v>
       </c>
       <c r="BB68">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BC68">
         <v>0</v>
@@ -15626,10 +15629,10 @@
         <v>0</v>
       </c>
       <c r="BE68">
-        <v>3.69</v>
+        <v>0</v>
       </c>
       <c r="BF68">
-        <v>0</v>
+        <v>8.1199999999999992</v>
       </c>
       <c r="BG68">
         <v>0</v>
@@ -15638,10 +15641,10 @@
         <v>0</v>
       </c>
       <c r="BI68">
-        <v>6.35</v>
+        <v>0</v>
       </c>
       <c r="BJ68">
-        <v>0</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="BK68">
         <v>0</v>
@@ -15650,10 +15653,10 @@
         <v>0</v>
       </c>
       <c r="BM68">
-        <v>6.61</v>
+        <v>0</v>
       </c>
       <c r="BN68">
-        <v>0</v>
+        <v>3.72</v>
       </c>
       <c r="BO68">
         <v>0</v>
@@ -15662,10 +15665,10 @@
         <v>0</v>
       </c>
       <c r="BQ68">
-        <v>3.93</v>
+        <v>0</v>
       </c>
       <c r="BR68">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="BS68">
         <v>0</v>
@@ -15674,7 +15677,7 @@
         <v>0</v>
       </c>
       <c r="BU68">
-        <v>11.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:73" x14ac:dyDescent="0.2">
@@ -15682,7 +15685,7 @@
         <v>85</v>
       </c>
       <c r="B69">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -15691,10 +15694,10 @@
         <v>0</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>6.08</v>
       </c>
       <c r="F69">
-        <v>4.47</v>
+        <v>0</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -15703,10 +15706,10 @@
         <v>0</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="J69">
-        <v>9.4499999999999993</v>
+        <v>0</v>
       </c>
       <c r="K69">
         <v>0</v>
@@ -15715,10 +15718,10 @@
         <v>0</v>
       </c>
       <c r="M69">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="N69">
-        <v>0.87</v>
+        <v>0</v>
       </c>
       <c r="O69">
         <v>0</v>
@@ -15727,10 +15730,10 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>0</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="R69">
-        <v>4.25</v>
+        <v>0</v>
       </c>
       <c r="S69">
         <v>0</v>
@@ -15739,10 +15742,10 @@
         <v>0</v>
       </c>
       <c r="U69">
-        <v>0</v>
+        <v>8.01</v>
       </c>
       <c r="V69">
-        <v>5.16</v>
+        <v>0</v>
       </c>
       <c r="W69">
         <v>0</v>
@@ -15751,10 +15754,10 @@
         <v>0</v>
       </c>
       <c r="Y69">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="Z69">
-        <v>7.14</v>
+        <v>0</v>
       </c>
       <c r="AA69">
         <v>0</v>
@@ -15763,10 +15766,10 @@
         <v>0</v>
       </c>
       <c r="AC69">
-        <v>0</v>
+        <v>5.49</v>
       </c>
       <c r="AD69">
-        <v>6.91</v>
+        <v>0</v>
       </c>
       <c r="AE69">
         <v>0</v>
@@ -15775,10 +15778,10 @@
         <v>0</v>
       </c>
       <c r="AG69">
-        <v>0</v>
+        <v>4.6100000000000003</v>
       </c>
       <c r="AH69">
-        <v>10.64</v>
+        <v>0</v>
       </c>
       <c r="AI69">
         <v>0</v>
@@ -15787,10 +15790,10 @@
         <v>0</v>
       </c>
       <c r="AK69">
-        <v>0</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="AL69">
-        <v>9.67</v>
+        <v>0</v>
       </c>
       <c r="AM69">
         <v>0</v>
@@ -15799,10 +15802,10 @@
         <v>0</v>
       </c>
       <c r="AO69">
-        <v>0</v>
+        <v>5.38</v>
       </c>
       <c r="AP69">
-        <v>5.25</v>
+        <v>0</v>
       </c>
       <c r="AQ69">
         <v>0</v>
@@ -15811,10 +15814,10 @@
         <v>0</v>
       </c>
       <c r="AS69">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AT69">
-        <v>6.63</v>
+        <v>0</v>
       </c>
       <c r="AU69">
         <v>0</v>
@@ -15823,10 +15826,10 @@
         <v>0</v>
       </c>
       <c r="AW69">
-        <v>0</v>
+        <v>7.46</v>
       </c>
       <c r="AX69">
-        <v>9.73</v>
+        <v>0</v>
       </c>
       <c r="AY69">
         <v>0</v>
@@ -15835,10 +15838,10 @@
         <v>0</v>
       </c>
       <c r="BA69">
-        <v>0</v>
+        <v>7.85</v>
       </c>
       <c r="BB69">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="BC69">
         <v>0</v>
@@ -15847,10 +15850,10 @@
         <v>0</v>
       </c>
       <c r="BE69">
-        <v>0</v>
+        <v>3.69</v>
       </c>
       <c r="BF69">
-        <v>12.42</v>
+        <v>0</v>
       </c>
       <c r="BG69">
         <v>0</v>
@@ -15859,10 +15862,10 @@
         <v>0</v>
       </c>
       <c r="BI69">
-        <v>0</v>
+        <v>6.35</v>
       </c>
       <c r="BJ69">
-        <v>7.58</v>
+        <v>0</v>
       </c>
       <c r="BK69">
         <v>0</v>
@@ -15871,10 +15874,10 @@
         <v>0</v>
       </c>
       <c r="BM69">
-        <v>0</v>
+        <v>6.61</v>
       </c>
       <c r="BN69">
-        <v>11.54</v>
+        <v>0</v>
       </c>
       <c r="BO69">
         <v>0</v>
@@ -15883,10 +15886,10 @@
         <v>0</v>
       </c>
       <c r="BQ69">
-        <v>0</v>
+        <v>3.93</v>
       </c>
       <c r="BR69">
-        <v>10.55</v>
+        <v>0</v>
       </c>
       <c r="BS69">
         <v>0</v>
@@ -15895,7 +15898,7 @@
         <v>0</v>
       </c>
       <c r="BU69">
-        <v>0</v>
+        <v>11.59</v>
       </c>
     </row>
     <row r="70" spans="1:73" x14ac:dyDescent="0.2">
@@ -15903,187 +15906,187 @@
         <v>86</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="C70">
         <v>0</v>
       </c>
       <c r="D70">
-        <v>4.3499999999999996</v>
+        <v>0</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>4.47</v>
       </c>
       <c r="G70">
         <v>0</v>
       </c>
       <c r="H70">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="I70">
         <v>0</v>
       </c>
       <c r="J70">
-        <v>0</v>
+        <v>9.4499999999999993</v>
       </c>
       <c r="K70">
         <v>0</v>
       </c>
       <c r="L70">
-        <v>12.48</v>
+        <v>0</v>
       </c>
       <c r="M70">
         <v>0</v>
       </c>
       <c r="N70">
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="O70">
         <v>0</v>
       </c>
       <c r="P70">
-        <v>3.54</v>
+        <v>0</v>
       </c>
       <c r="Q70">
         <v>0</v>
       </c>
       <c r="R70">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="S70">
         <v>0</v>
       </c>
       <c r="T70">
-        <v>8.76</v>
+        <v>0</v>
       </c>
       <c r="U70">
         <v>0</v>
       </c>
       <c r="V70">
-        <v>0</v>
+        <v>5.16</v>
       </c>
       <c r="W70">
         <v>0</v>
       </c>
       <c r="X70">
-        <v>3.06</v>
+        <v>0</v>
       </c>
       <c r="Y70">
         <v>0</v>
       </c>
       <c r="Z70">
-        <v>0</v>
+        <v>7.14</v>
       </c>
       <c r="AA70">
         <v>0</v>
       </c>
       <c r="AB70">
-        <v>4.0999999999999996</v>
+        <v>0</v>
       </c>
       <c r="AC70">
         <v>0</v>
       </c>
       <c r="AD70">
-        <v>0</v>
+        <v>6.91</v>
       </c>
       <c r="AE70">
         <v>0</v>
       </c>
       <c r="AF70">
-        <v>6.3</v>
+        <v>0</v>
       </c>
       <c r="AG70">
         <v>0</v>
       </c>
       <c r="AH70">
-        <v>0</v>
+        <v>10.64</v>
       </c>
       <c r="AI70">
         <v>0</v>
       </c>
       <c r="AJ70">
-        <v>5.27</v>
+        <v>0</v>
       </c>
       <c r="AK70">
         <v>0</v>
       </c>
       <c r="AL70">
-        <v>0</v>
+        <v>9.67</v>
       </c>
       <c r="AM70">
         <v>0</v>
       </c>
       <c r="AN70">
-        <v>7.59</v>
+        <v>0</v>
       </c>
       <c r="AO70">
         <v>0</v>
       </c>
       <c r="AP70">
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="AQ70">
         <v>0</v>
       </c>
       <c r="AR70">
-        <v>4.67</v>
+        <v>0</v>
       </c>
       <c r="AS70">
         <v>0</v>
       </c>
       <c r="AT70">
-        <v>0</v>
+        <v>6.63</v>
       </c>
       <c r="AU70">
         <v>0</v>
       </c>
       <c r="AV70">
-        <v>2.91</v>
+        <v>0</v>
       </c>
       <c r="AW70">
         <v>0</v>
       </c>
       <c r="AX70">
-        <v>0</v>
+        <v>9.73</v>
       </c>
       <c r="AY70">
         <v>0</v>
       </c>
       <c r="AZ70">
-        <v>4.97</v>
+        <v>0</v>
       </c>
       <c r="BA70">
         <v>0</v>
       </c>
       <c r="BB70">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="BC70">
         <v>0</v>
       </c>
       <c r="BD70">
-        <v>2.68</v>
+        <v>0</v>
       </c>
       <c r="BE70">
         <v>0</v>
       </c>
       <c r="BF70">
-        <v>0</v>
+        <v>12.42</v>
       </c>
       <c r="BG70">
         <v>0</v>
       </c>
       <c r="BH70">
-        <v>14.92</v>
+        <v>0</v>
       </c>
       <c r="BI70">
         <v>0</v>
       </c>
       <c r="BJ70">
-        <v>0</v>
+        <v>7.58</v>
       </c>
       <c r="BK70">
         <v>0</v>
@@ -16095,25 +16098,25 @@
         <v>0</v>
       </c>
       <c r="BN70">
-        <v>0</v>
+        <v>11.54</v>
       </c>
       <c r="BO70">
         <v>0</v>
       </c>
       <c r="BP70">
-        <v>12.7</v>
+        <v>0</v>
       </c>
       <c r="BQ70">
         <v>0</v>
       </c>
       <c r="BR70">
-        <v>0</v>
+        <v>10.55</v>
       </c>
       <c r="BS70">
         <v>0</v>
       </c>
       <c r="BT70">
-        <v>8.56</v>
+        <v>0</v>
       </c>
       <c r="BU70">
         <v>0</v>
@@ -16127,10 +16130,10 @@
         <v>0</v>
       </c>
       <c r="C71">
-        <v>16.25</v>
+        <v>0</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -16139,10 +16142,10 @@
         <v>0</v>
       </c>
       <c r="G71">
-        <v>3.32</v>
+        <v>0</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -16151,10 +16154,10 @@
         <v>0</v>
       </c>
       <c r="K71">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="L71">
-        <v>0</v>
+        <v>12.48</v>
       </c>
       <c r="M71">
         <v>0</v>
@@ -16163,10 +16166,10 @@
         <v>0</v>
       </c>
       <c r="O71">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="P71">
-        <v>0</v>
+        <v>3.54</v>
       </c>
       <c r="Q71">
         <v>0</v>
@@ -16175,10 +16178,10 @@
         <v>0</v>
       </c>
       <c r="S71">
-        <v>1.94</v>
+        <v>0</v>
       </c>
       <c r="T71">
-        <v>0</v>
+        <v>8.76</v>
       </c>
       <c r="U71">
         <v>0</v>
@@ -16187,10 +16190,10 @@
         <v>0</v>
       </c>
       <c r="W71">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="X71">
-        <v>0</v>
+        <v>3.06</v>
       </c>
       <c r="Y71">
         <v>0</v>
@@ -16199,10 +16202,10 @@
         <v>0</v>
       </c>
       <c r="AA71">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="AB71">
-        <v>0</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="AC71">
         <v>0</v>
@@ -16211,10 +16214,10 @@
         <v>0</v>
       </c>
       <c r="AE71">
-        <v>3.41</v>
+        <v>0</v>
       </c>
       <c r="AF71">
-        <v>0</v>
+        <v>6.3</v>
       </c>
       <c r="AG71">
         <v>0</v>
@@ -16223,10 +16226,10 @@
         <v>0</v>
       </c>
       <c r="AI71">
-        <v>4.58</v>
+        <v>0</v>
       </c>
       <c r="AJ71">
-        <v>0</v>
+        <v>5.27</v>
       </c>
       <c r="AK71">
         <v>0</v>
@@ -16235,10 +16238,10 @@
         <v>0</v>
       </c>
       <c r="AM71">
-        <v>3.71</v>
+        <v>0</v>
       </c>
       <c r="AN71">
-        <v>0</v>
+        <v>7.59</v>
       </c>
       <c r="AO71">
         <v>0</v>
@@ -16247,10 +16250,10 @@
         <v>0</v>
       </c>
       <c r="AQ71">
-        <v>2.74</v>
+        <v>0</v>
       </c>
       <c r="AR71">
-        <v>0</v>
+        <v>4.67</v>
       </c>
       <c r="AS71">
         <v>0</v>
@@ -16259,10 +16262,10 @@
         <v>0</v>
       </c>
       <c r="AU71">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AV71">
-        <v>0</v>
+        <v>2.91</v>
       </c>
       <c r="AW71">
         <v>0</v>
@@ -16271,10 +16274,10 @@
         <v>0</v>
       </c>
       <c r="AY71">
-        <v>0.87</v>
+        <v>0</v>
       </c>
       <c r="AZ71">
-        <v>0</v>
+        <v>4.97</v>
       </c>
       <c r="BA71">
         <v>0</v>
@@ -16283,10 +16286,10 @@
         <v>0</v>
       </c>
       <c r="BC71">
-        <v>1.99</v>
+        <v>0</v>
       </c>
       <c r="BD71">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="BE71">
         <v>0</v>
@@ -16295,10 +16298,10 @@
         <v>0</v>
       </c>
       <c r="BG71">
-        <v>0.56000000000000005</v>
+        <v>0</v>
       </c>
       <c r="BH71">
-        <v>0</v>
+        <v>14.92</v>
       </c>
       <c r="BI71">
         <v>0</v>
@@ -16307,7 +16310,7 @@
         <v>0</v>
       </c>
       <c r="BK71">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="BL71">
         <v>0</v>
@@ -16319,10 +16322,10 @@
         <v>0</v>
       </c>
       <c r="BO71">
-        <v>9.11</v>
+        <v>0</v>
       </c>
       <c r="BP71">
-        <v>0</v>
+        <v>12.7</v>
       </c>
       <c r="BQ71">
         <v>0</v>
@@ -16331,10 +16334,10 @@
         <v>0</v>
       </c>
       <c r="BS71">
-        <v>12.42</v>
+        <v>0</v>
       </c>
       <c r="BT71">
-        <v>0</v>
+        <v>8.56</v>
       </c>
       <c r="BU71">
         <v>0</v>
@@ -16348,10 +16351,10 @@
         <v>0</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>16.25</v>
       </c>
       <c r="D72">
-        <v>3.13</v>
+        <v>0</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -16360,10 +16363,10 @@
         <v>0</v>
       </c>
       <c r="G72">
-        <v>0</v>
+        <v>3.32</v>
       </c>
       <c r="H72">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -16372,10 +16375,10 @@
         <v>0</v>
       </c>
       <c r="K72">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="L72">
-        <v>3.48</v>
+        <v>0</v>
       </c>
       <c r="M72">
         <v>0</v>
@@ -16384,10 +16387,10 @@
         <v>0</v>
       </c>
       <c r="O72">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="P72">
-        <v>1.96</v>
+        <v>0</v>
       </c>
       <c r="Q72">
         <v>0</v>
@@ -16396,10 +16399,10 @@
         <v>0</v>
       </c>
       <c r="S72">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="T72">
-        <v>4.16</v>
+        <v>0</v>
       </c>
       <c r="U72">
         <v>0</v>
@@ -16408,10 +16411,10 @@
         <v>0</v>
       </c>
       <c r="W72">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="X72">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y72">
         <v>0</v>
@@ -16420,10 +16423,10 @@
         <v>0</v>
       </c>
       <c r="AA72">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="AB72">
-        <v>5.43</v>
+        <v>0</v>
       </c>
       <c r="AC72">
         <v>0</v>
@@ -16432,7 +16435,7 @@
         <v>0</v>
       </c>
       <c r="AE72">
-        <v>0</v>
+        <v>3.41</v>
       </c>
       <c r="AF72">
         <v>0</v>
@@ -16444,7 +16447,7 @@
         <v>0</v>
       </c>
       <c r="AI72">
-        <v>0</v>
+        <v>4.58</v>
       </c>
       <c r="AJ72">
         <v>0</v>
@@ -16456,10 +16459,10 @@
         <v>0</v>
       </c>
       <c r="AM72">
-        <v>0</v>
+        <v>3.71</v>
       </c>
       <c r="AN72">
-        <v>4.55</v>
+        <v>0</v>
       </c>
       <c r="AO72">
         <v>0</v>
@@ -16468,10 +16471,10 @@
         <v>0</v>
       </c>
       <c r="AQ72">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="AR72">
-        <v>5.16</v>
+        <v>0</v>
       </c>
       <c r="AS72">
         <v>0</v>
@@ -16480,10 +16483,10 @@
         <v>0</v>
       </c>
       <c r="AU72">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AV72">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="AW72">
         <v>0</v>
@@ -16492,10 +16495,10 @@
         <v>0</v>
       </c>
       <c r="AY72">
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="AZ72">
-        <v>3.11</v>
+        <v>0</v>
       </c>
       <c r="BA72">
         <v>0</v>
@@ -16504,10 +16507,10 @@
         <v>0</v>
       </c>
       <c r="BC72">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="BD72">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="BE72">
         <v>0</v>
@@ -16516,10 +16519,10 @@
         <v>0</v>
       </c>
       <c r="BG72">
-        <v>0</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="BH72">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="BI72">
         <v>0</v>
@@ -16528,10 +16531,10 @@
         <v>0</v>
       </c>
       <c r="BK72">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="BL72">
-        <v>7.24</v>
+        <v>0</v>
       </c>
       <c r="BM72">
         <v>0</v>
@@ -16540,10 +16543,10 @@
         <v>0</v>
       </c>
       <c r="BO72">
-        <v>0</v>
+        <v>9.11</v>
       </c>
       <c r="BP72">
-        <v>8.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="BQ72">
         <v>0</v>
@@ -16552,10 +16555,10 @@
         <v>0</v>
       </c>
       <c r="BS72">
-        <v>0</v>
+        <v>12.42</v>
       </c>
       <c r="BT72">
-        <v>9.0399999999999991</v>
+        <v>0</v>
       </c>
       <c r="BU72">
         <v>0</v>
@@ -16569,10 +16572,10 @@
         <v>0</v>
       </c>
       <c r="C73">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>3.13</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -16581,10 +16584,10 @@
         <v>0</v>
       </c>
       <c r="G73">
-        <v>6.32</v>
+        <v>0</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -16593,10 +16596,10 @@
         <v>0</v>
       </c>
       <c r="K73">
-        <v>2.93</v>
+        <v>0</v>
       </c>
       <c r="L73">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="M73">
         <v>0</v>
@@ -16605,10 +16608,10 @@
         <v>0</v>
       </c>
       <c r="O73">
-        <v>11.41</v>
+        <v>0</v>
       </c>
       <c r="P73">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="Q73">
         <v>0</v>
@@ -16617,10 +16620,10 @@
         <v>0</v>
       </c>
       <c r="S73">
-        <v>3.17</v>
+        <v>0</v>
       </c>
       <c r="T73">
-        <v>0</v>
+        <v>4.16</v>
       </c>
       <c r="U73">
         <v>0</v>
@@ -16629,10 +16632,10 @@
         <v>0</v>
       </c>
       <c r="W73">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="X73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y73">
         <v>0</v>
@@ -16641,10 +16644,10 @@
         <v>0</v>
       </c>
       <c r="AA73">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="AB73">
-        <v>0</v>
+        <v>5.43</v>
       </c>
       <c r="AC73">
         <v>0</v>
@@ -16653,7 +16656,7 @@
         <v>0</v>
       </c>
       <c r="AE73">
-        <v>0.59</v>
+        <v>0</v>
       </c>
       <c r="AF73">
         <v>0</v>
@@ -16665,7 +16668,7 @@
         <v>0</v>
       </c>
       <c r="AI73">
-        <v>11.38</v>
+        <v>0</v>
       </c>
       <c r="AJ73">
         <v>0</v>
@@ -16677,10 +16680,10 @@
         <v>0</v>
       </c>
       <c r="AM73">
-        <v>14.15</v>
+        <v>0</v>
       </c>
       <c r="AN73">
-        <v>0</v>
+        <v>4.55</v>
       </c>
       <c r="AO73">
         <v>0</v>
@@ -16689,10 +16692,10 @@
         <v>0</v>
       </c>
       <c r="AQ73">
-        <v>9.33</v>
+        <v>0</v>
       </c>
       <c r="AR73">
-        <v>0</v>
+        <v>5.16</v>
       </c>
       <c r="AS73">
         <v>0</v>
@@ -16701,10 +16704,10 @@
         <v>0</v>
       </c>
       <c r="AU73">
-        <v>5.17</v>
+        <v>0</v>
       </c>
       <c r="AV73">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AW73">
         <v>0</v>
@@ -16713,10 +16716,10 @@
         <v>0</v>
       </c>
       <c r="AY73">
-        <v>6.53</v>
+        <v>0</v>
       </c>
       <c r="AZ73">
-        <v>0</v>
+        <v>3.11</v>
       </c>
       <c r="BA73">
         <v>0</v>
@@ -16725,10 +16728,10 @@
         <v>0</v>
       </c>
       <c r="BC73">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="BD73">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="BE73">
         <v>0</v>
@@ -16737,10 +16740,10 @@
         <v>0</v>
       </c>
       <c r="BG73">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="BH73">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="BI73">
         <v>0</v>
@@ -16749,10 +16752,10 @@
         <v>0</v>
       </c>
       <c r="BK73">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="BL73">
-        <v>0</v>
+        <v>7.24</v>
       </c>
       <c r="BM73">
         <v>0</v>
@@ -16761,10 +16764,10 @@
         <v>0</v>
       </c>
       <c r="BO73">
-        <v>10.06</v>
+        <v>0</v>
       </c>
       <c r="BP73">
-        <v>0</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="BQ73">
         <v>0</v>
@@ -16773,10 +16776,10 @@
         <v>0</v>
       </c>
       <c r="BS73">
-        <v>3.11</v>
+        <v>0</v>
       </c>
       <c r="BT73">
-        <v>0</v>
+        <v>9.0399999999999991</v>
       </c>
       <c r="BU73">
         <v>0</v>
@@ -16790,10 +16793,10 @@
         <v>0</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="D74">
-        <v>5.13</v>
+        <v>0</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -16802,10 +16805,10 @@
         <v>0</v>
       </c>
       <c r="G74">
-        <v>0</v>
+        <v>6.32</v>
       </c>
       <c r="H74">
-        <v>3.22</v>
+        <v>0</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -16814,10 +16817,10 @@
         <v>0</v>
       </c>
       <c r="K74">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="L74">
-        <v>6.06</v>
+        <v>0</v>
       </c>
       <c r="M74">
         <v>0</v>
@@ -16826,7 +16829,7 @@
         <v>0</v>
       </c>
       <c r="O74">
-        <v>0</v>
+        <v>11.41</v>
       </c>
       <c r="P74">
         <v>0</v>
@@ -16838,10 +16841,10 @@
         <v>0</v>
       </c>
       <c r="S74">
-        <v>0</v>
+        <v>3.17</v>
       </c>
       <c r="T74">
-        <v>7.19</v>
+        <v>0</v>
       </c>
       <c r="U74">
         <v>0</v>
@@ -16850,10 +16853,10 @@
         <v>0</v>
       </c>
       <c r="W74">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="X74">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="Y74">
         <v>0</v>
@@ -16862,10 +16865,10 @@
         <v>0</v>
       </c>
       <c r="AA74">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AB74">
-        <v>9.84</v>
+        <v>0</v>
       </c>
       <c r="AC74">
         <v>0</v>
@@ -16874,7 +16877,7 @@
         <v>0</v>
       </c>
       <c r="AE74">
-        <v>0</v>
+        <v>0.59</v>
       </c>
       <c r="AF74">
         <v>0</v>
@@ -16886,10 +16889,10 @@
         <v>0</v>
       </c>
       <c r="AI74">
-        <v>0</v>
+        <v>11.38</v>
       </c>
       <c r="AJ74">
-        <v>7.91</v>
+        <v>0</v>
       </c>
       <c r="AK74">
         <v>0</v>
@@ -16898,10 +16901,10 @@
         <v>0</v>
       </c>
       <c r="AM74">
-        <v>0</v>
+        <v>14.15</v>
       </c>
       <c r="AN74">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="AO74">
         <v>0</v>
@@ -16910,10 +16913,10 @@
         <v>0</v>
       </c>
       <c r="AQ74">
-        <v>0</v>
+        <v>9.33</v>
       </c>
       <c r="AR74">
-        <v>11.19</v>
+        <v>0</v>
       </c>
       <c r="AS74">
         <v>0</v>
@@ -16922,7 +16925,7 @@
         <v>0</v>
       </c>
       <c r="AU74">
-        <v>0</v>
+        <v>5.17</v>
       </c>
       <c r="AV74">
         <v>0</v>
@@ -16934,10 +16937,10 @@
         <v>0</v>
       </c>
       <c r="AY74">
-        <v>0</v>
+        <v>6.53</v>
       </c>
       <c r="AZ74">
-        <v>15.58</v>
+        <v>0</v>
       </c>
       <c r="BA74">
         <v>0</v>
@@ -16946,10 +16949,10 @@
         <v>0</v>
       </c>
       <c r="BC74">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="BD74">
-        <v>3.63</v>
+        <v>0</v>
       </c>
       <c r="BE74">
         <v>0</v>
@@ -16958,10 +16961,10 @@
         <v>0</v>
       </c>
       <c r="BG74">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="BH74">
-        <v>5.46</v>
+        <v>0</v>
       </c>
       <c r="BI74">
         <v>0</v>
@@ -16970,10 +16973,10 @@
         <v>0</v>
       </c>
       <c r="BK74">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="BL74">
-        <v>2.48</v>
+        <v>0</v>
       </c>
       <c r="BM74">
         <v>0</v>
@@ -16982,10 +16985,10 @@
         <v>0</v>
       </c>
       <c r="BO74">
-        <v>0</v>
+        <v>10.06</v>
       </c>
       <c r="BP74">
-        <v>9.93</v>
+        <v>0</v>
       </c>
       <c r="BQ74">
         <v>0</v>
@@ -16994,10 +16997,10 @@
         <v>0</v>
       </c>
       <c r="BS74">
-        <v>0</v>
+        <v>3.11</v>
       </c>
       <c r="BT74">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="BU74">
         <v>0</v>
@@ -17014,7 +17017,7 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>5.13</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -17023,10 +17026,10 @@
         <v>0</v>
       </c>
       <c r="G75">
-        <v>11.12</v>
+        <v>0</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>3.22</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -17035,10 +17038,10 @@
         <v>0</v>
       </c>
       <c r="K75">
-        <v>14.06</v>
+        <v>0</v>
       </c>
       <c r="L75">
-        <v>0</v>
+        <v>6.06</v>
       </c>
       <c r="M75">
         <v>0</v>
@@ -17047,7 +17050,7 @@
         <v>0</v>
       </c>
       <c r="O75">
-        <v>15.01</v>
+        <v>0</v>
       </c>
       <c r="P75">
         <v>0</v>
@@ -17059,10 +17062,10 @@
         <v>0</v>
       </c>
       <c r="S75">
-        <v>13.31</v>
+        <v>0</v>
       </c>
       <c r="T75">
-        <v>0</v>
+        <v>7.19</v>
       </c>
       <c r="U75">
         <v>0</v>
@@ -17071,10 +17074,10 @@
         <v>0</v>
       </c>
       <c r="W75">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="X75">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="Y75">
         <v>0</v>
@@ -17083,10 +17086,10 @@
         <v>0</v>
       </c>
       <c r="AA75">
-        <v>7.68</v>
+        <v>0</v>
       </c>
       <c r="AB75">
-        <v>0</v>
+        <v>9.84</v>
       </c>
       <c r="AC75">
         <v>0</v>
@@ -17095,7 +17098,7 @@
         <v>0</v>
       </c>
       <c r="AE75">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="AF75">
         <v>0</v>
@@ -17107,10 +17110,10 @@
         <v>0</v>
       </c>
       <c r="AI75">
-        <v>11.16</v>
+        <v>0</v>
       </c>
       <c r="AJ75">
-        <v>0</v>
+        <v>7.91</v>
       </c>
       <c r="AK75">
         <v>0</v>
@@ -17119,10 +17122,10 @@
         <v>0</v>
       </c>
       <c r="AM75">
-        <v>12.34</v>
+        <v>0</v>
       </c>
       <c r="AN75">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AO75">
         <v>0</v>
@@ -17131,10 +17134,10 @@
         <v>0</v>
       </c>
       <c r="AQ75">
-        <v>14.79</v>
+        <v>0</v>
       </c>
       <c r="AR75">
-        <v>0</v>
+        <v>11.19</v>
       </c>
       <c r="AS75">
         <v>0</v>
@@ -17143,7 +17146,7 @@
         <v>0</v>
       </c>
       <c r="AU75">
-        <v>4.12</v>
+        <v>0</v>
       </c>
       <c r="AV75">
         <v>0</v>
@@ -17155,10 +17158,10 @@
         <v>0</v>
       </c>
       <c r="AY75">
-        <v>12.14</v>
+        <v>0</v>
       </c>
       <c r="AZ75">
-        <v>0</v>
+        <v>15.58</v>
       </c>
       <c r="BA75">
         <v>0</v>
@@ -17167,10 +17170,10 @@
         <v>0</v>
       </c>
       <c r="BC75">
-        <v>10.33</v>
+        <v>0</v>
       </c>
       <c r="BD75">
-        <v>0</v>
+        <v>3.63</v>
       </c>
       <c r="BE75">
         <v>0</v>
@@ -17179,10 +17182,10 @@
         <v>0</v>
       </c>
       <c r="BG75">
-        <v>6.9</v>
+        <v>0</v>
       </c>
       <c r="BH75">
-        <v>0</v>
+        <v>5.46</v>
       </c>
       <c r="BI75">
         <v>0</v>
@@ -17191,10 +17194,10 @@
         <v>0</v>
       </c>
       <c r="BK75">
-        <v>6.48</v>
+        <v>0</v>
       </c>
       <c r="BL75">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="BM75">
         <v>0</v>
@@ -17203,10 +17206,10 @@
         <v>0</v>
       </c>
       <c r="BO75">
-        <v>3.68</v>
+        <v>0</v>
       </c>
       <c r="BP75">
-        <v>0</v>
+        <v>9.93</v>
       </c>
       <c r="BQ75">
         <v>0</v>
@@ -17215,10 +17218,10 @@
         <v>0</v>
       </c>
       <c r="BS75">
-        <v>5.41</v>
+        <v>0</v>
       </c>
       <c r="BT75">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="BU75">
         <v>0</v>
@@ -17238,211 +17241,211 @@
         <v>0</v>
       </c>
       <c r="E76">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F76">
         <v>0</v>
       </c>
       <c r="G76">
-        <v>0</v>
+        <v>11.12</v>
       </c>
       <c r="H76">
         <v>0</v>
       </c>
       <c r="I76">
-        <v>4.78</v>
+        <v>0</v>
       </c>
       <c r="J76">
         <v>0</v>
       </c>
       <c r="K76">
-        <v>0</v>
+        <v>14.06</v>
       </c>
       <c r="L76">
         <v>0</v>
       </c>
       <c r="M76">
-        <v>5.08</v>
+        <v>0</v>
       </c>
       <c r="N76">
         <v>0</v>
       </c>
       <c r="O76">
-        <v>0</v>
+        <v>15.01</v>
       </c>
       <c r="P76">
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="R76">
         <v>0</v>
       </c>
       <c r="S76">
-        <v>0</v>
+        <v>13.31</v>
       </c>
       <c r="T76">
         <v>0</v>
       </c>
       <c r="U76">
-        <v>14.3</v>
+        <v>0</v>
       </c>
       <c r="V76">
         <v>0</v>
       </c>
       <c r="W76">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="X76">
         <v>0</v>
       </c>
       <c r="Y76">
-        <v>2.72</v>
+        <v>0</v>
       </c>
       <c r="Z76">
         <v>0</v>
       </c>
       <c r="AA76">
-        <v>0</v>
+        <v>7.68</v>
       </c>
       <c r="AB76">
         <v>0</v>
       </c>
       <c r="AC76">
-        <v>7.61</v>
+        <v>0</v>
       </c>
       <c r="AD76">
         <v>0</v>
       </c>
       <c r="AE76">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="AF76">
         <v>0</v>
       </c>
       <c r="AG76">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="AH76">
         <v>0</v>
       </c>
       <c r="AI76">
-        <v>0</v>
+        <v>11.16</v>
       </c>
       <c r="AJ76">
         <v>0</v>
       </c>
       <c r="AK76">
-        <v>10.45</v>
+        <v>0</v>
       </c>
       <c r="AL76">
         <v>0</v>
       </c>
       <c r="AM76">
-        <v>0</v>
+        <v>12.34</v>
       </c>
       <c r="AN76">
         <v>0</v>
       </c>
       <c r="AO76">
-        <v>4.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="AP76">
         <v>0</v>
       </c>
       <c r="AQ76">
-        <v>0</v>
+        <v>14.79</v>
       </c>
       <c r="AR76">
         <v>0</v>
       </c>
       <c r="AS76">
-        <v>9.4</v>
+        <v>0</v>
       </c>
       <c r="AT76">
         <v>0</v>
       </c>
       <c r="AU76">
-        <v>0</v>
+        <v>4.12</v>
       </c>
       <c r="AV76">
         <v>0</v>
       </c>
       <c r="AW76">
-        <v>6.04</v>
+        <v>0</v>
       </c>
       <c r="AX76">
         <v>0</v>
       </c>
       <c r="AY76">
-        <v>0</v>
+        <v>12.14</v>
       </c>
       <c r="AZ76">
         <v>0</v>
       </c>
       <c r="BA76">
-        <v>5.66</v>
+        <v>0</v>
       </c>
       <c r="BB76">
         <v>0</v>
       </c>
       <c r="BC76">
-        <v>0</v>
+        <v>10.33</v>
       </c>
       <c r="BD76">
         <v>0</v>
       </c>
       <c r="BE76">
-        <v>13.34</v>
+        <v>0</v>
       </c>
       <c r="BF76">
         <v>0</v>
       </c>
       <c r="BG76">
-        <v>0</v>
+        <v>6.9</v>
       </c>
       <c r="BH76">
         <v>0</v>
       </c>
       <c r="BI76">
-        <v>12.2</v>
+        <v>0</v>
       </c>
       <c r="BJ76">
         <v>0</v>
       </c>
       <c r="BK76">
-        <v>0</v>
+        <v>6.48</v>
       </c>
       <c r="BL76">
         <v>0</v>
       </c>
       <c r="BM76">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="BN76">
         <v>0</v>
       </c>
       <c r="BO76">
-        <v>0</v>
+        <v>3.68</v>
       </c>
       <c r="BP76">
         <v>0</v>
       </c>
       <c r="BQ76">
-        <v>17.89</v>
+        <v>0</v>
       </c>
       <c r="BR76">
         <v>0</v>
       </c>
       <c r="BS76">
-        <v>0</v>
+        <v>5.41</v>
       </c>
       <c r="BT76">
         <v>0</v>
       </c>
       <c r="BU76">
-        <v>17.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:73" x14ac:dyDescent="0.2">
@@ -17459,7 +17462,7 @@
         <v>0</v>
       </c>
       <c r="E77">
-        <v>4.79</v>
+        <v>0.03</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -17471,7 +17474,7 @@
         <v>0</v>
       </c>
       <c r="I77">
-        <v>1.91</v>
+        <v>4.78</v>
       </c>
       <c r="J77">
         <v>0</v>
@@ -17483,7 +17486,7 @@
         <v>0</v>
       </c>
       <c r="M77">
-        <v>8.5299999999999994</v>
+        <v>5.08</v>
       </c>
       <c r="N77">
         <v>0</v>
@@ -17495,7 +17498,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>1.37</v>
+        <v>1.63</v>
       </c>
       <c r="R77">
         <v>0</v>
@@ -17507,7 +17510,7 @@
         <v>0</v>
       </c>
       <c r="U77">
-        <v>16.190000000000001</v>
+        <v>14.3</v>
       </c>
       <c r="V77">
         <v>0</v>
@@ -17519,7 +17522,7 @@
         <v>0</v>
       </c>
       <c r="Y77">
-        <v>1.25</v>
+        <v>2.72</v>
       </c>
       <c r="Z77">
         <v>0</v>
@@ -17531,7 +17534,7 @@
         <v>0</v>
       </c>
       <c r="AC77">
-        <v>6.52</v>
+        <v>7.61</v>
       </c>
       <c r="AD77">
         <v>0</v>
@@ -17543,7 +17546,7 @@
         <v>0</v>
       </c>
       <c r="AG77">
-        <v>2.21</v>
+        <v>0.9</v>
       </c>
       <c r="AH77">
         <v>0</v>
@@ -17555,7 +17558,7 @@
         <v>0</v>
       </c>
       <c r="AK77">
-        <v>12.64</v>
+        <v>10.45</v>
       </c>
       <c r="AL77">
         <v>0</v>
@@ -17567,7 +17570,7 @@
         <v>0</v>
       </c>
       <c r="AO77">
-        <v>4.63</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AP77">
         <v>0</v>
@@ -17579,7 +17582,7 @@
         <v>0</v>
       </c>
       <c r="AS77">
-        <v>7.57</v>
+        <v>9.4</v>
       </c>
       <c r="AT77">
         <v>0</v>
@@ -17591,7 +17594,7 @@
         <v>0</v>
       </c>
       <c r="AW77">
-        <v>5.01</v>
+        <v>6.04</v>
       </c>
       <c r="AX77">
         <v>0</v>
@@ -17603,7 +17606,7 @@
         <v>0</v>
       </c>
       <c r="BA77">
-        <v>11.98</v>
+        <v>5.66</v>
       </c>
       <c r="BB77">
         <v>0</v>
@@ -17615,7 +17618,7 @@
         <v>0</v>
       </c>
       <c r="BE77">
-        <v>4.96</v>
+        <v>13.34</v>
       </c>
       <c r="BF77">
         <v>0</v>
@@ -17627,7 +17630,7 @@
         <v>0</v>
       </c>
       <c r="BI77">
-        <v>7</v>
+        <v>12.2</v>
       </c>
       <c r="BJ77">
         <v>0</v>
@@ -17639,7 +17642,7 @@
         <v>0</v>
       </c>
       <c r="BM77">
-        <v>4.6399999999999997</v>
+        <v>6.25</v>
       </c>
       <c r="BN77">
         <v>0</v>
@@ -17651,7 +17654,7 @@
         <v>0</v>
       </c>
       <c r="BQ77">
-        <v>12.5</v>
+        <v>17.89</v>
       </c>
       <c r="BR77">
         <v>0</v>
@@ -17663,7 +17666,7 @@
         <v>0</v>
       </c>
       <c r="BU77">
-        <v>15.41</v>
+        <v>17.3</v>
       </c>
     </row>
     <row r="78" spans="1:73" x14ac:dyDescent="0.2">
@@ -17680,7 +17683,7 @@
         <v>0</v>
       </c>
       <c r="E78">
-        <v>6.64</v>
+        <v>4.79</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -17692,7 +17695,7 @@
         <v>0</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="J78">
         <v>0</v>
@@ -17704,7 +17707,7 @@
         <v>0</v>
       </c>
       <c r="M78">
-        <v>0.5</v>
+        <v>8.5299999999999994</v>
       </c>
       <c r="N78">
         <v>0</v>
@@ -17716,7 +17719,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="R78">
         <v>0</v>
@@ -17728,7 +17731,7 @@
         <v>0</v>
       </c>
       <c r="U78">
-        <v>13.53</v>
+        <v>16.190000000000001</v>
       </c>
       <c r="V78">
         <v>0</v>
@@ -17740,7 +17743,7 @@
         <v>0</v>
       </c>
       <c r="Y78">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Z78">
         <v>0</v>
@@ -17752,7 +17755,7 @@
         <v>0</v>
       </c>
       <c r="AC78">
-        <v>6.31</v>
+        <v>6.52</v>
       </c>
       <c r="AD78">
         <v>0</v>
@@ -17764,7 +17767,7 @@
         <v>0</v>
       </c>
       <c r="AG78">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="AH78">
         <v>0</v>
@@ -17776,7 +17779,7 @@
         <v>0</v>
       </c>
       <c r="AK78">
-        <v>6.99</v>
+        <v>12.64</v>
       </c>
       <c r="AL78">
         <v>0</v>
@@ -17788,7 +17791,7 @@
         <v>0</v>
       </c>
       <c r="AO78">
-        <v>0</v>
+        <v>4.63</v>
       </c>
       <c r="AP78">
         <v>0</v>
@@ -17800,7 +17803,7 @@
         <v>0</v>
       </c>
       <c r="AS78">
-        <v>7.54</v>
+        <v>7.57</v>
       </c>
       <c r="AT78">
         <v>0</v>
@@ -17812,7 +17815,7 @@
         <v>0</v>
       </c>
       <c r="AW78">
-        <v>0</v>
+        <v>5.01</v>
       </c>
       <c r="AX78">
         <v>0</v>
@@ -17824,7 +17827,7 @@
         <v>0</v>
       </c>
       <c r="BA78">
-        <v>1.9</v>
+        <v>11.98</v>
       </c>
       <c r="BB78">
         <v>0</v>
@@ -17836,7 +17839,7 @@
         <v>0</v>
       </c>
       <c r="BE78">
-        <v>0</v>
+        <v>4.96</v>
       </c>
       <c r="BF78">
         <v>0</v>
@@ -17848,7 +17851,7 @@
         <v>0</v>
       </c>
       <c r="BI78">
-        <v>3.79</v>
+        <v>7</v>
       </c>
       <c r="BJ78">
         <v>0</v>
@@ -17860,7 +17863,7 @@
         <v>0</v>
       </c>
       <c r="BM78">
-        <v>0</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="BN78">
         <v>0</v>
@@ -17872,7 +17875,7 @@
         <v>0</v>
       </c>
       <c r="BQ78">
-        <v>7.95</v>
+        <v>12.5</v>
       </c>
       <c r="BR78">
         <v>0</v>
@@ -17884,7 +17887,7 @@
         <v>0</v>
       </c>
       <c r="BU78">
-        <v>10.54</v>
+        <v>15.41</v>
       </c>
     </row>
     <row r="79" spans="1:73" x14ac:dyDescent="0.2">
@@ -17892,7 +17895,7 @@
         <v>95</v>
       </c>
       <c r="B79">
-        <v>4.87</v>
+        <v>0</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -17901,10 +17904,10 @@
         <v>0</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>6.64</v>
       </c>
       <c r="F79">
-        <v>4.99</v>
+        <v>0</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -17916,7 +17919,7 @@
         <v>0</v>
       </c>
       <c r="J79">
-        <v>6.23</v>
+        <v>0</v>
       </c>
       <c r="K79">
         <v>0</v>
@@ -17925,10 +17928,10 @@
         <v>0</v>
       </c>
       <c r="M79">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N79">
-        <v>3.64</v>
+        <v>0</v>
       </c>
       <c r="O79">
         <v>0</v>
@@ -17940,7 +17943,7 @@
         <v>0</v>
       </c>
       <c r="R79">
-        <v>2.71</v>
+        <v>0</v>
       </c>
       <c r="S79">
         <v>0</v>
@@ -17949,10 +17952,10 @@
         <v>0</v>
       </c>
       <c r="U79">
-        <v>0</v>
+        <v>13.53</v>
       </c>
       <c r="V79">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="W79">
         <v>0</v>
@@ -17964,7 +17967,7 @@
         <v>0</v>
       </c>
       <c r="Z79">
-        <v>13.69</v>
+        <v>0</v>
       </c>
       <c r="AA79">
         <v>0</v>
@@ -17973,10 +17976,10 @@
         <v>0</v>
       </c>
       <c r="AC79">
-        <v>0</v>
+        <v>6.31</v>
       </c>
       <c r="AD79">
-        <v>1.94</v>
+        <v>0</v>
       </c>
       <c r="AE79">
         <v>0</v>
@@ -17988,7 +17991,7 @@
         <v>0</v>
       </c>
       <c r="AH79">
-        <v>6.97</v>
+        <v>0</v>
       </c>
       <c r="AI79">
         <v>0</v>
@@ -17997,10 +18000,10 @@
         <v>0</v>
       </c>
       <c r="AK79">
-        <v>0</v>
+        <v>6.99</v>
       </c>
       <c r="AL79">
-        <v>8.26</v>
+        <v>0</v>
       </c>
       <c r="AM79">
         <v>0</v>
@@ -18012,7 +18015,7 @@
         <v>0</v>
       </c>
       <c r="AP79">
-        <v>6.06</v>
+        <v>0</v>
       </c>
       <c r="AQ79">
         <v>0</v>
@@ -18021,10 +18024,10 @@
         <v>0</v>
       </c>
       <c r="AS79">
-        <v>0</v>
+        <v>7.54</v>
       </c>
       <c r="AT79">
-        <v>3.91</v>
+        <v>0</v>
       </c>
       <c r="AU79">
         <v>0</v>
@@ -18036,7 +18039,7 @@
         <v>0</v>
       </c>
       <c r="AX79">
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="AY79">
         <v>0</v>
@@ -18045,10 +18048,10 @@
         <v>0</v>
       </c>
       <c r="BA79">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="BB79">
-        <v>4.45</v>
+        <v>0</v>
       </c>
       <c r="BC79">
         <v>0</v>
@@ -18060,7 +18063,7 @@
         <v>0</v>
       </c>
       <c r="BF79">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="BG79">
         <v>0</v>
@@ -18069,10 +18072,10 @@
         <v>0</v>
       </c>
       <c r="BI79">
-        <v>0</v>
+        <v>3.79</v>
       </c>
       <c r="BJ79">
-        <v>6.37</v>
+        <v>0</v>
       </c>
       <c r="BK79">
         <v>0</v>
@@ -18084,7 +18087,7 @@
         <v>0</v>
       </c>
       <c r="BN79">
-        <v>12.81</v>
+        <v>0</v>
       </c>
       <c r="BO79">
         <v>0</v>
@@ -18093,10 +18096,10 @@
         <v>0</v>
       </c>
       <c r="BQ79">
-        <v>0</v>
+        <v>7.95</v>
       </c>
       <c r="BR79">
-        <v>10.43</v>
+        <v>0</v>
       </c>
       <c r="BS79">
         <v>0</v>
@@ -18105,7 +18108,7 @@
         <v>0</v>
       </c>
       <c r="BU79">
-        <v>0</v>
+        <v>10.54</v>
       </c>
     </row>
     <row r="80" spans="1:73" x14ac:dyDescent="0.2">
@@ -18113,217 +18116,217 @@
         <v>96</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>4.87</v>
       </c>
       <c r="C80">
         <v>0</v>
       </c>
       <c r="D80">
-        <v>7.45</v>
+        <v>0</v>
       </c>
       <c r="E80">
         <v>0</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>4.99</v>
       </c>
       <c r="G80">
         <v>0</v>
       </c>
       <c r="H80">
-        <v>0.77</v>
+        <v>0</v>
       </c>
       <c r="I80">
         <v>0</v>
       </c>
       <c r="J80">
-        <v>0</v>
+        <v>6.23</v>
       </c>
       <c r="K80">
         <v>0</v>
       </c>
       <c r="L80">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="M80">
         <v>0</v>
       </c>
       <c r="N80">
-        <v>0</v>
+        <v>3.64</v>
       </c>
       <c r="O80">
         <v>0</v>
       </c>
       <c r="P80">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="Q80">
         <v>0</v>
       </c>
       <c r="R80">
-        <v>0</v>
+        <v>2.71</v>
       </c>
       <c r="S80">
         <v>0</v>
       </c>
       <c r="T80">
-        <v>7.76</v>
+        <v>0</v>
       </c>
       <c r="U80">
         <v>0</v>
       </c>
       <c r="V80">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="W80">
         <v>0</v>
       </c>
       <c r="X80">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="Y80">
         <v>0</v>
       </c>
       <c r="Z80">
-        <v>0</v>
+        <v>13.69</v>
       </c>
       <c r="AA80">
         <v>0</v>
       </c>
       <c r="AB80">
-        <v>7.06</v>
+        <v>0</v>
       </c>
       <c r="AC80">
         <v>0</v>
       </c>
       <c r="AD80">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="AE80">
         <v>0</v>
       </c>
       <c r="AF80">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="AG80">
         <v>0</v>
       </c>
       <c r="AH80">
-        <v>0</v>
+        <v>6.97</v>
       </c>
       <c r="AI80">
         <v>0</v>
       </c>
       <c r="AJ80">
-        <v>4.66</v>
+        <v>0</v>
       </c>
       <c r="AK80">
         <v>0</v>
       </c>
       <c r="AL80">
-        <v>0</v>
+        <v>8.26</v>
       </c>
       <c r="AM80">
         <v>0</v>
       </c>
       <c r="AN80">
-        <v>12.34</v>
+        <v>0</v>
       </c>
       <c r="AO80">
         <v>0</v>
       </c>
       <c r="AP80">
-        <v>0</v>
+        <v>6.06</v>
       </c>
       <c r="AQ80">
         <v>0</v>
       </c>
       <c r="AR80">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="AS80">
         <v>0</v>
       </c>
       <c r="AT80">
-        <v>0</v>
+        <v>3.91</v>
       </c>
       <c r="AU80">
         <v>0</v>
       </c>
       <c r="AV80">
-        <v>2.87</v>
+        <v>0</v>
       </c>
       <c r="AW80">
         <v>0</v>
       </c>
       <c r="AX80">
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="AY80">
         <v>0</v>
       </c>
       <c r="AZ80">
-        <v>13.54</v>
+        <v>0</v>
       </c>
       <c r="BA80">
         <v>0</v>
       </c>
       <c r="BB80">
-        <v>0</v>
+        <v>4.45</v>
       </c>
       <c r="BC80">
         <v>0</v>
       </c>
       <c r="BD80">
-        <v>1.1499999999999999</v>
+        <v>0</v>
       </c>
       <c r="BE80">
         <v>0</v>
       </c>
       <c r="BF80">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="BG80">
         <v>0</v>
       </c>
       <c r="BH80">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="BI80">
         <v>0</v>
       </c>
       <c r="BJ80">
-        <v>0</v>
+        <v>6.37</v>
       </c>
       <c r="BK80">
         <v>0</v>
       </c>
       <c r="BL80">
-        <v>0.62</v>
+        <v>0</v>
       </c>
       <c r="BM80">
         <v>0</v>
       </c>
       <c r="BN80">
-        <v>0</v>
+        <v>12.81</v>
       </c>
       <c r="BO80">
         <v>0</v>
       </c>
       <c r="BP80">
-        <v>15.06</v>
+        <v>0</v>
       </c>
       <c r="BQ80">
         <v>0</v>
       </c>
       <c r="BR80">
-        <v>0</v>
+        <v>10.43</v>
       </c>
       <c r="BS80">
         <v>0</v>
       </c>
       <c r="BT80">
-        <v>10.41</v>
+        <v>0</v>
       </c>
       <c r="BU80">
         <v>0</v>
@@ -18334,217 +18337,217 @@
         <v>97</v>
       </c>
       <c r="B81">
-        <v>14.49</v>
+        <v>0</v>
       </c>
       <c r="C81">
         <v>0</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>7.45</v>
       </c>
       <c r="E81">
         <v>0</v>
       </c>
       <c r="F81">
-        <v>2.44</v>
+        <v>0</v>
       </c>
       <c r="G81">
         <v>0</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>0.77</v>
       </c>
       <c r="I81">
         <v>0</v>
       </c>
       <c r="J81">
-        <v>11.2</v>
+        <v>0</v>
       </c>
       <c r="K81">
         <v>0</v>
       </c>
       <c r="L81">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="M81">
         <v>0</v>
       </c>
       <c r="N81">
-        <v>9.64</v>
+        <v>0</v>
       </c>
       <c r="O81">
         <v>0</v>
       </c>
       <c r="P81">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="Q81">
         <v>0</v>
       </c>
       <c r="R81">
-        <v>11.9</v>
+        <v>0</v>
       </c>
       <c r="S81">
         <v>0</v>
       </c>
       <c r="T81">
-        <v>0</v>
+        <v>7.76</v>
       </c>
       <c r="U81">
         <v>0</v>
       </c>
       <c r="V81">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="W81">
         <v>0</v>
       </c>
       <c r="X81">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Y81">
         <v>0</v>
       </c>
       <c r="Z81">
-        <v>2.59</v>
+        <v>0</v>
       </c>
       <c r="AA81">
         <v>0</v>
       </c>
       <c r="AB81">
-        <v>0</v>
+        <v>7.06</v>
       </c>
       <c r="AC81">
         <v>0</v>
       </c>
       <c r="AD81">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="AE81">
         <v>0</v>
       </c>
       <c r="AF81">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AG81">
         <v>0</v>
       </c>
       <c r="AH81">
-        <v>15.32</v>
+        <v>0</v>
       </c>
       <c r="AI81">
         <v>0</v>
       </c>
       <c r="AJ81">
-        <v>0</v>
+        <v>4.66</v>
       </c>
       <c r="AK81">
         <v>0</v>
       </c>
       <c r="AL81">
-        <v>12.93</v>
+        <v>0</v>
       </c>
       <c r="AM81">
         <v>0</v>
       </c>
       <c r="AN81">
-        <v>0</v>
+        <v>12.34</v>
       </c>
       <c r="AO81">
         <v>0</v>
       </c>
       <c r="AP81">
-        <v>13.75</v>
+        <v>0</v>
       </c>
       <c r="AQ81">
         <v>0</v>
       </c>
       <c r="AR81">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AS81">
         <v>0</v>
       </c>
       <c r="AT81">
-        <v>6.57</v>
+        <v>0</v>
       </c>
       <c r="AU81">
         <v>0</v>
       </c>
       <c r="AV81">
-        <v>0</v>
+        <v>2.87</v>
       </c>
       <c r="AW81">
         <v>0</v>
       </c>
       <c r="AX81">
-        <v>12.48</v>
+        <v>0</v>
       </c>
       <c r="AY81">
         <v>0</v>
       </c>
       <c r="AZ81">
-        <v>0</v>
+        <v>13.54</v>
       </c>
       <c r="BA81">
         <v>0</v>
       </c>
       <c r="BB81">
-        <v>2.0499999999999998</v>
+        <v>0</v>
       </c>
       <c r="BC81">
         <v>0</v>
       </c>
       <c r="BD81">
-        <v>0</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="BE81">
         <v>0</v>
       </c>
       <c r="BF81">
-        <v>2.5499999999999998</v>
+        <v>0</v>
       </c>
       <c r="BG81">
         <v>0</v>
       </c>
       <c r="BH81">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="BI81">
         <v>0</v>
       </c>
       <c r="BJ81">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="BK81">
         <v>0</v>
       </c>
       <c r="BL81">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="BM81">
         <v>0</v>
       </c>
       <c r="BN81">
-        <v>13.24</v>
+        <v>0</v>
       </c>
       <c r="BO81">
         <v>0</v>
       </c>
       <c r="BP81">
-        <v>0</v>
+        <v>15.06</v>
       </c>
       <c r="BQ81">
         <v>0</v>
       </c>
       <c r="BR81">
-        <v>8.58</v>
+        <v>0</v>
       </c>
       <c r="BS81">
         <v>0</v>
       </c>
       <c r="BT81">
-        <v>0</v>
+        <v>10.41</v>
       </c>
       <c r="BU81">
         <v>0</v>
@@ -18555,220 +18558,441 @@
         <v>98</v>
       </c>
       <c r="B82">
+        <v>14.49</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>2.44</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>11.2</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>9.64</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>0</v>
+      </c>
+      <c r="R82">
+        <v>11.9</v>
+      </c>
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
+        <v>0</v>
+      </c>
+      <c r="U82">
+        <v>0</v>
+      </c>
+      <c r="V82">
+        <v>0.1</v>
+      </c>
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
+        <v>0</v>
+      </c>
+      <c r="Y82">
+        <v>0</v>
+      </c>
+      <c r="Z82">
+        <v>2.59</v>
+      </c>
+      <c r="AA82">
+        <v>0</v>
+      </c>
+      <c r="AB82">
+        <v>0</v>
+      </c>
+      <c r="AC82">
+        <v>0</v>
+      </c>
+      <c r="AD82">
+        <v>1.37</v>
+      </c>
+      <c r="AE82">
+        <v>0</v>
+      </c>
+      <c r="AF82">
+        <v>0</v>
+      </c>
+      <c r="AG82">
+        <v>0</v>
+      </c>
+      <c r="AH82">
+        <v>15.32</v>
+      </c>
+      <c r="AI82">
+        <v>0</v>
+      </c>
+      <c r="AJ82">
+        <v>0</v>
+      </c>
+      <c r="AK82">
+        <v>0</v>
+      </c>
+      <c r="AL82">
+        <v>12.93</v>
+      </c>
+      <c r="AM82">
+        <v>0</v>
+      </c>
+      <c r="AN82">
+        <v>0</v>
+      </c>
+      <c r="AO82">
+        <v>0</v>
+      </c>
+      <c r="AP82">
+        <v>13.75</v>
+      </c>
+      <c r="AQ82">
+        <v>0</v>
+      </c>
+      <c r="AR82">
+        <v>0</v>
+      </c>
+      <c r="AS82">
+        <v>0</v>
+      </c>
+      <c r="AT82">
+        <v>6.57</v>
+      </c>
+      <c r="AU82">
+        <v>0</v>
+      </c>
+      <c r="AV82">
+        <v>0</v>
+      </c>
+      <c r="AW82">
+        <v>0</v>
+      </c>
+      <c r="AX82">
+        <v>12.48</v>
+      </c>
+      <c r="AY82">
+        <v>0</v>
+      </c>
+      <c r="AZ82">
+        <v>0</v>
+      </c>
+      <c r="BA82">
+        <v>0</v>
+      </c>
+      <c r="BB82">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="BC82">
+        <v>0</v>
+      </c>
+      <c r="BD82">
+        <v>0</v>
+      </c>
+      <c r="BE82">
+        <v>0</v>
+      </c>
+      <c r="BF82">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="BG82">
+        <v>0</v>
+      </c>
+      <c r="BH82">
+        <v>0</v>
+      </c>
+      <c r="BI82">
+        <v>0</v>
+      </c>
+      <c r="BJ82">
+        <v>1.45</v>
+      </c>
+      <c r="BK82">
+        <v>0</v>
+      </c>
+      <c r="BL82">
+        <v>0</v>
+      </c>
+      <c r="BM82">
+        <v>0</v>
+      </c>
+      <c r="BN82">
+        <v>13.24</v>
+      </c>
+      <c r="BO82">
+        <v>0</v>
+      </c>
+      <c r="BP82">
+        <v>0</v>
+      </c>
+      <c r="BQ82">
+        <v>0</v>
+      </c>
+      <c r="BR82">
+        <v>8.58</v>
+      </c>
+      <c r="BS82">
+        <v>0</v>
+      </c>
+      <c r="BT82">
+        <v>0</v>
+      </c>
+      <c r="BU82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:73" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>99</v>
+      </c>
+      <c r="B83">
         <v>120.72</v>
       </c>
-      <c r="C82">
+      <c r="C83">
         <v>186.46</v>
       </c>
-      <c r="D82">
+      <c r="D83">
         <v>68.349999999999994</v>
       </c>
-      <c r="E82">
-        <v>107.07</v>
-      </c>
-      <c r="F82">
+      <c r="E83">
+        <v>111.07</v>
+      </c>
+      <c r="F83">
         <v>83.76</v>
       </c>
-      <c r="G82">
+      <c r="G83">
         <v>107.83</v>
       </c>
-      <c r="H82">
+      <c r="H83">
         <v>55.7</v>
       </c>
-      <c r="I82">
-        <v>67.84</v>
-      </c>
-      <c r="J82">
+      <c r="I83">
+        <v>69.92</v>
+      </c>
+      <c r="J83">
         <v>110.72</v>
       </c>
-      <c r="K82">
+      <c r="K83">
         <v>74.989999999999995</v>
       </c>
-      <c r="L82">
+      <c r="L83">
         <v>79.56</v>
       </c>
-      <c r="M82">
-        <v>79.989999999999995</v>
-      </c>
-      <c r="N82">
+      <c r="M83">
+        <v>86.95</v>
+      </c>
+      <c r="N83">
         <v>61.94</v>
       </c>
-      <c r="O82">
+      <c r="O83">
         <v>100.03</v>
       </c>
-      <c r="P82">
+      <c r="P83">
         <v>74.31</v>
       </c>
-      <c r="Q82">
-        <v>53.32</v>
-      </c>
-      <c r="R82">
+      <c r="Q83">
+        <v>57.54</v>
+      </c>
+      <c r="R83">
         <v>84.32</v>
       </c>
-      <c r="S82">
+      <c r="S83">
         <v>73.48</v>
       </c>
-      <c r="T82">
+      <c r="T83">
         <v>93.87</v>
       </c>
-      <c r="U82">
-        <v>238.52</v>
-      </c>
-      <c r="V82">
+      <c r="U83">
+        <v>250.26</v>
+      </c>
+      <c r="V83">
         <v>46.62</v>
       </c>
-      <c r="W82">
+      <c r="W83">
         <v>52.06</v>
       </c>
-      <c r="X82">
+      <c r="X83">
         <v>55.86</v>
       </c>
-      <c r="Y82">
-        <v>57.09</v>
-      </c>
-      <c r="Z82">
+      <c r="Y83">
+        <v>58.71</v>
+      </c>
+      <c r="Z83">
         <v>77.260000000000005</v>
       </c>
-      <c r="AA82">
+      <c r="AA83">
         <v>45.71</v>
       </c>
-      <c r="AB82">
+      <c r="AB83">
         <v>103.08</v>
       </c>
-      <c r="AC82">
-        <v>131.87</v>
-      </c>
-      <c r="AD82">
+      <c r="AC83">
+        <v>135.9</v>
+      </c>
+      <c r="AD83">
         <v>73.64</v>
       </c>
-      <c r="AE82">
+      <c r="AE83">
         <v>38.64</v>
       </c>
-      <c r="AF82">
+      <c r="AF83">
         <v>39.64</v>
       </c>
-      <c r="AG82">
-        <v>58.02</v>
-      </c>
-      <c r="AH82">
+      <c r="AG83">
+        <v>59.15</v>
+      </c>
+      <c r="AH83">
         <v>196.98</v>
       </c>
-      <c r="AI82">
+      <c r="AI83">
         <v>203.39</v>
       </c>
-      <c r="AJ82">
+      <c r="AJ83">
         <v>79.069999999999993</v>
       </c>
-      <c r="AK82">
-        <v>157.16999999999999</v>
-      </c>
-      <c r="AL82">
+      <c r="AK83">
+        <v>168.83</v>
+      </c>
+      <c r="AL83">
         <v>136.97999999999999</v>
       </c>
-      <c r="AM82">
+      <c r="AM83">
         <v>146.34</v>
       </c>
-      <c r="AN82">
+      <c r="AN83">
         <v>82.39</v>
       </c>
-      <c r="AO82">
-        <v>85.5</v>
-      </c>
-      <c r="AP82">
+      <c r="AO83">
+        <v>92.89</v>
+      </c>
+      <c r="AP83">
         <v>108.7</v>
       </c>
-      <c r="AQ82">
+      <c r="AQ83">
         <v>132.11000000000001</v>
       </c>
-      <c r="AR82">
+      <c r="AR83">
         <v>143.63999999999999</v>
       </c>
-      <c r="AS82">
-        <v>107.47</v>
-      </c>
-      <c r="AT82">
+      <c r="AS83">
+        <v>122.05</v>
+      </c>
+      <c r="AT83">
         <v>79.760000000000005</v>
       </c>
-      <c r="AU82">
+      <c r="AU83">
         <v>69.56</v>
       </c>
-      <c r="AV82">
+      <c r="AV83">
         <v>59.78</v>
       </c>
-      <c r="AW82">
+      <c r="AW83">
         <v>93.53</v>
       </c>
-      <c r="AX82">
+      <c r="AX83">
         <v>98.5</v>
       </c>
-      <c r="AY82">
+      <c r="AY83">
         <v>82.7</v>
       </c>
-      <c r="AZ82">
+      <c r="AZ83">
         <v>205.41</v>
       </c>
-      <c r="BA82">
-        <v>159.63999999999999</v>
-      </c>
-      <c r="BB82">
+      <c r="BA83">
+        <v>160.91</v>
+      </c>
+      <c r="BB83">
         <v>68.19</v>
       </c>
-      <c r="BC82">
+      <c r="BC83">
         <v>58.77</v>
       </c>
-      <c r="BD82">
+      <c r="BD83">
         <v>54.36</v>
       </c>
-      <c r="BE82">
-        <v>73.23</v>
-      </c>
-      <c r="BF82">
+      <c r="BE83">
+        <v>76.83</v>
+      </c>
+      <c r="BF83">
         <v>77.180000000000007</v>
       </c>
-      <c r="BG82">
+      <c r="BG83">
         <v>56.67</v>
       </c>
-      <c r="BH82">
+      <c r="BH83">
         <v>96.35</v>
       </c>
-      <c r="BI82">
-        <v>162.76</v>
-      </c>
-      <c r="BJ82">
+      <c r="BI83">
+        <v>166</v>
+      </c>
+      <c r="BJ83">
         <v>71.86</v>
       </c>
-      <c r="BK82">
+      <c r="BK83">
         <v>65.16</v>
       </c>
-      <c r="BL82">
+      <c r="BL83">
         <v>54.31</v>
       </c>
-      <c r="BM82">
-        <v>57.98</v>
-      </c>
-      <c r="BN82">
+      <c r="BM83">
+        <v>60.73</v>
+      </c>
+      <c r="BN83">
         <v>199.64</v>
       </c>
-      <c r="BO82">
+      <c r="BO83">
         <v>166.49</v>
       </c>
-      <c r="BP82">
+      <c r="BP83">
         <v>188.47</v>
       </c>
-      <c r="BQ82">
-        <v>220.67</v>
-      </c>
-      <c r="BR82">
+      <c r="BQ83">
+        <v>232.46</v>
+      </c>
+      <c r="BR83">
         <v>119.4</v>
       </c>
-      <c r="BS82">
+      <c r="BS83">
         <v>222.29</v>
       </c>
-      <c r="BT82">
+      <c r="BT83">
         <v>146.69999999999999</v>
       </c>
-      <c r="BU82">
-        <v>250.25</v>
+      <c r="BU83">
+        <v>255.18</v>
       </c>
     </row>
   </sheetData>
